--- a/ACTIVOS EROSA 29 Abr 25.xlsx
+++ b/ACTIVOS EROSA 29 Abr 25.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F28D36-F995-49BF-91D4-B2CEE933F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A9768-D1C0-4521-9ED9-FED14FE9D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5391,12 +5391,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5709,22 +5709,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.21875" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="53" customWidth="1"/>
+    <col min="11" max="11" width="16" style="53" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" style="53" customWidth="1"/>
     <col min="13" max="13" width="45.109375" style="53" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" style="53" bestFit="1" customWidth="1"/>
@@ -5739,15 +5739,14 @@
     <col min="24" max="24" width="4.5546875" customWidth="1"/>
     <col min="25" max="25" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39.44140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="29.5546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="39.44140625" customWidth="1"/>
+    <col min="28" max="28" width="29.5546875" customWidth="1"/>
     <col min="30" max="30" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="68.33203125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="36.109375" customWidth="1"/>
+    <col min="35" max="36" width="8.109375" customWidth="1"/>
+    <col min="37" max="37" width="76.44140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16021,8 +16020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD89E0-7FE6-40A2-A0AA-824D24B7DECF}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -16073,7 +16072,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E39" si="0">"("""&amp;B3&amp;""","&amp;C3&amp;"),"</f>
+        <f t="shared" ref="E3:E31" si="0">"("""&amp;B3&amp;""","&amp;C3&amp;"),"</f>
         <v>("APP MÓVIL",1),</v>
       </c>
     </row>
@@ -16337,7 +16336,7 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="62" t="s">
         <v>248</v>
       </c>
       <c r="J17" t="s">
@@ -16364,7 +16363,7 @@
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="62" t="s">
         <v>1634</v>
       </c>
       <c r="J18" t="s">
@@ -16391,7 +16390,7 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="62" t="s">
         <v>1635</v>
       </c>
       <c r="J19" t="s">
@@ -16418,7 +16417,7 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="62" t="s">
         <v>1608</v>
       </c>
       <c r="J20" t="s">
@@ -16445,7 +16444,7 @@
       <c r="H21">
         <v>5</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="62" t="s">
         <v>1636</v>
       </c>
       <c r="J21" t="s">
@@ -16472,7 +16471,7 @@
       <c r="H22">
         <v>6</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="62" t="s">
         <v>1610</v>
       </c>
       <c r="J22" t="s">
@@ -16499,7 +16498,7 @@
       <c r="H23">
         <v>7</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="62" t="s">
         <v>1639</v>
       </c>
       <c r="J23" t="s">
@@ -16526,7 +16525,7 @@
       <c r="H24">
         <v>8</v>
       </c>
-      <c r="I24" s="65" t="s">
+      <c r="I24" s="62" t="s">
         <v>1640</v>
       </c>
       <c r="J24" t="s">
@@ -16664,7 +16663,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f>"("""&amp;I17&amp;""","&amp;C32&amp;"),"</f>
+        <f t="shared" ref="E32:E39" si="1">"("""&amp;I17&amp;""","&amp;C32&amp;"),"</f>
         <v>("SAP",2),</v>
       </c>
     </row>
@@ -16673,7 +16672,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="str">
-        <f>"("""&amp;I18&amp;""","&amp;C33&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("WINDOWS",2),</v>
       </c>
     </row>
@@ -16682,7 +16681,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f>"("""&amp;I19&amp;""","&amp;C34&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("LIQUIDACION",2),</v>
       </c>
     </row>
@@ -16691,7 +16690,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <f>"("""&amp;I20&amp;""","&amp;C35&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("RED",2),</v>
       </c>
     </row>
@@ -16700,7 +16699,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="str">
-        <f>"("""&amp;I21&amp;""","&amp;C36&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("EQUIPO DE COMPUTO",2),</v>
       </c>
     </row>
@@ -16709,7 +16708,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="str">
-        <f>"("""&amp;I22&amp;""","&amp;C37&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("TRESS",2),</v>
       </c>
     </row>
@@ -16718,7 +16717,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <f>"("""&amp;I23&amp;""","&amp;C38&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("OFFICE",2),</v>
       </c>
     </row>
@@ -16727,7 +16726,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="str">
-        <f>"("""&amp;I24&amp;""","&amp;C39&amp;"),"</f>
+        <f t="shared" si="1"/>
         <v>("OTROS",2),</v>
       </c>
     </row>
@@ -16743,17 +16742,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1791FD3E-BDCD-4312-AD10-6747C413B8A6}">
   <dimension ref="A1:BS284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="76.5546875" customWidth="1"/>
-    <col min="8" max="61" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="224" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.5546875" customWidth="1"/>
+    <col min="40" max="40" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="0" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="11.5546875" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
+    <col min="70" max="70" width="158.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.3">
@@ -16991,10 +17051,10 @@
       <c r="G2" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24" t="s">
         <v>297</v>
@@ -17015,8 +17075,8 @@
         <v>298</v>
       </c>
       <c r="AA2" s="24"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="26"/>
       <c r="AF2" s="26"/>
@@ -17100,10 +17160,10 @@
       <c r="G3" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="24"/>
       <c r="M3" s="29" t="s">
         <v>306</v>
@@ -17137,10 +17197,10 @@
       </c>
       <c r="AA3" s="24"/>
       <c r="AB3" s="26"/>
-      <c r="AC3" s="62" t="s">
+      <c r="AC3" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD3" s="62"/>
+      <c r="AD3" s="63"/>
       <c r="AE3" s="26"/>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26"/>
@@ -17278,10 +17338,10 @@
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="26"/>
-      <c r="AC4" s="62" t="s">
+      <c r="AC4" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD4" s="62"/>
+      <c r="AD4" s="63"/>
       <c r="AE4" s="26"/>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -17366,10 +17426,10 @@
       <c r="G5" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="24"/>
       <c r="M5" s="29" t="s">
         <v>306</v>
@@ -17393,10 +17453,10 @@
       </c>
       <c r="AA5" s="24"/>
       <c r="AB5" s="26"/>
-      <c r="AC5" s="62" t="s">
+      <c r="AC5" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD5" s="62"/>
+      <c r="AD5" s="63"/>
       <c r="AE5" s="26"/>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -17493,10 +17553,10 @@
       <c r="G6" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="24"/>
       <c r="M6" s="29" t="s">
         <v>356</v>
@@ -17516,8 +17576,8 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="26"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
       <c r="AE6" s="26"/>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>
@@ -17632,8 +17692,8 @@
         <v>366</v>
       </c>
       <c r="AA7" s="24"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26"/>
@@ -17723,10 +17783,10 @@
       <c r="G8" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
         <v>374</v>
@@ -17750,10 +17810,10 @@
       </c>
       <c r="AA8" s="24"/>
       <c r="AB8" s="26"/>
-      <c r="AC8" s="62" t="s">
+      <c r="AC8" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD8" s="62"/>
+      <c r="AD8" s="63"/>
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
@@ -17866,8 +17926,8 @@
         <v>381</v>
       </c>
       <c r="AA9" s="24"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="26"/>
       <c r="AF9" s="26"/>
@@ -17951,10 +18011,10 @@
       <c r="G10" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24" t="s">
         <v>306</v>
@@ -17977,8 +18037,8 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
       <c r="AD10" s="24"/>
       <c r="AE10" s="24"/>
       <c r="AF10" s="24"/>
@@ -18062,10 +18122,10 @@
       <c r="G11" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24" t="s">
         <v>356</v>
@@ -18091,10 +18151,10 @@
         <v>398</v>
       </c>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="62" t="s">
+      <c r="AC11" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD11" s="62"/>
+      <c r="AD11" s="63"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
@@ -18211,8 +18271,8 @@
       <c r="Y12" s="24"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
       <c r="AD12" s="24"/>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
@@ -18320,8 +18380,8 @@
         <v>410</v>
       </c>
       <c r="AA13" s="24"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
       <c r="AD13" s="24"/>
       <c r="AE13" s="26"/>
       <c r="AF13" s="26"/>
@@ -18403,12 +18463,12 @@
       <c r="G14" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -18423,8 +18483,8 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="24"/>
@@ -18536,8 +18596,8 @@
         <v>419</v>
       </c>
       <c r="AA15" s="24"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26"/>
@@ -18623,10 +18683,10 @@
       <c r="G16" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24" t="s">
         <v>356</v>
@@ -18645,8 +18705,8 @@
       <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
       <c r="AD16" s="24"/>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26"/>
@@ -18767,10 +18827,10 @@
       </c>
       <c r="AA17" s="24"/>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="62" t="s">
+      <c r="AC17" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD17" s="62"/>
+      <c r="AD17" s="63"/>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26"/>
       <c r="AG17" s="26"/>
@@ -18890,10 +18950,10 @@
       </c>
       <c r="AA18" s="24"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="62" t="s">
+      <c r="AC18" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD18" s="62"/>
+      <c r="AD18" s="63"/>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
@@ -19009,10 +19069,10 @@
       </c>
       <c r="AA19" s="24"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="62" t="s">
+      <c r="AC19" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD19" s="62"/>
+      <c r="AD19" s="63"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26" t="s">
         <v>253</v>
@@ -19132,10 +19192,10 @@
       </c>
       <c r="AA20" s="24"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="62" t="s">
+      <c r="AC20" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD20" s="62"/>
+      <c r="AD20" s="63"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
@@ -19222,8 +19282,8 @@
       <c r="G21" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="24"/>
       <c r="K21" s="26">
         <v>1507</v>
@@ -19256,8 +19316,8 @@
         <v>426</v>
       </c>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
@@ -19363,8 +19423,8 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
       <c r="AA22" s="24"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
@@ -19442,8 +19502,8 @@
       <c r="G23" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="24"/>
       <c r="K23" s="26">
         <v>1501</v>
@@ -19468,8 +19528,8 @@
         <v>484</v>
       </c>
       <c r="AA23" s="24"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
@@ -19559,8 +19619,8 @@
       <c r="G24" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="24"/>
       <c r="K24" s="26">
         <v>1503</v>
@@ -19589,8 +19649,8 @@
         <v>426</v>
       </c>
       <c r="AA24" s="24"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
       <c r="AD24" s="24"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
@@ -19676,10 +19736,10 @@
       <c r="G25" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24" t="s">
         <v>356</v>
@@ -19700,8 +19760,8 @@
         <v>426</v>
       </c>
       <c r="AA25" s="24"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
@@ -19793,10 +19853,10 @@
       <c r="G26" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24" t="s">
         <v>508</v>
@@ -19819,8 +19879,8 @@
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="24"/>
       <c r="AF26" s="24"/>
@@ -19886,10 +19946,10 @@
       <c r="G27" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24" t="s">
         <v>508</v>
@@ -19910,8 +19970,8 @@
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
       <c r="AD27" s="24"/>
       <c r="AE27" s="24"/>
       <c r="AF27" s="24"/>
@@ -19977,10 +20037,10 @@
       <c r="G28" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24" t="s">
         <v>508</v>
@@ -20001,8 +20061,8 @@
       <c r="Y28" s="24"/>
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="24"/>
       <c r="AF28" s="24"/>
@@ -20068,10 +20128,10 @@
       <c r="G29" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24" t="s">
         <v>508</v>
@@ -20092,8 +20152,8 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
@@ -20159,10 +20219,10 @@
       <c r="G30" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24" t="s">
         <v>508</v>
@@ -20183,8 +20243,8 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
@@ -20250,10 +20310,10 @@
       <c r="G31" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24" t="s">
         <v>508</v>
@@ -20274,8 +20334,8 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
       <c r="AA31" s="24"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
@@ -20341,10 +20401,10 @@
       <c r="G32" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24" t="s">
         <v>508</v>
@@ -20365,8 +20425,8 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
       <c r="AA32" s="24"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
@@ -20432,10 +20492,10 @@
       <c r="G33" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24" t="s">
         <v>508</v>
@@ -20456,8 +20516,8 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
@@ -20519,12 +20579,12 @@
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -20539,8 +20599,8 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
       <c r="AD34" s="24"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="24"/>
@@ -20606,8 +20666,8 @@
       <c r="G35" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="24"/>
       <c r="K35" s="26">
         <v>1401</v>
@@ -20638,8 +20698,8 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
       <c r="AA35" s="24"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
       <c r="AD35" s="24"/>
       <c r="AE35" s="26"/>
       <c r="AF35" s="26"/>
@@ -20727,10 +20787,10 @@
       <c r="G36" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24" t="s">
         <v>480</v>
@@ -20751,8 +20811,8 @@
         <v>534</v>
       </c>
       <c r="AA36" s="24"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
       <c r="AD36" s="24"/>
       <c r="AE36" s="26"/>
       <c r="AF36" s="26"/>
@@ -20859,10 +20919,10 @@
       </c>
       <c r="AA37" s="24"/>
       <c r="AB37" s="26"/>
-      <c r="AC37" s="62" t="s">
+      <c r="AC37" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD37" s="62"/>
+      <c r="AD37" s="63"/>
       <c r="AE37" s="26"/>
       <c r="AF37" s="26"/>
       <c r="AG37" s="26"/>
@@ -20994,10 +21054,10 @@
         <v>398</v>
       </c>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="62" t="s">
+      <c r="AC38" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD38" s="62"/>
+      <c r="AD38" s="63"/>
       <c r="AE38" s="26"/>
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
@@ -21115,10 +21175,10 @@
       </c>
       <c r="AA39" s="24"/>
       <c r="AB39" s="26"/>
-      <c r="AC39" s="62" t="s">
+      <c r="AC39" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD39" s="62"/>
+      <c r="AD39" s="63"/>
       <c r="AE39" s="26" t="s">
         <v>563</v>
       </c>
@@ -21234,10 +21294,10 @@
       </c>
       <c r="AA40" s="24"/>
       <c r="AB40" s="26"/>
-      <c r="AC40" s="62" t="s">
+      <c r="AC40" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD40" s="62"/>
+      <c r="AD40" s="63"/>
       <c r="AE40" s="26" t="s">
         <v>563</v>
       </c>
@@ -21351,10 +21411,10 @@
       </c>
       <c r="AA41" s="24"/>
       <c r="AB41" s="26"/>
-      <c r="AC41" s="62" t="s">
+      <c r="AC41" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD41" s="62"/>
+      <c r="AD41" s="63"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
@@ -21441,10 +21501,10 @@
       <c r="G42" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24" t="s">
         <v>356</v>
@@ -21465,8 +21525,8 @@
         <v>581</v>
       </c>
       <c r="AA42" s="24"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="26"/>
       <c r="AF42" s="26"/>
@@ -21570,10 +21630,10 @@
       <c r="G43" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
       <c r="L43" s="24"/>
       <c r="M43" s="29" t="s">
         <v>306</v>
@@ -21717,8 +21777,8 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
       <c r="AA44" s="24"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="63"/>
       <c r="AD44" s="24"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
@@ -21838,8 +21898,8 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
       <c r="AA45" s="24"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
       <c r="AD45" s="24"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="26"/>
@@ -21927,10 +21987,10 @@
       <c r="G46" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24" t="s">
         <v>480</v>
@@ -21951,8 +22011,8 @@
         <v>618</v>
       </c>
       <c r="AA46" s="24"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
+      <c r="AB46" s="63"/>
+      <c r="AC46" s="63"/>
       <c r="AD46" s="24"/>
       <c r="AE46" s="26"/>
       <c r="AF46" s="26"/>
@@ -22032,10 +22092,10 @@
       <c r="G47" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24" t="s">
         <v>356</v>
@@ -22060,8 +22120,8 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
       <c r="AA47" s="24"/>
-      <c r="AB47" s="62"/>
-      <c r="AC47" s="62"/>
+      <c r="AB47" s="63"/>
+      <c r="AC47" s="63"/>
       <c r="AD47" s="24"/>
       <c r="AE47" s="26"/>
       <c r="AF47" s="26"/>
@@ -22178,10 +22238,10 @@
       </c>
       <c r="AA48" s="24"/>
       <c r="AB48" s="26"/>
-      <c r="AC48" s="62" t="s">
+      <c r="AC48" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD48" s="62"/>
+      <c r="AD48" s="63"/>
       <c r="AE48" s="26" t="s">
         <v>563</v>
       </c>
@@ -22290,8 +22350,8 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
       <c r="AA49" s="24"/>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
+      <c r="AB49" s="63"/>
+      <c r="AC49" s="63"/>
       <c r="AD49" s="24"/>
       <c r="AE49" s="26"/>
       <c r="AF49" s="26"/>
@@ -22408,10 +22468,10 @@
       </c>
       <c r="AA50" s="24"/>
       <c r="AB50" s="26"/>
-      <c r="AC50" s="62" t="s">
+      <c r="AC50" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD50" s="62"/>
+      <c r="AD50" s="63"/>
       <c r="AE50" s="26"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="26"/>
@@ -22528,8 +22588,8 @@
         <v>659</v>
       </c>
       <c r="AA51" s="24"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
+      <c r="AB51" s="63"/>
+      <c r="AC51" s="63"/>
       <c r="AD51" s="24"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="26"/>
@@ -22653,8 +22713,8 @@
         <v>668</v>
       </c>
       <c r="AA52" s="24"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
+      <c r="AB52" s="63"/>
+      <c r="AC52" s="63"/>
       <c r="AD52" s="24"/>
       <c r="AE52" s="26"/>
       <c r="AF52" s="26"/>
@@ -22773,10 +22833,10 @@
       </c>
       <c r="AA53" s="24"/>
       <c r="AB53" s="26"/>
-      <c r="AC53" s="62" t="s">
+      <c r="AC53" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AD53" s="62"/>
+      <c r="AD53" s="63"/>
       <c r="AE53" s="26"/>
       <c r="AF53" s="26"/>
       <c r="AG53" s="26"/>
@@ -22861,10 +22921,10 @@
       <c r="G54" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24" t="s">
         <v>356</v>
@@ -22998,10 +23058,10 @@
       <c r="G55" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
       <c r="L55" s="24"/>
       <c r="M55" s="24" t="s">
         <v>374</v>
@@ -23025,10 +23085,10 @@
       </c>
       <c r="AA55" s="24"/>
       <c r="AB55" s="26"/>
-      <c r="AC55" s="62" t="s">
+      <c r="AC55" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD55" s="62"/>
+      <c r="AD55" s="63"/>
       <c r="AE55" s="26"/>
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
@@ -23125,10 +23185,10 @@
       <c r="G56" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24" t="s">
         <v>356</v>
@@ -23152,10 +23212,10 @@
       </c>
       <c r="AA56" s="24"/>
       <c r="AB56" s="26"/>
-      <c r="AC56" s="62" t="s">
+      <c r="AC56" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD56" s="62"/>
+      <c r="AD56" s="63"/>
       <c r="AE56" s="26"/>
       <c r="AF56" s="26"/>
       <c r="AG56" s="26"/>
@@ -23248,8 +23308,8 @@
       <c r="G57" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
       <c r="J57" s="24"/>
       <c r="K57" s="26">
         <v>1402</v>
@@ -23274,8 +23334,8 @@
         <v>618</v>
       </c>
       <c r="AA57" s="24"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
+      <c r="AB57" s="63"/>
+      <c r="AC57" s="63"/>
       <c r="AD57" s="24"/>
       <c r="AE57" s="26"/>
       <c r="AF57" s="26"/>
@@ -23361,10 +23421,10 @@
       <c r="G58" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
       <c r="L58" s="24"/>
       <c r="M58" s="29" t="s">
         <v>332</v>
@@ -23385,8 +23445,8 @@
         <v>716</v>
       </c>
       <c r="AA58" s="24"/>
-      <c r="AB58" s="62"/>
-      <c r="AC58" s="62"/>
+      <c r="AB58" s="63"/>
+      <c r="AC58" s="63"/>
       <c r="AD58" s="24"/>
       <c r="AE58" s="26"/>
       <c r="AF58" s="26"/>
@@ -23503,10 +23563,10 @@
       </c>
       <c r="AA59" s="24"/>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="62" t="s">
+      <c r="AC59" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD59" s="62"/>
+      <c r="AD59" s="63"/>
       <c r="AE59" s="26" t="s">
         <v>563</v>
       </c>
@@ -23624,10 +23684,10 @@
       </c>
       <c r="AA60" s="24"/>
       <c r="AB60" s="26"/>
-      <c r="AC60" s="62" t="s">
+      <c r="AC60" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD60" s="62"/>
+      <c r="AD60" s="63"/>
       <c r="AE60" s="42" t="s">
         <v>733</v>
       </c>
@@ -23879,8 +23939,8 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
       <c r="AA62" s="24"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="62"/>
+      <c r="AB62" s="63"/>
+      <c r="AC62" s="63"/>
       <c r="AD62" s="24"/>
       <c r="AE62" s="26"/>
       <c r="AF62" s="26"/>
@@ -24124,10 +24184,10 @@
       </c>
       <c r="AA64" s="24"/>
       <c r="AB64" s="26"/>
-      <c r="AC64" s="62" t="s">
+      <c r="AC64" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD64" s="62"/>
+      <c r="AD64" s="63"/>
       <c r="AE64" s="42" t="s">
         <v>733</v>
       </c>
@@ -24247,10 +24307,10 @@
       </c>
       <c r="AA65" s="24"/>
       <c r="AB65" s="26"/>
-      <c r="AC65" s="62" t="s">
+      <c r="AC65" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD65" s="62"/>
+      <c r="AD65" s="63"/>
       <c r="AE65" s="26" t="s">
         <v>563</v>
       </c>
@@ -24343,10 +24403,10 @@
       <c r="G66" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24" t="s">
         <v>356</v>
@@ -24365,8 +24425,8 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
       <c r="AA66" s="24"/>
-      <c r="AB66" s="62"/>
-      <c r="AC66" s="62"/>
+      <c r="AB66" s="63"/>
+      <c r="AC66" s="63"/>
       <c r="AD66" s="24"/>
       <c r="AE66" s="26"/>
       <c r="AF66" s="26"/>
@@ -24865,8 +24925,8 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
       <c r="AA70" s="24"/>
-      <c r="AB70" s="62"/>
-      <c r="AC70" s="62"/>
+      <c r="AB70" s="63"/>
+      <c r="AC70" s="63"/>
       <c r="AD70" s="24"/>
       <c r="AE70" s="26"/>
       <c r="AF70" s="26"/>
@@ -24972,8 +25032,8 @@
         <v>435</v>
       </c>
       <c r="AA71" s="24"/>
-      <c r="AB71" s="62"/>
-      <c r="AC71" s="62"/>
+      <c r="AB71" s="63"/>
+      <c r="AC71" s="63"/>
       <c r="AD71" s="24"/>
       <c r="AE71" s="26"/>
       <c r="AF71" s="26"/>
@@ -25083,8 +25143,8 @@
         <v>820</v>
       </c>
       <c r="AA72" s="24"/>
-      <c r="AB72" s="62"/>
-      <c r="AC72" s="62"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
       <c r="AD72" s="24"/>
       <c r="AE72" s="26"/>
       <c r="AF72" s="26"/>
@@ -25190,8 +25250,8 @@
       <c r="Y73" s="24"/>
       <c r="Z73" s="24"/>
       <c r="AA73" s="24"/>
-      <c r="AB73" s="62"/>
-      <c r="AC73" s="62"/>
+      <c r="AB73" s="63"/>
+      <c r="AC73" s="63"/>
       <c r="AD73" s="24"/>
       <c r="AE73" s="26"/>
       <c r="AF73" s="26"/>
@@ -25404,8 +25464,8 @@
       <c r="G75" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
       <c r="J75" s="24"/>
       <c r="K75" s="26">
         <v>1301</v>
@@ -25430,8 +25490,8 @@
         <v>837</v>
       </c>
       <c r="AA75" s="24"/>
-      <c r="AB75" s="62"/>
-      <c r="AC75" s="62"/>
+      <c r="AB75" s="63"/>
+      <c r="AC75" s="63"/>
       <c r="AD75" s="24"/>
       <c r="AE75" s="26"/>
       <c r="AF75" s="26"/>
@@ -25816,10 +25876,10 @@
       </c>
       <c r="AA78" s="24"/>
       <c r="AB78" s="26"/>
-      <c r="AC78" s="62" t="s">
+      <c r="AC78" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD78" s="62"/>
+      <c r="AD78" s="63"/>
       <c r="AE78" s="26"/>
       <c r="AF78" s="26"/>
       <c r="AG78" s="26"/>
@@ -25936,8 +25996,8 @@
         <v>866</v>
       </c>
       <c r="AA79" s="24"/>
-      <c r="AB79" s="62"/>
-      <c r="AC79" s="62"/>
+      <c r="AB79" s="63"/>
+      <c r="AC79" s="63"/>
       <c r="AD79" s="24"/>
       <c r="AE79" s="26"/>
       <c r="AF79" s="26"/>
@@ -26023,10 +26083,10 @@
       <c r="G80" s="24" t="s">
         <v>870</v>
       </c>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
         <v>356</v>
@@ -26045,8 +26105,8 @@
       <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
       <c r="AA80" s="24"/>
-      <c r="AB80" s="62"/>
-      <c r="AC80" s="62"/>
+      <c r="AB80" s="63"/>
+      <c r="AC80" s="63"/>
       <c r="AD80" s="24"/>
       <c r="AE80" s="26"/>
       <c r="AF80" s="26"/>
@@ -26288,10 +26348,10 @@
       </c>
       <c r="AA82" s="24"/>
       <c r="AB82" s="26"/>
-      <c r="AC82" s="62" t="s">
+      <c r="AC82" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD82" s="62"/>
+      <c r="AD82" s="63"/>
       <c r="AE82" s="26" t="s">
         <v>563</v>
       </c>
@@ -26384,10 +26444,10 @@
       <c r="G83" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
       <c r="L83" s="24"/>
       <c r="M83" s="24" t="s">
         <v>356</v>
@@ -26421,10 +26481,10 @@
         <v>398</v>
       </c>
       <c r="AB83" s="26"/>
-      <c r="AC83" s="62" t="s">
+      <c r="AC83" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD83" s="62"/>
+      <c r="AD83" s="63"/>
       <c r="AE83" s="26"/>
       <c r="AF83" s="26"/>
       <c r="AG83" s="26"/>
@@ -26527,8 +26587,8 @@
       <c r="G84" s="24" t="s">
         <v>898</v>
       </c>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
       <c r="J84" s="24"/>
       <c r="K84" s="26">
         <v>1202</v>
@@ -26553,8 +26613,8 @@
         <v>899</v>
       </c>
       <c r="AA84" s="24"/>
-      <c r="AB84" s="62"/>
-      <c r="AC84" s="62"/>
+      <c r="AB84" s="63"/>
+      <c r="AC84" s="63"/>
       <c r="AD84" s="24"/>
       <c r="AE84" s="26"/>
       <c r="AF84" s="26"/>
@@ -26640,10 +26700,10 @@
       <c r="G85" s="24" t="s">
         <v>903</v>
       </c>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
       <c r="L85" s="24"/>
       <c r="M85" s="24" t="s">
         <v>356</v>
@@ -26669,10 +26729,10 @@
         <v>398</v>
       </c>
       <c r="AB85" s="26"/>
-      <c r="AC85" s="62" t="s">
+      <c r="AC85" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD85" s="62"/>
+      <c r="AD85" s="63"/>
       <c r="AE85" s="26"/>
       <c r="AF85" s="26"/>
       <c r="AG85" s="26"/>
@@ -26801,8 +26861,8 @@
         <v>911</v>
       </c>
       <c r="AA86" s="24"/>
-      <c r="AB86" s="62"/>
-      <c r="AC86" s="62"/>
+      <c r="AB86" s="63"/>
+      <c r="AC86" s="63"/>
       <c r="AD86" s="24"/>
       <c r="AE86" s="26"/>
       <c r="AF86" s="26"/>
@@ -26914,8 +26974,8 @@
         <v>916</v>
       </c>
       <c r="AA87" s="24"/>
-      <c r="AB87" s="62"/>
-      <c r="AC87" s="62"/>
+      <c r="AB87" s="63"/>
+      <c r="AC87" s="63"/>
       <c r="AD87" s="24"/>
       <c r="AE87" s="26"/>
       <c r="AF87" s="26"/>
@@ -27001,10 +27061,10 @@
       <c r="G88" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="H88" s="62"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="62"/>
-      <c r="K88" s="62"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
       <c r="L88" s="24"/>
       <c r="M88" s="29" t="s">
         <v>332</v>
@@ -27033,8 +27093,8 @@
         <v>921</v>
       </c>
       <c r="AA88" s="24"/>
-      <c r="AB88" s="62"/>
-      <c r="AC88" s="62"/>
+      <c r="AB88" s="63"/>
+      <c r="AC88" s="63"/>
       <c r="AD88" s="24"/>
       <c r="AE88" s="26"/>
       <c r="AF88" s="26"/>
@@ -27120,8 +27180,8 @@
       <c r="G89" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
       <c r="J89" s="24"/>
       <c r="K89" s="26">
         <v>1508</v>
@@ -27149,10 +27209,10 @@
       </c>
       <c r="AA89" s="24"/>
       <c r="AB89" s="26"/>
-      <c r="AC89" s="62" t="s">
+      <c r="AC89" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD89" s="62"/>
+      <c r="AD89" s="63"/>
       <c r="AE89" s="26"/>
       <c r="AF89" s="26"/>
       <c r="AG89" s="26"/>
@@ -27247,8 +27307,8 @@
       <c r="G90" s="24" t="s">
         <v>933</v>
       </c>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
       <c r="J90" s="24"/>
       <c r="K90" s="26">
         <v>1310</v>
@@ -27278,10 +27338,10 @@
       </c>
       <c r="AA90" s="24"/>
       <c r="AB90" s="26"/>
-      <c r="AC90" s="62" t="s">
+      <c r="AC90" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD90" s="62"/>
+      <c r="AD90" s="63"/>
       <c r="AE90" s="26"/>
       <c r="AF90" s="26"/>
       <c r="AG90" s="26"/>
@@ -27388,8 +27448,8 @@
       <c r="G91" s="24" t="s">
         <v>940</v>
       </c>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="63"/>
       <c r="J91" s="24"/>
       <c r="K91" s="26">
         <v>1305</v>
@@ -27415,10 +27475,10 @@
       <c r="Z91" s="24"/>
       <c r="AA91" s="24"/>
       <c r="AB91" s="26"/>
-      <c r="AC91" s="62" t="s">
+      <c r="AC91" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD91" s="62"/>
+      <c r="AD91" s="63"/>
       <c r="AE91" s="26"/>
       <c r="AF91" s="26"/>
       <c r="AG91" s="26"/>
@@ -27521,8 +27581,8 @@
       <c r="G92" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
       <c r="J92" s="24"/>
       <c r="K92" s="26">
         <v>1304</v>
@@ -27548,10 +27608,10 @@
       <c r="Z92" s="24"/>
       <c r="AA92" s="24"/>
       <c r="AB92" s="26"/>
-      <c r="AC92" s="62" t="s">
+      <c r="AC92" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD92" s="62"/>
+      <c r="AD92" s="63"/>
       <c r="AE92" s="26"/>
       <c r="AF92" s="26"/>
       <c r="AG92" s="26"/>
@@ -27642,10 +27702,10 @@
       <c r="G93" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32" t="s">
         <v>480</v>
@@ -27666,8 +27726,8 @@
         <v>947</v>
       </c>
       <c r="AA93" s="24"/>
-      <c r="AB93" s="62"/>
-      <c r="AC93" s="62"/>
+      <c r="AB93" s="63"/>
+      <c r="AC93" s="63"/>
       <c r="AD93" s="24"/>
       <c r="AE93" s="26"/>
       <c r="AF93" s="26"/>
@@ -27771,8 +27831,8 @@
         <v>954</v>
       </c>
       <c r="AA94" s="24"/>
-      <c r="AB94" s="62"/>
-      <c r="AC94" s="62"/>
+      <c r="AB94" s="63"/>
+      <c r="AC94" s="63"/>
       <c r="AD94" s="24"/>
       <c r="AE94" s="26"/>
       <c r="AF94" s="26"/>
@@ -27896,8 +27956,8 @@
       <c r="Y95" s="24"/>
       <c r="Z95" s="30"/>
       <c r="AA95" s="30"/>
-      <c r="AB95" s="62"/>
-      <c r="AC95" s="62"/>
+      <c r="AB95" s="63"/>
+      <c r="AC95" s="63"/>
       <c r="AD95" s="24"/>
       <c r="AE95" s="26"/>
       <c r="AF95" s="26"/>
@@ -27983,8 +28043,8 @@
       <c r="G96" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
       <c r="J96" s="24"/>
       <c r="K96" s="26">
         <v>1307</v>
@@ -28011,8 +28071,8 @@
         <v>966</v>
       </c>
       <c r="AA96" s="24"/>
-      <c r="AB96" s="62"/>
-      <c r="AC96" s="62"/>
+      <c r="AB96" s="63"/>
+      <c r="AC96" s="63"/>
       <c r="AD96" s="24"/>
       <c r="AE96" s="26"/>
       <c r="AF96" s="26"/>
@@ -28098,8 +28158,8 @@
       <c r="G97" s="24" t="s">
         <v>968</v>
       </c>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="63"/>
       <c r="J97" s="24"/>
       <c r="K97" s="26">
         <v>1203</v>
@@ -28126,8 +28186,8 @@
         <v>622</v>
       </c>
       <c r="AA97" s="24"/>
-      <c r="AB97" s="62"/>
-      <c r="AC97" s="62"/>
+      <c r="AB97" s="63"/>
+      <c r="AC97" s="63"/>
       <c r="AD97" s="24"/>
       <c r="AE97" s="26"/>
       <c r="AF97" s="26"/>
@@ -28215,10 +28275,10 @@
       <c r="G98" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="63"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="63"/>
       <c r="L98" s="24"/>
       <c r="M98" s="24" t="s">
         <v>969</v>
@@ -28239,8 +28299,8 @@
       <c r="Y98" s="24"/>
       <c r="Z98" s="24"/>
       <c r="AA98" s="24"/>
-      <c r="AB98" s="62"/>
-      <c r="AC98" s="62"/>
+      <c r="AB98" s="63"/>
+      <c r="AC98" s="63"/>
       <c r="AD98" s="24"/>
       <c r="AE98" s="26"/>
       <c r="AF98" s="26"/>
@@ -28358,8 +28418,8 @@
         <v>360</v>
       </c>
       <c r="AA99" s="24"/>
-      <c r="AB99" s="62"/>
-      <c r="AC99" s="62"/>
+      <c r="AB99" s="63"/>
+      <c r="AC99" s="63"/>
       <c r="AD99" s="24"/>
       <c r="AE99" s="26"/>
       <c r="AF99" s="26"/>
@@ -28447,10 +28507,10 @@
       <c r="G100" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="H100" s="62"/>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62"/>
-      <c r="K100" s="62"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24" t="s">
         <v>356</v>
@@ -28476,10 +28536,10 @@
         <v>398</v>
       </c>
       <c r="AB100" s="26"/>
-      <c r="AC100" s="62" t="s">
+      <c r="AC100" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD100" s="62"/>
+      <c r="AD100" s="63"/>
       <c r="AE100" s="26"/>
       <c r="AF100" s="26"/>
       <c r="AG100" s="26"/>
@@ -28584,8 +28644,8 @@
       <c r="G101" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="H101" s="62"/>
-      <c r="I101" s="62"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
       <c r="J101" s="24"/>
       <c r="K101" s="26">
         <v>1201</v>
@@ -28618,8 +28678,8 @@
         <v>634</v>
       </c>
       <c r="AA101" s="24"/>
-      <c r="AB101" s="62"/>
-      <c r="AC101" s="62"/>
+      <c r="AB101" s="63"/>
+      <c r="AC101" s="63"/>
       <c r="AD101" s="24"/>
       <c r="AE101" s="26"/>
       <c r="AF101" s="26"/>
@@ -28709,10 +28769,10 @@
       <c r="G102" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="H102" s="62"/>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62"/>
-      <c r="K102" s="62"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
       <c r="L102" s="24"/>
       <c r="M102" s="29" t="s">
         <v>332</v>
@@ -28733,8 +28793,8 @@
         <v>995</v>
       </c>
       <c r="AA102" s="24"/>
-      <c r="AB102" s="62"/>
-      <c r="AC102" s="62"/>
+      <c r="AB102" s="63"/>
+      <c r="AC102" s="63"/>
       <c r="AD102" s="24"/>
       <c r="AE102" s="26"/>
       <c r="AF102" s="26"/>
@@ -28820,8 +28880,8 @@
       <c r="G103" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
       <c r="J103" s="24"/>
       <c r="K103" s="26">
         <v>1205</v>
@@ -28851,10 +28911,10 @@
         <v>398</v>
       </c>
       <c r="AB103" s="26"/>
-      <c r="AC103" s="62" t="s">
+      <c r="AC103" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD103" s="62"/>
+      <c r="AD103" s="63"/>
       <c r="AE103" s="26"/>
       <c r="AF103" s="26"/>
       <c r="AG103" s="26"/>
@@ -28959,10 +29019,10 @@
       <c r="G104" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="H104" s="62"/>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
-      <c r="K104" s="62"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
       <c r="L104" s="24"/>
       <c r="M104" s="24" t="s">
         <v>356</v>
@@ -28991,8 +29051,8 @@
         <v>578</v>
       </c>
       <c r="AA104" s="24"/>
-      <c r="AB104" s="62"/>
-      <c r="AC104" s="62"/>
+      <c r="AB104" s="63"/>
+      <c r="AC104" s="63"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="26"/>
       <c r="AF104" s="26"/>
@@ -29074,10 +29134,10 @@
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="62"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
       <c r="L105" s="24"/>
       <c r="M105" s="24" t="s">
         <v>480</v>
@@ -29098,8 +29158,8 @@
         <v>1010</v>
       </c>
       <c r="AA105" s="24"/>
-      <c r="AB105" s="62"/>
-      <c r="AC105" s="62"/>
+      <c r="AB105" s="63"/>
+      <c r="AC105" s="63"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="26"/>
       <c r="AF105" s="26"/>
@@ -29177,10 +29237,10 @@
       <c r="G106" s="32" t="s">
         <v>1015</v>
       </c>
-      <c r="H106" s="62"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
-      <c r="K106" s="62"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
       <c r="L106" s="24"/>
       <c r="M106" s="24" t="s">
         <v>356</v>
@@ -29209,8 +29269,8 @@
         <v>622</v>
       </c>
       <c r="AA106" s="24"/>
-      <c r="AB106" s="62"/>
-      <c r="AC106" s="62"/>
+      <c r="AB106" s="63"/>
+      <c r="AC106" s="63"/>
       <c r="AD106" s="24"/>
       <c r="AE106" s="26"/>
       <c r="AF106" s="26"/>
@@ -29302,10 +29362,10 @@
       <c r="G107" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
       <c r="L107" s="24"/>
       <c r="M107" s="24" t="s">
         <v>1022</v>
@@ -29330,8 +29390,8 @@
         <v>1025</v>
       </c>
       <c r="AA107" s="24"/>
-      <c r="AB107" s="62"/>
-      <c r="AC107" s="62"/>
+      <c r="AB107" s="63"/>
+      <c r="AC107" s="63"/>
       <c r="AD107" s="24"/>
       <c r="AE107" s="26"/>
       <c r="AF107" s="26"/>
@@ -29443,8 +29503,8 @@
       <c r="Y108" s="24"/>
       <c r="Z108" s="24"/>
       <c r="AA108" s="24"/>
-      <c r="AB108" s="62"/>
-      <c r="AC108" s="62"/>
+      <c r="AB108" s="63"/>
+      <c r="AC108" s="63"/>
       <c r="AD108" s="24"/>
       <c r="AE108" s="26"/>
       <c r="AF108" s="26"/>
@@ -29530,8 +29590,8 @@
       <c r="G109" s="24" t="s">
         <v>1033</v>
       </c>
-      <c r="H109" s="62"/>
-      <c r="I109" s="62"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
       <c r="J109" s="24"/>
       <c r="K109" s="26">
         <v>1303</v>
@@ -29556,8 +29616,8 @@
         <v>916</v>
       </c>
       <c r="AA109" s="24"/>
-      <c r="AB109" s="62"/>
-      <c r="AC109" s="62"/>
+      <c r="AB109" s="63"/>
+      <c r="AC109" s="63"/>
       <c r="AD109" s="24"/>
       <c r="AE109" s="26"/>
       <c r="AF109" s="26"/>
@@ -29665,8 +29725,8 @@
         <v>360</v>
       </c>
       <c r="AA110" s="24"/>
-      <c r="AB110" s="62"/>
-      <c r="AC110" s="62"/>
+      <c r="AB110" s="63"/>
+      <c r="AC110" s="63"/>
       <c r="AD110" s="24"/>
       <c r="AE110" s="26"/>
       <c r="AF110" s="26"/>
@@ -29754,10 +29814,10 @@
       <c r="G111" s="24" t="s">
         <v>1041</v>
       </c>
-      <c r="H111" s="62"/>
-      <c r="I111" s="62"/>
-      <c r="J111" s="62"/>
-      <c r="K111" s="62"/>
+      <c r="H111" s="63"/>
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="63"/>
       <c r="L111" s="24"/>
       <c r="M111" s="24" t="s">
         <v>356</v>
@@ -29781,10 +29841,10 @@
       </c>
       <c r="AA111" s="24"/>
       <c r="AB111" s="26"/>
-      <c r="AC111" s="62" t="s">
+      <c r="AC111" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD111" s="62"/>
+      <c r="AD111" s="63"/>
       <c r="AE111" s="26"/>
       <c r="AF111" s="26"/>
       <c r="AG111" s="26"/>
@@ -29907,8 +29967,8 @@
         <v>1047</v>
       </c>
       <c r="AA112" s="24"/>
-      <c r="AB112" s="62"/>
-      <c r="AC112" s="62"/>
+      <c r="AB112" s="63"/>
+      <c r="AC112" s="63"/>
       <c r="AD112" s="24"/>
       <c r="AE112" s="26"/>
       <c r="AF112" s="26"/>
@@ -30018,8 +30078,8 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
       <c r="AA113" s="24"/>
-      <c r="AB113" s="62"/>
-      <c r="AC113" s="62"/>
+      <c r="AB113" s="63"/>
+      <c r="AC113" s="63"/>
       <c r="AD113" s="24"/>
       <c r="AE113" s="26"/>
       <c r="AF113" s="26"/>
@@ -30105,8 +30165,8 @@
       <c r="G114" s="24" t="s">
         <v>1056</v>
       </c>
-      <c r="H114" s="62"/>
-      <c r="I114" s="62"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
       <c r="J114" s="24"/>
       <c r="K114" s="26">
         <v>1404</v>
@@ -30134,10 +30194,10 @@
       </c>
       <c r="AA114" s="24"/>
       <c r="AB114" s="26"/>
-      <c r="AC114" s="62" t="s">
+      <c r="AC114" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD114" s="62"/>
+      <c r="AD114" s="63"/>
       <c r="AE114" s="26"/>
       <c r="AF114" s="26"/>
       <c r="AG114" s="26"/>
@@ -30367,8 +30427,8 @@
       <c r="G116" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
+      <c r="H116" s="63"/>
+      <c r="I116" s="63"/>
       <c r="J116" s="24"/>
       <c r="K116" s="26">
         <v>1403</v>
@@ -30396,10 +30456,10 @@
       </c>
       <c r="AA116" s="24"/>
       <c r="AB116" s="26"/>
-      <c r="AC116" s="62" t="s">
+      <c r="AC116" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD116" s="62"/>
+      <c r="AD116" s="63"/>
       <c r="AE116" s="26"/>
       <c r="AF116" s="26"/>
       <c r="AG116" s="26"/>
@@ -30506,8 +30566,8 @@
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
-      <c r="L117" s="63"/>
-      <c r="M117" s="63"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="65"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
@@ -30522,8 +30582,8 @@
       <c r="Y117" s="24"/>
       <c r="Z117" s="24"/>
       <c r="AA117" s="24"/>
-      <c r="AB117" s="62"/>
-      <c r="AC117" s="62"/>
+      <c r="AB117" s="63"/>
+      <c r="AC117" s="63"/>
       <c r="AD117" s="24"/>
       <c r="AE117" s="26"/>
       <c r="AF117" s="26"/>
@@ -30635,8 +30695,8 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
       <c r="AA118" s="24"/>
-      <c r="AB118" s="62"/>
-      <c r="AC118" s="62"/>
+      <c r="AB118" s="63"/>
+      <c r="AC118" s="63"/>
       <c r="AD118" s="24"/>
       <c r="AE118" s="26"/>
       <c r="AF118" s="26"/>
@@ -30750,8 +30810,8 @@
         <v>1087</v>
       </c>
       <c r="AA119" s="24"/>
-      <c r="AB119" s="62"/>
-      <c r="AC119" s="62"/>
+      <c r="AB119" s="63"/>
+      <c r="AC119" s="63"/>
       <c r="AD119" s="24" t="s">
         <v>253</v>
       </c>
@@ -30843,10 +30903,10 @@
       <c r="G120" s="24" t="s">
         <v>1093</v>
       </c>
-      <c r="H120" s="62"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="62"/>
-      <c r="K120" s="62"/>
+      <c r="H120" s="63"/>
+      <c r="I120" s="63"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="63"/>
       <c r="L120" s="24"/>
       <c r="M120" s="24" t="s">
         <v>356</v>
@@ -30870,10 +30930,10 @@
       </c>
       <c r="AA120" s="24"/>
       <c r="AB120" s="26"/>
-      <c r="AC120" s="62" t="s">
+      <c r="AC120" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD120" s="62"/>
+      <c r="AD120" s="63"/>
       <c r="AE120" s="26"/>
       <c r="AF120" s="26"/>
       <c r="AG120" s="26"/>
@@ -30995,10 +31055,10 @@
       </c>
       <c r="AA121" s="24"/>
       <c r="AB121" s="26"/>
-      <c r="AC121" s="62" t="s">
+      <c r="AC121" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD121" s="62"/>
+      <c r="AD121" s="63"/>
       <c r="AE121" s="26"/>
       <c r="AF121" s="26"/>
       <c r="AG121" s="26"/>
@@ -31096,10 +31156,10 @@
       <c r="H122" s="26">
         <v>1</v>
       </c>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="62"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="63"/>
       <c r="M122" s="24" t="s">
         <v>356</v>
       </c>
@@ -31119,8 +31179,8 @@
       <c r="Y122" s="24"/>
       <c r="Z122" s="24"/>
       <c r="AA122" s="24"/>
-      <c r="AB122" s="62"/>
-      <c r="AC122" s="62"/>
+      <c r="AB122" s="63"/>
+      <c r="AC122" s="63"/>
       <c r="AD122" s="24"/>
       <c r="AE122" s="24"/>
       <c r="AF122" s="24"/>
@@ -31238,8 +31298,8 @@
         <v>1115</v>
       </c>
       <c r="AA123" s="24"/>
-      <c r="AB123" s="62"/>
-      <c r="AC123" s="62"/>
+      <c r="AB123" s="63"/>
+      <c r="AC123" s="63"/>
       <c r="AD123" s="24"/>
       <c r="AE123" s="26"/>
       <c r="AF123" s="26"/>
@@ -31325,12 +31385,12 @@
       <c r="G124" s="24" t="s">
         <v>1121</v>
       </c>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62"/>
-      <c r="L124" s="62"/>
-      <c r="M124" s="62"/>
+      <c r="H124" s="63"/>
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+      <c r="K124" s="63"/>
+      <c r="L124" s="63"/>
+      <c r="M124" s="63"/>
       <c r="N124" s="24"/>
       <c r="O124" s="24"/>
       <c r="P124" s="24"/>
@@ -31345,8 +31405,8 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
       <c r="AA124" s="24"/>
-      <c r="AB124" s="62"/>
-      <c r="AC124" s="62"/>
+      <c r="AB124" s="63"/>
+      <c r="AC124" s="63"/>
       <c r="AD124" s="24"/>
       <c r="AE124" s="24"/>
       <c r="AF124" s="24"/>
@@ -31412,10 +31472,10 @@
       <c r="G125" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
+      <c r="H125" s="63"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="63"/>
+      <c r="K125" s="63"/>
       <c r="L125" s="24"/>
       <c r="M125" s="24" t="s">
         <v>508</v>
@@ -31434,8 +31494,8 @@
       <c r="Y125" s="24"/>
       <c r="Z125" s="24"/>
       <c r="AA125" s="24"/>
-      <c r="AB125" s="62"/>
-      <c r="AC125" s="62"/>
+      <c r="AB125" s="63"/>
+      <c r="AC125" s="63"/>
       <c r="AD125" s="24"/>
       <c r="AE125" s="24"/>
       <c r="AF125" s="24"/>
@@ -31501,10 +31561,10 @@
       <c r="G126" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="63"/>
       <c r="L126" s="24"/>
       <c r="M126" s="24" t="s">
         <v>508</v>
@@ -31525,8 +31585,8 @@
       <c r="Y126" s="24"/>
       <c r="Z126" s="24"/>
       <c r="AA126" s="24"/>
-      <c r="AB126" s="62"/>
-      <c r="AC126" s="62"/>
+      <c r="AB126" s="63"/>
+      <c r="AC126" s="63"/>
       <c r="AD126" s="24"/>
       <c r="AE126" s="24"/>
       <c r="AF126" s="24"/>
@@ -31619,10 +31679,10 @@
         <v>398</v>
       </c>
       <c r="AB127" s="26"/>
-      <c r="AC127" s="62" t="s">
+      <c r="AC127" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD127" s="62"/>
+      <c r="AD127" s="63"/>
       <c r="AE127" s="26"/>
       <c r="AF127" s="26"/>
       <c r="AG127" s="26"/>
@@ -31732,10 +31792,10 @@
       </c>
       <c r="AA128" s="24"/>
       <c r="AB128" s="26"/>
-      <c r="AC128" s="62" t="s">
+      <c r="AC128" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD128" s="62"/>
+      <c r="AD128" s="63"/>
       <c r="AE128" s="26"/>
       <c r="AF128" s="26"/>
       <c r="AG128" s="26"/>
@@ -31868,8 +31928,8 @@
       <c r="Y129" s="24"/>
       <c r="Z129" s="24"/>
       <c r="AA129" s="24"/>
-      <c r="AB129" s="62"/>
-      <c r="AC129" s="62"/>
+      <c r="AB129" s="63"/>
+      <c r="AC129" s="63"/>
       <c r="AD129" s="24"/>
       <c r="AE129" s="26"/>
       <c r="AF129" s="26"/>
@@ -31953,10 +32013,10 @@
       <c r="G130" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
       <c r="L130" s="24"/>
       <c r="M130" s="24" t="s">
         <v>480</v>
@@ -31975,8 +32035,8 @@
       <c r="Y130" s="24"/>
       <c r="Z130" s="24"/>
       <c r="AA130" s="24"/>
-      <c r="AB130" s="62"/>
-      <c r="AC130" s="62"/>
+      <c r="AB130" s="63"/>
+      <c r="AC130" s="63"/>
       <c r="AD130" s="24"/>
       <c r="AE130" s="26"/>
       <c r="AF130" s="26"/>
@@ -32080,8 +32140,8 @@
       <c r="Y131" s="24"/>
       <c r="Z131" s="24"/>
       <c r="AA131" s="24"/>
-      <c r="AB131" s="62"/>
-      <c r="AC131" s="62"/>
+      <c r="AB131" s="63"/>
+      <c r="AC131" s="63"/>
       <c r="AD131" s="24"/>
       <c r="AE131" s="26"/>
       <c r="AF131" s="26"/>
@@ -32191,8 +32251,8 @@
       <c r="Y132" s="24"/>
       <c r="Z132" s="24"/>
       <c r="AA132" s="24"/>
-      <c r="AB132" s="62"/>
-      <c r="AC132" s="62"/>
+      <c r="AB132" s="63"/>
+      <c r="AC132" s="63"/>
       <c r="AD132" s="24"/>
       <c r="AE132" s="26"/>
       <c r="AF132" s="26"/>
@@ -32302,8 +32362,8 @@
       <c r="Y133" s="24"/>
       <c r="Z133" s="24"/>
       <c r="AA133" s="24"/>
-      <c r="AB133" s="62"/>
-      <c r="AC133" s="62"/>
+      <c r="AB133" s="63"/>
+      <c r="AC133" s="63"/>
       <c r="AD133" s="24"/>
       <c r="AE133" s="26"/>
       <c r="AF133" s="26"/>
@@ -32417,8 +32477,8 @@
       <c r="Y134" s="24"/>
       <c r="Z134" s="24"/>
       <c r="AA134" s="24"/>
-      <c r="AB134" s="62"/>
-      <c r="AC134" s="62"/>
+      <c r="AB134" s="63"/>
+      <c r="AC134" s="63"/>
       <c r="AD134" s="24"/>
       <c r="AE134" s="26"/>
       <c r="AF134" s="26"/>
@@ -32532,8 +32592,8 @@
         <v>1169</v>
       </c>
       <c r="AA135" s="24"/>
-      <c r="AB135" s="62"/>
-      <c r="AC135" s="62"/>
+      <c r="AB135" s="63"/>
+      <c r="AC135" s="63"/>
       <c r="AD135" s="24"/>
       <c r="AE135" s="26"/>
       <c r="AF135" s="26"/>
@@ -32650,10 +32710,10 @@
       </c>
       <c r="AA136" s="24"/>
       <c r="AB136" s="26"/>
-      <c r="AC136" s="62" t="s">
+      <c r="AC136" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="AD136" s="62"/>
+      <c r="AD136" s="63"/>
       <c r="AE136" s="26"/>
       <c r="AF136" s="26"/>
       <c r="AG136" s="26"/>
@@ -32780,8 +32840,8 @@
       <c r="Y137" s="24"/>
       <c r="Z137" s="24"/>
       <c r="AA137" s="24"/>
-      <c r="AB137" s="62"/>
-      <c r="AC137" s="62"/>
+      <c r="AB137" s="63"/>
+      <c r="AC137" s="63"/>
       <c r="AD137" s="24"/>
       <c r="AE137" s="26"/>
       <c r="AF137" s="26"/>
@@ -32897,8 +32957,8 @@
         <v>1191</v>
       </c>
       <c r="AA138" s="24"/>
-      <c r="AB138" s="62"/>
-      <c r="AC138" s="62"/>
+      <c r="AB138" s="63"/>
+      <c r="AC138" s="63"/>
       <c r="AD138" s="24"/>
       <c r="AE138" s="26"/>
       <c r="AF138" s="26"/>
@@ -33024,8 +33084,8 @@
       <c r="Y139" s="24"/>
       <c r="Z139" s="24"/>
       <c r="AA139" s="24"/>
-      <c r="AB139" s="62"/>
-      <c r="AC139" s="62"/>
+      <c r="AB139" s="63"/>
+      <c r="AC139" s="63"/>
       <c r="AD139" s="24"/>
       <c r="AE139" s="26"/>
       <c r="AF139" s="26"/>
@@ -33137,8 +33197,8 @@
       <c r="Y140" s="24"/>
       <c r="Z140" s="24"/>
       <c r="AA140" s="24"/>
-      <c r="AB140" s="62"/>
-      <c r="AC140" s="62"/>
+      <c r="AB140" s="63"/>
+      <c r="AC140" s="63"/>
       <c r="AD140" s="24"/>
       <c r="AE140" s="26"/>
       <c r="AF140" s="26"/>
@@ -33224,12 +33284,12 @@
       </c>
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
-      <c r="M141" s="62"/>
+      <c r="H141" s="63"/>
+      <c r="I141" s="63"/>
+      <c r="J141" s="63"/>
+      <c r="K141" s="63"/>
+      <c r="L141" s="63"/>
+      <c r="M141" s="63"/>
       <c r="N141" s="24"/>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -33248,8 +33308,8 @@
       <c r="Y141" s="24"/>
       <c r="Z141" s="24"/>
       <c r="AA141" s="24"/>
-      <c r="AB141" s="62"/>
-      <c r="AC141" s="62"/>
+      <c r="AB141" s="63"/>
+      <c r="AC141" s="63"/>
       <c r="AD141" s="24"/>
       <c r="AE141" s="24"/>
       <c r="AF141" s="24"/>
@@ -33337,8 +33397,8 @@
       <c r="Y142" s="24"/>
       <c r="Z142" s="24"/>
       <c r="AA142" s="24"/>
-      <c r="AB142" s="62"/>
-      <c r="AC142" s="62"/>
+      <c r="AB142" s="63"/>
+      <c r="AC142" s="63"/>
       <c r="AD142" s="24"/>
       <c r="AE142" s="24"/>
       <c r="AF142" s="24"/>
@@ -33424,8 +33484,8 @@
       <c r="Y143" s="24"/>
       <c r="Z143" s="24"/>
       <c r="AA143" s="24"/>
-      <c r="AB143" s="62"/>
-      <c r="AC143" s="62"/>
+      <c r="AB143" s="63"/>
+      <c r="AC143" s="63"/>
       <c r="AD143" s="24"/>
       <c r="AE143" s="24"/>
       <c r="AF143" s="24"/>
@@ -33511,8 +33571,8 @@
       <c r="Y144" s="24"/>
       <c r="Z144" s="24"/>
       <c r="AA144" s="24"/>
-      <c r="AB144" s="62"/>
-      <c r="AC144" s="62"/>
+      <c r="AB144" s="63"/>
+      <c r="AC144" s="63"/>
       <c r="AD144" s="24"/>
       <c r="AE144" s="24"/>
       <c r="AF144" s="24"/>
@@ -33598,8 +33658,8 @@
       <c r="Y145" s="24"/>
       <c r="Z145" s="24"/>
       <c r="AA145" s="24"/>
-      <c r="AB145" s="62"/>
-      <c r="AC145" s="62"/>
+      <c r="AB145" s="63"/>
+      <c r="AC145" s="63"/>
       <c r="AD145" s="24"/>
       <c r="AE145" s="24"/>
       <c r="AF145" s="24"/>
@@ -33687,8 +33747,8 @@
       <c r="Y146" s="24"/>
       <c r="Z146" s="24"/>
       <c r="AA146" s="24"/>
-      <c r="AB146" s="62"/>
-      <c r="AC146" s="62"/>
+      <c r="AB146" s="63"/>
+      <c r="AC146" s="63"/>
       <c r="AD146" s="24"/>
       <c r="AE146" s="24"/>
       <c r="AF146" s="24"/>
@@ -33776,8 +33836,8 @@
       <c r="Y147" s="24"/>
       <c r="Z147" s="24"/>
       <c r="AA147" s="24"/>
-      <c r="AB147" s="62"/>
-      <c r="AC147" s="62"/>
+      <c r="AB147" s="63"/>
+      <c r="AC147" s="63"/>
       <c r="AD147" s="24"/>
       <c r="AE147" s="24"/>
       <c r="AF147" s="24"/>
@@ -33863,8 +33923,8 @@
       <c r="Y148" s="24"/>
       <c r="Z148" s="24"/>
       <c r="AA148" s="24"/>
-      <c r="AB148" s="62"/>
-      <c r="AC148" s="62"/>
+      <c r="AB148" s="63"/>
+      <c r="AC148" s="63"/>
       <c r="AD148" s="24"/>
       <c r="AE148" s="24"/>
       <c r="AF148" s="24"/>
@@ -33950,8 +34010,8 @@
       <c r="Y149" s="24"/>
       <c r="Z149" s="24"/>
       <c r="AA149" s="24"/>
-      <c r="AB149" s="62"/>
-      <c r="AC149" s="62"/>
+      <c r="AB149" s="63"/>
+      <c r="AC149" s="63"/>
       <c r="AD149" s="24"/>
       <c r="AE149" s="24"/>
       <c r="AF149" s="24"/>
@@ -34037,8 +34097,8 @@
       <c r="Y150" s="24"/>
       <c r="Z150" s="24"/>
       <c r="AA150" s="24"/>
-      <c r="AB150" s="62"/>
-      <c r="AC150" s="62"/>
+      <c r="AB150" s="63"/>
+      <c r="AC150" s="63"/>
       <c r="AD150" s="24"/>
       <c r="AE150" s="24"/>
       <c r="AF150" s="24"/>
@@ -34124,8 +34184,8 @@
       <c r="Y151" s="24"/>
       <c r="Z151" s="24"/>
       <c r="AA151" s="24"/>
-      <c r="AB151" s="62"/>
-      <c r="AC151" s="62"/>
+      <c r="AB151" s="63"/>
+      <c r="AC151" s="63"/>
       <c r="AD151" s="24"/>
       <c r="AE151" s="24"/>
       <c r="AF151" s="24"/>
@@ -34211,8 +34271,8 @@
       <c r="Y152" s="24"/>
       <c r="Z152" s="24"/>
       <c r="AA152" s="24"/>
-      <c r="AB152" s="62"/>
-      <c r="AC152" s="62"/>
+      <c r="AB152" s="63"/>
+      <c r="AC152" s="63"/>
       <c r="AD152" s="24"/>
       <c r="AE152" s="24"/>
       <c r="AF152" s="24"/>
@@ -34300,8 +34360,8 @@
       <c r="Y153" s="24"/>
       <c r="Z153" s="24"/>
       <c r="AA153" s="24"/>
-      <c r="AB153" s="62"/>
-      <c r="AC153" s="62"/>
+      <c r="AB153" s="63"/>
+      <c r="AC153" s="63"/>
       <c r="AD153" s="24"/>
       <c r="AE153" s="24"/>
       <c r="AF153" s="24"/>
@@ -34389,8 +34449,8 @@
       <c r="Y154" s="24"/>
       <c r="Z154" s="24"/>
       <c r="AA154" s="24"/>
-      <c r="AB154" s="62"/>
-      <c r="AC154" s="62"/>
+      <c r="AB154" s="63"/>
+      <c r="AC154" s="63"/>
       <c r="AD154" s="24"/>
       <c r="AE154" s="24"/>
       <c r="AF154" s="24"/>
@@ -34478,8 +34538,8 @@
       <c r="Y155" s="24"/>
       <c r="Z155" s="24"/>
       <c r="AA155" s="24"/>
-      <c r="AB155" s="62"/>
-      <c r="AC155" s="62"/>
+      <c r="AB155" s="63"/>
+      <c r="AC155" s="63"/>
       <c r="AD155" s="24"/>
       <c r="AE155" s="24"/>
       <c r="AF155" s="24"/>
@@ -34567,8 +34627,8 @@
       <c r="Y156" s="24"/>
       <c r="Z156" s="24"/>
       <c r="AA156" s="24"/>
-      <c r="AB156" s="62"/>
-      <c r="AC156" s="62"/>
+      <c r="AB156" s="63"/>
+      <c r="AC156" s="63"/>
       <c r="AD156" s="24"/>
       <c r="AE156" s="24"/>
       <c r="AF156" s="24"/>
@@ -34656,8 +34716,8 @@
       <c r="Y157" s="24"/>
       <c r="Z157" s="24"/>
       <c r="AA157" s="24"/>
-      <c r="AB157" s="62"/>
-      <c r="AC157" s="62"/>
+      <c r="AB157" s="63"/>
+      <c r="AC157" s="63"/>
       <c r="AD157" s="24"/>
       <c r="AE157" s="24"/>
       <c r="AF157" s="24"/>
@@ -34745,8 +34805,8 @@
       <c r="Y158" s="24"/>
       <c r="Z158" s="24"/>
       <c r="AA158" s="24"/>
-      <c r="AB158" s="62"/>
-      <c r="AC158" s="62"/>
+      <c r="AB158" s="63"/>
+      <c r="AC158" s="63"/>
       <c r="AD158" s="24"/>
       <c r="AE158" s="24"/>
       <c r="AF158" s="24"/>
@@ -34834,8 +34894,8 @@
       <c r="Y159" s="24"/>
       <c r="Z159" s="24"/>
       <c r="AA159" s="24"/>
-      <c r="AB159" s="62"/>
-      <c r="AC159" s="62"/>
+      <c r="AB159" s="63"/>
+      <c r="AC159" s="63"/>
       <c r="AD159" s="24"/>
       <c r="AE159" s="24"/>
       <c r="AF159" s="24"/>
@@ -34921,8 +34981,8 @@
       <c r="Y160" s="24"/>
       <c r="Z160" s="24"/>
       <c r="AA160" s="24"/>
-      <c r="AB160" s="62"/>
-      <c r="AC160" s="62"/>
+      <c r="AB160" s="63"/>
+      <c r="AC160" s="63"/>
       <c r="AD160" s="24"/>
       <c r="AE160" s="24"/>
       <c r="AF160" s="24"/>
@@ -35008,8 +35068,8 @@
       <c r="Y161" s="24"/>
       <c r="Z161" s="24"/>
       <c r="AA161" s="24"/>
-      <c r="AB161" s="62"/>
-      <c r="AC161" s="62"/>
+      <c r="AB161" s="63"/>
+      <c r="AC161" s="63"/>
       <c r="AD161" s="24"/>
       <c r="AE161" s="24"/>
       <c r="AF161" s="24"/>
@@ -35097,8 +35157,8 @@
       <c r="Y162" s="24"/>
       <c r="Z162" s="24"/>
       <c r="AA162" s="24"/>
-      <c r="AB162" s="62"/>
-      <c r="AC162" s="62"/>
+      <c r="AB162" s="63"/>
+      <c r="AC162" s="63"/>
       <c r="AD162" s="24"/>
       <c r="AE162" s="24"/>
       <c r="AF162" s="24"/>
@@ -35186,8 +35246,8 @@
       <c r="Y163" s="24"/>
       <c r="Z163" s="24"/>
       <c r="AA163" s="24"/>
-      <c r="AB163" s="62"/>
-      <c r="AC163" s="62"/>
+      <c r="AB163" s="63"/>
+      <c r="AC163" s="63"/>
       <c r="AD163" s="24"/>
       <c r="AE163" s="24"/>
       <c r="AF163" s="24"/>
@@ -35275,8 +35335,8 @@
       <c r="Y164" s="24"/>
       <c r="Z164" s="24"/>
       <c r="AA164" s="24"/>
-      <c r="AB164" s="62"/>
-      <c r="AC164" s="62"/>
+      <c r="AB164" s="63"/>
+      <c r="AC164" s="63"/>
       <c r="AD164" s="24"/>
       <c r="AE164" s="24"/>
       <c r="AF164" s="24"/>
@@ -35364,8 +35424,8 @@
       <c r="Y165" s="24"/>
       <c r="Z165" s="24"/>
       <c r="AA165" s="24"/>
-      <c r="AB165" s="62"/>
-      <c r="AC165" s="62"/>
+      <c r="AB165" s="63"/>
+      <c r="AC165" s="63"/>
       <c r="AD165" s="24"/>
       <c r="AE165" s="24"/>
       <c r="AF165" s="24"/>
@@ -35453,8 +35513,8 @@
       <c r="Y166" s="24"/>
       <c r="Z166" s="24"/>
       <c r="AA166" s="24"/>
-      <c r="AB166" s="62"/>
-      <c r="AC166" s="62"/>
+      <c r="AB166" s="63"/>
+      <c r="AC166" s="63"/>
       <c r="AD166" s="24"/>
       <c r="AE166" s="24"/>
       <c r="AF166" s="24"/>
@@ -35542,8 +35602,8 @@
       <c r="Y167" s="24"/>
       <c r="Z167" s="24"/>
       <c r="AA167" s="24"/>
-      <c r="AB167" s="62"/>
-      <c r="AC167" s="62"/>
+      <c r="AB167" s="63"/>
+      <c r="AC167" s="63"/>
       <c r="AD167" s="24"/>
       <c r="AE167" s="24"/>
       <c r="AF167" s="24"/>
@@ -35631,8 +35691,8 @@
       <c r="Y168" s="24"/>
       <c r="Z168" s="24"/>
       <c r="AA168" s="24"/>
-      <c r="AB168" s="62"/>
-      <c r="AC168" s="62"/>
+      <c r="AB168" s="63"/>
+      <c r="AC168" s="63"/>
       <c r="AD168" s="24"/>
       <c r="AE168" s="24"/>
       <c r="AF168" s="24"/>
@@ -35720,8 +35780,8 @@
       <c r="Y169" s="24"/>
       <c r="Z169" s="24"/>
       <c r="AA169" s="24"/>
-      <c r="AB169" s="62"/>
-      <c r="AC169" s="62"/>
+      <c r="AB169" s="63"/>
+      <c r="AC169" s="63"/>
       <c r="AD169" s="24"/>
       <c r="AE169" s="24"/>
       <c r="AF169" s="24"/>
@@ -35809,8 +35869,8 @@
       <c r="Y170" s="24"/>
       <c r="Z170" s="24"/>
       <c r="AA170" s="24"/>
-      <c r="AB170" s="62"/>
-      <c r="AC170" s="62"/>
+      <c r="AB170" s="63"/>
+      <c r="AC170" s="63"/>
       <c r="AD170" s="24"/>
       <c r="AE170" s="24"/>
       <c r="AF170" s="24"/>
@@ -35898,8 +35958,8 @@
       <c r="Y171" s="24"/>
       <c r="Z171" s="24"/>
       <c r="AA171" s="24"/>
-      <c r="AB171" s="62"/>
-      <c r="AC171" s="62"/>
+      <c r="AB171" s="63"/>
+      <c r="AC171" s="63"/>
       <c r="AD171" s="24"/>
       <c r="AE171" s="24"/>
       <c r="AF171" s="24"/>
@@ -35987,8 +36047,8 @@
       <c r="Y172" s="24"/>
       <c r="Z172" s="24"/>
       <c r="AA172" s="24"/>
-      <c r="AB172" s="62"/>
-      <c r="AC172" s="62"/>
+      <c r="AB172" s="63"/>
+      <c r="AC172" s="63"/>
       <c r="AD172" s="24"/>
       <c r="AE172" s="24"/>
       <c r="AF172" s="24"/>
@@ -36076,8 +36136,8 @@
       <c r="Y173" s="24"/>
       <c r="Z173" s="24"/>
       <c r="AA173" s="24"/>
-      <c r="AB173" s="62"/>
-      <c r="AC173" s="62"/>
+      <c r="AB173" s="63"/>
+      <c r="AC173" s="63"/>
       <c r="AD173" s="24"/>
       <c r="AE173" s="24"/>
       <c r="AF173" s="24"/>
@@ -36165,8 +36225,8 @@
       <c r="Y174" s="24"/>
       <c r="Z174" s="24"/>
       <c r="AA174" s="24"/>
-      <c r="AB174" s="62"/>
-      <c r="AC174" s="62"/>
+      <c r="AB174" s="63"/>
+      <c r="AC174" s="63"/>
       <c r="AD174" s="24"/>
       <c r="AE174" s="24"/>
       <c r="AF174" s="24"/>
@@ -36254,8 +36314,8 @@
       <c r="Y175" s="24"/>
       <c r="Z175" s="24"/>
       <c r="AA175" s="24"/>
-      <c r="AB175" s="62"/>
-      <c r="AC175" s="62"/>
+      <c r="AB175" s="63"/>
+      <c r="AC175" s="63"/>
       <c r="AD175" s="24"/>
       <c r="AE175" s="24"/>
       <c r="AF175" s="24"/>
@@ -36343,8 +36403,8 @@
       <c r="Y176" s="24"/>
       <c r="Z176" s="24"/>
       <c r="AA176" s="24"/>
-      <c r="AB176" s="62"/>
-      <c r="AC176" s="62"/>
+      <c r="AB176" s="63"/>
+      <c r="AC176" s="63"/>
       <c r="AD176" s="24"/>
       <c r="AE176" s="24"/>
       <c r="AF176" s="24"/>
@@ -36432,8 +36492,8 @@
       <c r="Y177" s="24"/>
       <c r="Z177" s="24"/>
       <c r="AA177" s="24"/>
-      <c r="AB177" s="62"/>
-      <c r="AC177" s="62"/>
+      <c r="AB177" s="63"/>
+      <c r="AC177" s="63"/>
       <c r="AD177" s="24"/>
       <c r="AE177" s="24"/>
       <c r="AF177" s="24"/>
@@ -36519,8 +36579,8 @@
       <c r="Y178" s="24"/>
       <c r="Z178" s="24"/>
       <c r="AA178" s="24"/>
-      <c r="AB178" s="62"/>
-      <c r="AC178" s="62"/>
+      <c r="AB178" s="63"/>
+      <c r="AC178" s="63"/>
       <c r="AD178" s="24"/>
       <c r="AE178" s="24"/>
       <c r="AF178" s="24"/>
@@ -36608,8 +36668,8 @@
       <c r="Y179" s="24"/>
       <c r="Z179" s="24"/>
       <c r="AA179" s="24"/>
-      <c r="AB179" s="62"/>
-      <c r="AC179" s="62"/>
+      <c r="AB179" s="63"/>
+      <c r="AC179" s="63"/>
       <c r="AD179" s="24"/>
       <c r="AE179" s="24"/>
       <c r="AF179" s="24"/>
@@ -36697,8 +36757,8 @@
       <c r="Y180" s="24"/>
       <c r="Z180" s="24"/>
       <c r="AA180" s="24"/>
-      <c r="AB180" s="62"/>
-      <c r="AC180" s="62"/>
+      <c r="AB180" s="63"/>
+      <c r="AC180" s="63"/>
       <c r="AD180" s="24"/>
       <c r="AE180" s="24"/>
       <c r="AF180" s="24"/>
@@ -36786,8 +36846,8 @@
       <c r="Y181" s="24"/>
       <c r="Z181" s="24"/>
       <c r="AA181" s="24"/>
-      <c r="AB181" s="62"/>
-      <c r="AC181" s="62"/>
+      <c r="AB181" s="63"/>
+      <c r="AC181" s="63"/>
       <c r="AD181" s="24"/>
       <c r="AE181" s="24"/>
       <c r="AF181" s="24"/>
@@ -36875,8 +36935,8 @@
       <c r="Y182" s="24"/>
       <c r="Z182" s="24"/>
       <c r="AA182" s="24"/>
-      <c r="AB182" s="62"/>
-      <c r="AC182" s="62"/>
+      <c r="AB182" s="63"/>
+      <c r="AC182" s="63"/>
       <c r="AD182" s="24"/>
       <c r="AE182" s="24"/>
       <c r="AF182" s="24"/>
@@ -36964,8 +37024,8 @@
       <c r="Y183" s="24"/>
       <c r="Z183" s="24"/>
       <c r="AA183" s="24"/>
-      <c r="AB183" s="62"/>
-      <c r="AC183" s="62"/>
+      <c r="AB183" s="63"/>
+      <c r="AC183" s="63"/>
       <c r="AD183" s="24"/>
       <c r="AE183" s="24"/>
       <c r="AF183" s="24"/>
@@ -37027,10 +37087,10 @@
       </c>
       <c r="F184" s="24"/>
       <c r="G184" s="24"/>
-      <c r="H184" s="62"/>
-      <c r="I184" s="62"/>
-      <c r="J184" s="62"/>
-      <c r="K184" s="62"/>
+      <c r="H184" s="63"/>
+      <c r="I184" s="63"/>
+      <c r="J184" s="63"/>
+      <c r="K184" s="63"/>
       <c r="L184" s="24"/>
       <c r="M184" s="24" t="s">
         <v>1248</v>
@@ -37051,8 +37111,8 @@
       <c r="Y184" s="24"/>
       <c r="Z184" s="24"/>
       <c r="AA184" s="24"/>
-      <c r="AB184" s="62"/>
-      <c r="AC184" s="62"/>
+      <c r="AB184" s="63"/>
+      <c r="AC184" s="63"/>
       <c r="AD184" s="24"/>
       <c r="AE184" s="24"/>
       <c r="AF184" s="24"/>
@@ -37114,10 +37174,10 @@
       </c>
       <c r="F185" s="24"/>
       <c r="G185" s="24"/>
-      <c r="H185" s="62"/>
-      <c r="I185" s="62"/>
-      <c r="J185" s="62"/>
-      <c r="K185" s="62"/>
+      <c r="H185" s="63"/>
+      <c r="I185" s="63"/>
+      <c r="J185" s="63"/>
+      <c r="K185" s="63"/>
       <c r="L185" s="24"/>
       <c r="M185" s="24" t="s">
         <v>1250</v>
@@ -37142,8 +37202,8 @@
       <c r="Y185" s="24"/>
       <c r="Z185" s="24"/>
       <c r="AA185" s="24"/>
-      <c r="AB185" s="62"/>
-      <c r="AC185" s="62"/>
+      <c r="AB185" s="63"/>
+      <c r="AC185" s="63"/>
       <c r="AD185" s="24"/>
       <c r="AE185" s="24"/>
       <c r="AF185" s="24"/>
@@ -37231,8 +37291,8 @@
       <c r="Y186" s="24"/>
       <c r="Z186" s="24"/>
       <c r="AA186" s="24"/>
-      <c r="AB186" s="62"/>
-      <c r="AC186" s="62"/>
+      <c r="AB186" s="63"/>
+      <c r="AC186" s="63"/>
       <c r="AD186" s="24"/>
       <c r="AE186" s="24"/>
       <c r="AF186" s="24"/>
@@ -37320,8 +37380,8 @@
       <c r="Y187" s="24"/>
       <c r="Z187" s="24"/>
       <c r="AA187" s="24"/>
-      <c r="AB187" s="62"/>
-      <c r="AC187" s="62"/>
+      <c r="AB187" s="63"/>
+      <c r="AC187" s="63"/>
       <c r="AD187" s="24"/>
       <c r="AE187" s="24"/>
       <c r="AF187" s="24"/>
@@ -37407,8 +37467,8 @@
       <c r="Y188" s="24"/>
       <c r="Z188" s="24"/>
       <c r="AA188" s="24"/>
-      <c r="AB188" s="62"/>
-      <c r="AC188" s="62"/>
+      <c r="AB188" s="63"/>
+      <c r="AC188" s="63"/>
       <c r="AD188" s="24"/>
       <c r="AE188" s="24"/>
       <c r="AF188" s="24"/>
@@ -37496,8 +37556,8 @@
       <c r="Y189" s="24"/>
       <c r="Z189" s="24"/>
       <c r="AA189" s="24"/>
-      <c r="AB189" s="62"/>
-      <c r="AC189" s="62"/>
+      <c r="AB189" s="63"/>
+      <c r="AC189" s="63"/>
       <c r="AD189" s="24"/>
       <c r="AE189" s="24"/>
       <c r="AF189" s="24"/>
@@ -37563,10 +37623,10 @@
       <c r="G190" s="24" t="s">
         <v>1254</v>
       </c>
-      <c r="H190" s="62"/>
-      <c r="I190" s="62"/>
-      <c r="J190" s="62"/>
-      <c r="K190" s="62"/>
+      <c r="H190" s="63"/>
+      <c r="I190" s="63"/>
+      <c r="J190" s="63"/>
+      <c r="K190" s="63"/>
       <c r="L190" s="24"/>
       <c r="M190" s="24" t="s">
         <v>356</v>
@@ -37585,8 +37645,8 @@
       <c r="Y190" s="24"/>
       <c r="Z190" s="24"/>
       <c r="AA190" s="24"/>
-      <c r="AB190" s="62"/>
-      <c r="AC190" s="62"/>
+      <c r="AB190" s="63"/>
+      <c r="AC190" s="63"/>
       <c r="AD190" s="24"/>
       <c r="AE190" s="26"/>
       <c r="AF190" s="26"/>
@@ -37674,8 +37734,8 @@
       <c r="Y191" s="24"/>
       <c r="Z191" s="24"/>
       <c r="AA191" s="24"/>
-      <c r="AB191" s="62"/>
-      <c r="AC191" s="62"/>
+      <c r="AB191" s="63"/>
+      <c r="AC191" s="63"/>
       <c r="AD191" s="24"/>
       <c r="AE191" s="24"/>
       <c r="AF191" s="24"/>
@@ -37763,8 +37823,8 @@
       <c r="Y192" s="24"/>
       <c r="Z192" s="24"/>
       <c r="AA192" s="24"/>
-      <c r="AB192" s="62"/>
-      <c r="AC192" s="62"/>
+      <c r="AB192" s="63"/>
+      <c r="AC192" s="63"/>
       <c r="AD192" s="24"/>
       <c r="AE192" s="24"/>
       <c r="AF192" s="24"/>
@@ -37850,8 +37910,8 @@
       <c r="Y193" s="24"/>
       <c r="Z193" s="24"/>
       <c r="AA193" s="24"/>
-      <c r="AB193" s="62"/>
-      <c r="AC193" s="62"/>
+      <c r="AB193" s="63"/>
+      <c r="AC193" s="63"/>
       <c r="AD193" s="24"/>
       <c r="AE193" s="24"/>
       <c r="AF193" s="24"/>
@@ -37937,8 +37997,8 @@
       <c r="Y194" s="24"/>
       <c r="Z194" s="24"/>
       <c r="AA194" s="24"/>
-      <c r="AB194" s="62"/>
-      <c r="AC194" s="62"/>
+      <c r="AB194" s="63"/>
+      <c r="AC194" s="63"/>
       <c r="AD194" s="24"/>
       <c r="AE194" s="24"/>
       <c r="AF194" s="24"/>
@@ -38024,8 +38084,8 @@
       <c r="Y195" s="24"/>
       <c r="Z195" s="24"/>
       <c r="AA195" s="24"/>
-      <c r="AB195" s="62"/>
-      <c r="AC195" s="62"/>
+      <c r="AB195" s="63"/>
+      <c r="AC195" s="63"/>
       <c r="AD195" s="24"/>
       <c r="AE195" s="24"/>
       <c r="AF195" s="24"/>
@@ -38119,8 +38179,8 @@
       <c r="Y196" s="24"/>
       <c r="Z196" s="24"/>
       <c r="AA196" s="24"/>
-      <c r="AB196" s="62"/>
-      <c r="AC196" s="62"/>
+      <c r="AB196" s="63"/>
+      <c r="AC196" s="63"/>
       <c r="AD196" s="24"/>
       <c r="AE196" s="24"/>
       <c r="AF196" s="24"/>
@@ -38208,8 +38268,8 @@
       <c r="Y197" s="24"/>
       <c r="Z197" s="24"/>
       <c r="AA197" s="24"/>
-      <c r="AB197" s="62"/>
-      <c r="AC197" s="62"/>
+      <c r="AB197" s="63"/>
+      <c r="AC197" s="63"/>
       <c r="AD197" s="24"/>
       <c r="AE197" s="24"/>
       <c r="AF197" s="24"/>
@@ -38275,10 +38335,10 @@
       <c r="G198" s="24" t="s">
         <v>1265</v>
       </c>
-      <c r="H198" s="62"/>
-      <c r="I198" s="62"/>
-      <c r="J198" s="62"/>
-      <c r="K198" s="62"/>
+      <c r="H198" s="63"/>
+      <c r="I198" s="63"/>
+      <c r="J198" s="63"/>
+      <c r="K198" s="63"/>
       <c r="L198" s="24"/>
       <c r="M198" s="24" t="s">
         <v>508</v>
@@ -38301,8 +38361,8 @@
       <c r="Y198" s="24"/>
       <c r="Z198" s="24"/>
       <c r="AA198" s="24"/>
-      <c r="AB198" s="62"/>
-      <c r="AC198" s="62"/>
+      <c r="AB198" s="63"/>
+      <c r="AC198" s="63"/>
       <c r="AD198" s="24"/>
       <c r="AE198" s="24"/>
       <c r="AF198" s="24"/>
@@ -38368,10 +38428,10 @@
       <c r="G199" s="45" t="s">
         <v>1268</v>
       </c>
-      <c r="H199" s="62"/>
-      <c r="I199" s="62"/>
-      <c r="J199" s="62"/>
-      <c r="K199" s="62"/>
+      <c r="H199" s="63"/>
+      <c r="I199" s="63"/>
+      <c r="J199" s="63"/>
+      <c r="K199" s="63"/>
       <c r="L199" s="24"/>
       <c r="M199" s="24" t="s">
         <v>508</v>
@@ -38396,8 +38456,8 @@
       <c r="Y199" s="24"/>
       <c r="Z199" s="24"/>
       <c r="AA199" s="24"/>
-      <c r="AB199" s="62"/>
-      <c r="AC199" s="62"/>
+      <c r="AB199" s="63"/>
+      <c r="AC199" s="63"/>
       <c r="AD199" s="24"/>
       <c r="AE199" s="24"/>
       <c r="AF199" s="24"/>
@@ -38459,10 +38519,10 @@
       </c>
       <c r="F200" s="24"/>
       <c r="G200" s="24"/>
-      <c r="H200" s="62"/>
-      <c r="I200" s="62"/>
-      <c r="J200" s="62"/>
-      <c r="K200" s="62"/>
+      <c r="H200" s="63"/>
+      <c r="I200" s="63"/>
+      <c r="J200" s="63"/>
+      <c r="K200" s="63"/>
       <c r="L200" s="24"/>
       <c r="M200" s="24" t="s">
         <v>508</v>
@@ -38483,8 +38543,8 @@
       <c r="Y200" s="24"/>
       <c r="Z200" s="24"/>
       <c r="AA200" s="24"/>
-      <c r="AB200" s="62"/>
-      <c r="AC200" s="62"/>
+      <c r="AB200" s="63"/>
+      <c r="AC200" s="63"/>
       <c r="AD200" s="24"/>
       <c r="AE200" s="24"/>
       <c r="AF200" s="24"/>
@@ -38550,10 +38610,10 @@
       <c r="G201" s="24" t="s">
         <v>1273</v>
       </c>
-      <c r="H201" s="62"/>
-      <c r="I201" s="62"/>
-      <c r="J201" s="62"/>
-      <c r="K201" s="62"/>
+      <c r="H201" s="63"/>
+      <c r="I201" s="63"/>
+      <c r="J201" s="63"/>
+      <c r="K201" s="63"/>
       <c r="L201" s="24"/>
       <c r="M201" s="24" t="s">
         <v>508</v>
@@ -38576,8 +38636,8 @@
       <c r="Y201" s="24"/>
       <c r="Z201" s="24"/>
       <c r="AA201" s="24"/>
-      <c r="AB201" s="62"/>
-      <c r="AC201" s="62"/>
+      <c r="AB201" s="63"/>
+      <c r="AC201" s="63"/>
       <c r="AD201" s="24"/>
       <c r="AE201" s="24"/>
       <c r="AF201" s="24"/>
@@ -38643,10 +38703,10 @@
       <c r="G202" s="24" t="s">
         <v>1275</v>
       </c>
-      <c r="H202" s="62"/>
-      <c r="I202" s="62"/>
-      <c r="J202" s="62"/>
-      <c r="K202" s="62"/>
+      <c r="H202" s="63"/>
+      <c r="I202" s="63"/>
+      <c r="J202" s="63"/>
+      <c r="K202" s="63"/>
       <c r="L202" s="24"/>
       <c r="M202" s="24" t="s">
         <v>508</v>
@@ -38669,8 +38729,8 @@
       <c r="Y202" s="24"/>
       <c r="Z202" s="24"/>
       <c r="AA202" s="24"/>
-      <c r="AB202" s="62"/>
-      <c r="AC202" s="62"/>
+      <c r="AB202" s="63"/>
+      <c r="AC202" s="63"/>
       <c r="AD202" s="24"/>
       <c r="AE202" s="24"/>
       <c r="AF202" s="24"/>
@@ -38736,10 +38796,10 @@
       <c r="G203" s="24" t="s">
         <v>1277</v>
       </c>
-      <c r="H203" s="62"/>
-      <c r="I203" s="62"/>
-      <c r="J203" s="62"/>
-      <c r="K203" s="62"/>
+      <c r="H203" s="63"/>
+      <c r="I203" s="63"/>
+      <c r="J203" s="63"/>
+      <c r="K203" s="63"/>
       <c r="L203" s="24"/>
       <c r="M203" s="24" t="s">
         <v>508</v>
@@ -38762,8 +38822,8 @@
       <c r="Y203" s="24"/>
       <c r="Z203" s="24"/>
       <c r="AA203" s="24"/>
-      <c r="AB203" s="62"/>
-      <c r="AC203" s="62"/>
+      <c r="AB203" s="63"/>
+      <c r="AC203" s="63"/>
       <c r="AD203" s="24"/>
       <c r="AE203" s="24"/>
       <c r="AF203" s="24"/>
@@ -38829,10 +38889,10 @@
       <c r="G204" s="24" t="s">
         <v>1279</v>
       </c>
-      <c r="H204" s="62"/>
-      <c r="I204" s="62"/>
-      <c r="J204" s="62"/>
-      <c r="K204" s="62"/>
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="63"/>
       <c r="L204" s="24"/>
       <c r="M204" s="24" t="s">
         <v>508</v>
@@ -38855,8 +38915,8 @@
       <c r="Y204" s="24"/>
       <c r="Z204" s="24"/>
       <c r="AA204" s="24"/>
-      <c r="AB204" s="62"/>
-      <c r="AC204" s="62"/>
+      <c r="AB204" s="63"/>
+      <c r="AC204" s="63"/>
       <c r="AD204" s="24"/>
       <c r="AE204" s="24"/>
       <c r="AF204" s="24"/>
@@ -38922,10 +38982,10 @@
       <c r="G205" s="24" t="s">
         <v>1281</v>
       </c>
-      <c r="H205" s="62"/>
-      <c r="I205" s="62"/>
-      <c r="J205" s="62"/>
-      <c r="K205" s="62"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="63"/>
+      <c r="K205" s="63"/>
       <c r="L205" s="24"/>
       <c r="M205" s="24" t="s">
         <v>1282</v>
@@ -38954,8 +39014,8 @@
       <c r="Y205" s="24"/>
       <c r="Z205" s="24"/>
       <c r="AA205" s="24"/>
-      <c r="AB205" s="62"/>
-      <c r="AC205" s="62"/>
+      <c r="AB205" s="63"/>
+      <c r="AC205" s="63"/>
       <c r="AD205" s="24"/>
       <c r="AE205" s="24"/>
       <c r="AF205" s="24"/>
@@ -39017,12 +39077,12 @@
       </c>
       <c r="F206" s="24"/>
       <c r="G206" s="24"/>
-      <c r="H206" s="62"/>
-      <c r="I206" s="62"/>
-      <c r="J206" s="62"/>
-      <c r="K206" s="62"/>
-      <c r="L206" s="62"/>
-      <c r="M206" s="62"/>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="63"/>
+      <c r="K206" s="63"/>
+      <c r="L206" s="63"/>
+      <c r="M206" s="63"/>
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
       <c r="P206" s="24"/>
@@ -39037,8 +39097,8 @@
       <c r="Y206" s="24"/>
       <c r="Z206" s="24"/>
       <c r="AA206" s="24"/>
-      <c r="AB206" s="62"/>
-      <c r="AC206" s="62"/>
+      <c r="AB206" s="63"/>
+      <c r="AC206" s="63"/>
       <c r="AD206" s="24"/>
       <c r="AE206" s="24"/>
       <c r="AF206" s="24"/>
@@ -39106,10 +39166,10 @@
       </c>
       <c r="H207" s="64"/>
       <c r="I207" s="64"/>
-      <c r="J207" s="62"/>
-      <c r="K207" s="62"/>
-      <c r="L207" s="62"/>
-      <c r="M207" s="62"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="63"/>
+      <c r="L207" s="63"/>
+      <c r="M207" s="63"/>
       <c r="N207" s="24"/>
       <c r="O207" s="24"/>
       <c r="P207" s="24"/>
@@ -39124,8 +39184,8 @@
       <c r="Y207" s="24"/>
       <c r="Z207" s="24"/>
       <c r="AA207" s="24"/>
-      <c r="AB207" s="62"/>
-      <c r="AC207" s="62"/>
+      <c r="AB207" s="63"/>
+      <c r="AC207" s="63"/>
       <c r="AD207" s="24"/>
       <c r="AE207" s="24"/>
       <c r="AF207" s="24"/>
@@ -39191,10 +39251,10 @@
       <c r="G208" s="24" t="s">
         <v>1290</v>
       </c>
-      <c r="H208" s="62"/>
-      <c r="I208" s="62"/>
-      <c r="J208" s="62"/>
-      <c r="K208" s="62"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="63"/>
       <c r="L208" s="64"/>
       <c r="M208" s="64"/>
       <c r="N208" s="24"/>
@@ -39211,8 +39271,8 @@
       <c r="Y208" s="24"/>
       <c r="Z208" s="24"/>
       <c r="AA208" s="24"/>
-      <c r="AB208" s="62"/>
-      <c r="AC208" s="62"/>
+      <c r="AB208" s="63"/>
+      <c r="AC208" s="63"/>
       <c r="AD208" s="24"/>
       <c r="AE208" s="24"/>
       <c r="AF208" s="24"/>
@@ -39278,12 +39338,12 @@
       <c r="G209" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="H209" s="62"/>
-      <c r="I209" s="62"/>
-      <c r="J209" s="62"/>
-      <c r="K209" s="62"/>
-      <c r="L209" s="62"/>
-      <c r="M209" s="62"/>
+      <c r="H209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="63"/>
+      <c r="K209" s="63"/>
+      <c r="L209" s="63"/>
+      <c r="M209" s="63"/>
       <c r="N209" s="24"/>
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
@@ -39298,8 +39358,8 @@
       <c r="Y209" s="24"/>
       <c r="Z209" s="24"/>
       <c r="AA209" s="24"/>
-      <c r="AB209" s="62"/>
-      <c r="AC209" s="62"/>
+      <c r="AB209" s="63"/>
+      <c r="AC209" s="63"/>
       <c r="AD209" s="24"/>
       <c r="AE209" s="24"/>
       <c r="AF209" s="24"/>
@@ -39365,12 +39425,12 @@
       <c r="G210" s="24" t="s">
         <v>1295</v>
       </c>
-      <c r="H210" s="62"/>
-      <c r="I210" s="62"/>
-      <c r="J210" s="62"/>
-      <c r="K210" s="62"/>
-      <c r="L210" s="62"/>
-      <c r="M210" s="62"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="63"/>
+      <c r="L210" s="63"/>
+      <c r="M210" s="63"/>
       <c r="N210" s="24"/>
       <c r="O210" s="24"/>
       <c r="P210" s="24"/>
@@ -39385,8 +39445,8 @@
       <c r="Y210" s="24"/>
       <c r="Z210" s="24"/>
       <c r="AA210" s="24"/>
-      <c r="AB210" s="62"/>
-      <c r="AC210" s="62"/>
+      <c r="AB210" s="63"/>
+      <c r="AC210" s="63"/>
       <c r="AD210" s="24"/>
       <c r="AE210" s="24"/>
       <c r="AF210" s="24"/>
@@ -39452,12 +39512,12 @@
       <c r="G211" s="24" t="s">
         <v>1297</v>
       </c>
-      <c r="H211" s="62"/>
-      <c r="I211" s="62"/>
-      <c r="J211" s="62"/>
-      <c r="K211" s="62"/>
-      <c r="L211" s="62"/>
-      <c r="M211" s="62"/>
+      <c r="H211" s="63"/>
+      <c r="I211" s="63"/>
+      <c r="J211" s="63"/>
+      <c r="K211" s="63"/>
+      <c r="L211" s="63"/>
+      <c r="M211" s="63"/>
       <c r="N211" s="24"/>
       <c r="O211" s="29" t="s">
         <v>1298</v>
@@ -39474,8 +39534,8 @@
       <c r="Y211" s="24"/>
       <c r="Z211" s="24"/>
       <c r="AA211" s="24"/>
-      <c r="AB211" s="62"/>
-      <c r="AC211" s="62"/>
+      <c r="AB211" s="63"/>
+      <c r="AC211" s="63"/>
       <c r="AD211" s="24"/>
       <c r="AE211" s="24"/>
       <c r="AF211" s="24"/>
@@ -39541,12 +39601,12 @@
       <c r="G212" s="24" t="s">
         <v>1300</v>
       </c>
-      <c r="H212" s="62"/>
-      <c r="I212" s="62"/>
-      <c r="J212" s="62"/>
-      <c r="K212" s="62"/>
-      <c r="L212" s="62"/>
-      <c r="M212" s="62"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+      <c r="M212" s="63"/>
       <c r="N212" s="24"/>
       <c r="O212" s="29" t="s">
         <v>1301</v>
@@ -39563,8 +39623,8 @@
       <c r="Y212" s="24"/>
       <c r="Z212" s="24"/>
       <c r="AA212" s="24"/>
-      <c r="AB212" s="62"/>
-      <c r="AC212" s="62"/>
+      <c r="AB212" s="63"/>
+      <c r="AC212" s="63"/>
       <c r="AD212" s="24"/>
       <c r="AE212" s="24"/>
       <c r="AF212" s="24"/>
@@ -39630,12 +39690,12 @@
       <c r="G213" s="24" t="s">
         <v>1303</v>
       </c>
-      <c r="H213" s="62"/>
-      <c r="I213" s="62"/>
-      <c r="J213" s="62"/>
-      <c r="K213" s="62"/>
-      <c r="L213" s="62"/>
-      <c r="M213" s="62"/>
+      <c r="H213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="63"/>
+      <c r="K213" s="63"/>
+      <c r="L213" s="63"/>
+      <c r="M213" s="63"/>
       <c r="N213" s="24"/>
       <c r="O213" s="24" t="s">
         <v>1304</v>
@@ -39652,8 +39712,8 @@
       <c r="Y213" s="24"/>
       <c r="Z213" s="24"/>
       <c r="AA213" s="24"/>
-      <c r="AB213" s="62"/>
-      <c r="AC213" s="62"/>
+      <c r="AB213" s="63"/>
+      <c r="AC213" s="63"/>
       <c r="AD213" s="24"/>
       <c r="AE213" s="24"/>
       <c r="AF213" s="24"/>
@@ -39719,10 +39779,10 @@
       <c r="G214" s="24" t="s">
         <v>1307</v>
       </c>
-      <c r="H214" s="62"/>
-      <c r="I214" s="62"/>
-      <c r="J214" s="62"/>
-      <c r="K214" s="62"/>
+      <c r="H214" s="63"/>
+      <c r="I214" s="63"/>
+      <c r="J214" s="63"/>
+      <c r="K214" s="63"/>
       <c r="L214" s="24"/>
       <c r="M214" s="24" t="s">
         <v>1308</v>
@@ -39745,8 +39805,8 @@
       <c r="Y214" s="24"/>
       <c r="Z214" s="24"/>
       <c r="AA214" s="24"/>
-      <c r="AB214" s="62"/>
-      <c r="AC214" s="62"/>
+      <c r="AB214" s="63"/>
+      <c r="AC214" s="63"/>
       <c r="AD214" s="24"/>
       <c r="AE214" s="24"/>
       <c r="AF214" s="24"/>
@@ -39808,12 +39868,12 @@
       </c>
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
-      <c r="H215" s="62"/>
-      <c r="I215" s="62"/>
-      <c r="J215" s="62"/>
-      <c r="K215" s="62"/>
-      <c r="L215" s="62"/>
-      <c r="M215" s="62"/>
+      <c r="H215" s="63"/>
+      <c r="I215" s="63"/>
+      <c r="J215" s="63"/>
+      <c r="K215" s="63"/>
+      <c r="L215" s="63"/>
+      <c r="M215" s="63"/>
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
       <c r="P215" s="24"/>
@@ -39828,8 +39888,8 @@
       <c r="Y215" s="24"/>
       <c r="Z215" s="24"/>
       <c r="AA215" s="24"/>
-      <c r="AB215" s="62"/>
-      <c r="AC215" s="62"/>
+      <c r="AB215" s="63"/>
+      <c r="AC215" s="63"/>
       <c r="AD215" s="24"/>
       <c r="AE215" s="24"/>
       <c r="AF215" s="24"/>
@@ -39895,10 +39955,10 @@
       <c r="G216" s="24" t="s">
         <v>1313</v>
       </c>
-      <c r="H216" s="62"/>
-      <c r="I216" s="62"/>
-      <c r="J216" s="62"/>
-      <c r="K216" s="62"/>
+      <c r="H216" s="63"/>
+      <c r="I216" s="63"/>
+      <c r="J216" s="63"/>
+      <c r="K216" s="63"/>
       <c r="L216" s="24"/>
       <c r="M216" s="24" t="s">
         <v>1314</v>
@@ -39923,8 +39983,8 @@
       <c r="Y216" s="24"/>
       <c r="Z216" s="24"/>
       <c r="AA216" s="24"/>
-      <c r="AB216" s="62"/>
-      <c r="AC216" s="62"/>
+      <c r="AB216" s="63"/>
+      <c r="AC216" s="63"/>
       <c r="AD216" s="24"/>
       <c r="AE216" s="24"/>
       <c r="AF216" s="24"/>
@@ -39990,10 +40050,10 @@
       <c r="G217" s="24" t="s">
         <v>1318</v>
       </c>
-      <c r="H217" s="62"/>
-      <c r="I217" s="62"/>
-      <c r="J217" s="62"/>
-      <c r="K217" s="62"/>
+      <c r="H217" s="63"/>
+      <c r="I217" s="63"/>
+      <c r="J217" s="63"/>
+      <c r="K217" s="63"/>
       <c r="L217" s="24"/>
       <c r="M217" s="24" t="s">
         <v>1314</v>
@@ -40014,8 +40074,8 @@
       <c r="Y217" s="24"/>
       <c r="Z217" s="24"/>
       <c r="AA217" s="24"/>
-      <c r="AB217" s="62"/>
-      <c r="AC217" s="62"/>
+      <c r="AB217" s="63"/>
+      <c r="AC217" s="63"/>
       <c r="AD217" s="24"/>
       <c r="AE217" s="24"/>
       <c r="AF217" s="24"/>
@@ -40081,10 +40141,10 @@
       <c r="G218" s="24" t="s">
         <v>1320</v>
       </c>
-      <c r="H218" s="62"/>
-      <c r="I218" s="62"/>
-      <c r="J218" s="62"/>
-      <c r="K218" s="62"/>
+      <c r="H218" s="63"/>
+      <c r="I218" s="63"/>
+      <c r="J218" s="63"/>
+      <c r="K218" s="63"/>
       <c r="L218" s="24"/>
       <c r="M218" s="24" t="s">
         <v>1314</v>
@@ -40109,8 +40169,8 @@
       <c r="Y218" s="24"/>
       <c r="Z218" s="24"/>
       <c r="AA218" s="24"/>
-      <c r="AB218" s="62"/>
-      <c r="AC218" s="62"/>
+      <c r="AB218" s="63"/>
+      <c r="AC218" s="63"/>
       <c r="AD218" s="24"/>
       <c r="AE218" s="24"/>
       <c r="AF218" s="24"/>
@@ -40176,10 +40236,10 @@
       <c r="G219" s="24" t="s">
         <v>1323</v>
       </c>
-      <c r="H219" s="62"/>
-      <c r="I219" s="62"/>
-      <c r="J219" s="62"/>
-      <c r="K219" s="62"/>
+      <c r="H219" s="63"/>
+      <c r="I219" s="63"/>
+      <c r="J219" s="63"/>
+      <c r="K219" s="63"/>
       <c r="L219" s="24"/>
       <c r="M219" s="24" t="s">
         <v>1314</v>
@@ -40202,8 +40262,8 @@
       <c r="Y219" s="24"/>
       <c r="Z219" s="24"/>
       <c r="AA219" s="24"/>
-      <c r="AB219" s="62"/>
-      <c r="AC219" s="62"/>
+      <c r="AB219" s="63"/>
+      <c r="AC219" s="63"/>
       <c r="AD219" s="24"/>
       <c r="AE219" s="24"/>
       <c r="AF219" s="24"/>
@@ -40265,12 +40325,12 @@
       </c>
       <c r="F220" s="24"/>
       <c r="G220" s="24"/>
-      <c r="H220" s="62"/>
-      <c r="I220" s="62"/>
-      <c r="J220" s="62"/>
-      <c r="K220" s="62"/>
-      <c r="L220" s="62"/>
-      <c r="M220" s="62"/>
+      <c r="H220" s="63"/>
+      <c r="I220" s="63"/>
+      <c r="J220" s="63"/>
+      <c r="K220" s="63"/>
+      <c r="L220" s="63"/>
+      <c r="M220" s="63"/>
       <c r="N220" s="24"/>
       <c r="O220" s="24"/>
       <c r="P220" s="24"/>
@@ -40285,8 +40345,8 @@
       <c r="Y220" s="24"/>
       <c r="Z220" s="24"/>
       <c r="AA220" s="24"/>
-      <c r="AB220" s="62"/>
-      <c r="AC220" s="62"/>
+      <c r="AB220" s="63"/>
+      <c r="AC220" s="63"/>
       <c r="AD220" s="24"/>
       <c r="AE220" s="24"/>
       <c r="AF220" s="24"/>
@@ -40352,10 +40412,10 @@
       <c r="G221" s="24" t="s">
         <v>1328</v>
       </c>
-      <c r="H221" s="62"/>
-      <c r="I221" s="62"/>
-      <c r="J221" s="62"/>
-      <c r="K221" s="62"/>
+      <c r="H221" s="63"/>
+      <c r="I221" s="63"/>
+      <c r="J221" s="63"/>
+      <c r="K221" s="63"/>
       <c r="L221" s="24"/>
       <c r="M221" s="24" t="s">
         <v>1314</v>
@@ -40378,8 +40438,8 @@
       <c r="Y221" s="24"/>
       <c r="Z221" s="24"/>
       <c r="AA221" s="24"/>
-      <c r="AB221" s="62"/>
-      <c r="AC221" s="62"/>
+      <c r="AB221" s="63"/>
+      <c r="AC221" s="63"/>
       <c r="AD221" s="24"/>
       <c r="AE221" s="24"/>
       <c r="AF221" s="24"/>
@@ -40445,10 +40505,10 @@
       <c r="G222" s="24" t="s">
         <v>1331</v>
       </c>
-      <c r="H222" s="62"/>
-      <c r="I222" s="62"/>
-      <c r="J222" s="62"/>
-      <c r="K222" s="62"/>
+      <c r="H222" s="63"/>
+      <c r="I222" s="63"/>
+      <c r="J222" s="63"/>
+      <c r="K222" s="63"/>
       <c r="L222" s="24"/>
       <c r="M222" s="24" t="s">
         <v>1314</v>
@@ -40475,8 +40535,8 @@
       <c r="Y222" s="24"/>
       <c r="Z222" s="24"/>
       <c r="AA222" s="24"/>
-      <c r="AB222" s="62"/>
-      <c r="AC222" s="62"/>
+      <c r="AB222" s="63"/>
+      <c r="AC222" s="63"/>
       <c r="AD222" s="24"/>
       <c r="AE222" s="24"/>
       <c r="AF222" s="24"/>
@@ -40542,10 +40602,10 @@
       <c r="G223" s="24" t="s">
         <v>1336</v>
       </c>
-      <c r="H223" s="62"/>
-      <c r="I223" s="62"/>
-      <c r="J223" s="62"/>
-      <c r="K223" s="62"/>
+      <c r="H223" s="63"/>
+      <c r="I223" s="63"/>
+      <c r="J223" s="63"/>
+      <c r="K223" s="63"/>
       <c r="L223" s="24"/>
       <c r="M223" s="24" t="s">
         <v>1314</v>
@@ -40566,8 +40626,8 @@
       <c r="Y223" s="24"/>
       <c r="Z223" s="24"/>
       <c r="AA223" s="24"/>
-      <c r="AB223" s="62"/>
-      <c r="AC223" s="62"/>
+      <c r="AB223" s="63"/>
+      <c r="AC223" s="63"/>
       <c r="AD223" s="24"/>
       <c r="AE223" s="24"/>
       <c r="AF223" s="24"/>
@@ -40633,10 +40693,10 @@
       <c r="G224" s="24" t="s">
         <v>1338</v>
       </c>
-      <c r="H224" s="62"/>
-      <c r="I224" s="62"/>
-      <c r="J224" s="62"/>
-      <c r="K224" s="62"/>
+      <c r="H224" s="63"/>
+      <c r="I224" s="63"/>
+      <c r="J224" s="63"/>
+      <c r="K224" s="63"/>
       <c r="L224" s="24"/>
       <c r="M224" s="24" t="s">
         <v>1314</v>
@@ -40655,8 +40715,8 @@
       <c r="Y224" s="24"/>
       <c r="Z224" s="24"/>
       <c r="AA224" s="24"/>
-      <c r="AB224" s="62"/>
-      <c r="AC224" s="62"/>
+      <c r="AB224" s="63"/>
+      <c r="AC224" s="63"/>
       <c r="AD224" s="24"/>
       <c r="AE224" s="24"/>
       <c r="AF224" s="24"/>
@@ -40722,10 +40782,10 @@
       <c r="G225" s="24" t="s">
         <v>1340</v>
       </c>
-      <c r="H225" s="62"/>
-      <c r="I225" s="62"/>
-      <c r="J225" s="62"/>
-      <c r="K225" s="62"/>
+      <c r="H225" s="63"/>
+      <c r="I225" s="63"/>
+      <c r="J225" s="63"/>
+      <c r="K225" s="63"/>
       <c r="L225" s="24"/>
       <c r="M225" s="24" t="s">
         <v>1314</v>
@@ -40746,8 +40806,8 @@
       <c r="Y225" s="24"/>
       <c r="Z225" s="24"/>
       <c r="AA225" s="24"/>
-      <c r="AB225" s="62"/>
-      <c r="AC225" s="62"/>
+      <c r="AB225" s="63"/>
+      <c r="AC225" s="63"/>
       <c r="AD225" s="24"/>
       <c r="AE225" s="24"/>
       <c r="AF225" s="24"/>
@@ -40813,10 +40873,10 @@
       <c r="G226" s="24" t="s">
         <v>1342</v>
       </c>
-      <c r="H226" s="62"/>
-      <c r="I226" s="62"/>
-      <c r="J226" s="62"/>
-      <c r="K226" s="62"/>
+      <c r="H226" s="63"/>
+      <c r="I226" s="63"/>
+      <c r="J226" s="63"/>
+      <c r="K226" s="63"/>
       <c r="L226" s="24"/>
       <c r="M226" s="24" t="s">
         <v>1314</v>
@@ -40835,8 +40895,8 @@
       <c r="Y226" s="24"/>
       <c r="Z226" s="24"/>
       <c r="AA226" s="24"/>
-      <c r="AB226" s="62"/>
-      <c r="AC226" s="62"/>
+      <c r="AB226" s="63"/>
+      <c r="AC226" s="63"/>
       <c r="AD226" s="24"/>
       <c r="AE226" s="24"/>
       <c r="AF226" s="24"/>
@@ -40902,10 +40962,10 @@
       <c r="G227" s="24" t="s">
         <v>1344</v>
       </c>
-      <c r="H227" s="62"/>
-      <c r="I227" s="62"/>
-      <c r="J227" s="62"/>
-      <c r="K227" s="62"/>
+      <c r="H227" s="63"/>
+      <c r="I227" s="63"/>
+      <c r="J227" s="63"/>
+      <c r="K227" s="63"/>
       <c r="L227" s="24"/>
       <c r="M227" s="24" t="s">
         <v>1314</v>
@@ -40928,8 +40988,8 @@
       <c r="Y227" s="24"/>
       <c r="Z227" s="24"/>
       <c r="AA227" s="24"/>
-      <c r="AB227" s="62"/>
-      <c r="AC227" s="62"/>
+      <c r="AB227" s="63"/>
+      <c r="AC227" s="63"/>
       <c r="AD227" s="24"/>
       <c r="AE227" s="24"/>
       <c r="AF227" s="24"/>
@@ -40995,10 +41055,10 @@
       <c r="G228" s="24" t="s">
         <v>1347</v>
       </c>
-      <c r="H228" s="62"/>
-      <c r="I228" s="62"/>
-      <c r="J228" s="62"/>
-      <c r="K228" s="62"/>
+      <c r="H228" s="63"/>
+      <c r="I228" s="63"/>
+      <c r="J228" s="63"/>
+      <c r="K228" s="63"/>
       <c r="L228" s="24"/>
       <c r="M228" s="24" t="s">
         <v>1314</v>
@@ -41017,8 +41077,8 @@
       <c r="Y228" s="24"/>
       <c r="Z228" s="24"/>
       <c r="AA228" s="24"/>
-      <c r="AB228" s="62"/>
-      <c r="AC228" s="62"/>
+      <c r="AB228" s="63"/>
+      <c r="AC228" s="63"/>
       <c r="AD228" s="24"/>
       <c r="AE228" s="24"/>
       <c r="AF228" s="24"/>
@@ -41080,12 +41140,12 @@
       </c>
       <c r="F229" s="24"/>
       <c r="G229" s="24"/>
-      <c r="H229" s="62"/>
-      <c r="I229" s="62"/>
-      <c r="J229" s="62"/>
-      <c r="K229" s="62"/>
-      <c r="L229" s="62"/>
-      <c r="M229" s="62"/>
+      <c r="H229" s="63"/>
+      <c r="I229" s="63"/>
+      <c r="J229" s="63"/>
+      <c r="K229" s="63"/>
+      <c r="L229" s="63"/>
+      <c r="M229" s="63"/>
       <c r="N229" s="24"/>
       <c r="O229" s="24"/>
       <c r="P229" s="24"/>
@@ -41100,8 +41160,8 @@
       <c r="Y229" s="24"/>
       <c r="Z229" s="24"/>
       <c r="AA229" s="24"/>
-      <c r="AB229" s="62"/>
-      <c r="AC229" s="62"/>
+      <c r="AB229" s="63"/>
+      <c r="AC229" s="63"/>
       <c r="AD229" s="24"/>
       <c r="AE229" s="24"/>
       <c r="AF229" s="24"/>
@@ -41163,12 +41223,12 @@
       </c>
       <c r="F230" s="24"/>
       <c r="G230" s="24"/>
-      <c r="H230" s="62"/>
-      <c r="I230" s="62"/>
-      <c r="J230" s="62"/>
-      <c r="K230" s="62"/>
-      <c r="L230" s="62"/>
-      <c r="M230" s="62"/>
+      <c r="H230" s="63"/>
+      <c r="I230" s="63"/>
+      <c r="J230" s="63"/>
+      <c r="K230" s="63"/>
+      <c r="L230" s="63"/>
+      <c r="M230" s="63"/>
       <c r="N230" s="24"/>
       <c r="O230" s="24"/>
       <c r="P230" s="24"/>
@@ -41183,8 +41243,8 @@
       <c r="Y230" s="24"/>
       <c r="Z230" s="24"/>
       <c r="AA230" s="24"/>
-      <c r="AB230" s="62"/>
-      <c r="AC230" s="62"/>
+      <c r="AB230" s="63"/>
+      <c r="AC230" s="63"/>
       <c r="AD230" s="24"/>
       <c r="AE230" s="24"/>
       <c r="AF230" s="24"/>
@@ -41250,10 +41310,10 @@
       <c r="G231" s="24" t="s">
         <v>1351</v>
       </c>
-      <c r="H231" s="62"/>
-      <c r="I231" s="62"/>
-      <c r="J231" s="62"/>
-      <c r="K231" s="62"/>
+      <c r="H231" s="63"/>
+      <c r="I231" s="63"/>
+      <c r="J231" s="63"/>
+      <c r="K231" s="63"/>
       <c r="L231" s="24"/>
       <c r="M231" s="24" t="s">
         <v>1352</v>
@@ -41276,8 +41336,8 @@
       <c r="Y231" s="24"/>
       <c r="Z231" s="24"/>
       <c r="AA231" s="24"/>
-      <c r="AB231" s="62"/>
-      <c r="AC231" s="62"/>
+      <c r="AB231" s="63"/>
+      <c r="AC231" s="63"/>
       <c r="AD231" s="24"/>
       <c r="AE231" s="24"/>
       <c r="AF231" s="24"/>
@@ -41343,12 +41403,12 @@
       <c r="G232" s="24" t="s">
         <v>1355</v>
       </c>
-      <c r="H232" s="62"/>
-      <c r="I232" s="62"/>
-      <c r="J232" s="62"/>
-      <c r="K232" s="62"/>
-      <c r="L232" s="62"/>
-      <c r="M232" s="62"/>
+      <c r="H232" s="63"/>
+      <c r="I232" s="63"/>
+      <c r="J232" s="63"/>
+      <c r="K232" s="63"/>
+      <c r="L232" s="63"/>
+      <c r="M232" s="63"/>
       <c r="N232" s="24"/>
       <c r="O232" s="24"/>
       <c r="P232" s="24"/>
@@ -41363,8 +41423,8 @@
       <c r="Y232" s="24"/>
       <c r="Z232" s="24"/>
       <c r="AA232" s="24"/>
-      <c r="AB232" s="62"/>
-      <c r="AC232" s="62"/>
+      <c r="AB232" s="63"/>
+      <c r="AC232" s="63"/>
       <c r="AD232" s="24"/>
       <c r="AE232" s="24"/>
       <c r="AF232" s="24"/>
@@ -41430,12 +41490,12 @@
       <c r="G233" s="24" t="s">
         <v>1357</v>
       </c>
-      <c r="H233" s="62"/>
-      <c r="I233" s="62"/>
-      <c r="J233" s="62"/>
-      <c r="K233" s="62"/>
-      <c r="L233" s="62"/>
-      <c r="M233" s="62"/>
+      <c r="H233" s="63"/>
+      <c r="I233" s="63"/>
+      <c r="J233" s="63"/>
+      <c r="K233" s="63"/>
+      <c r="L233" s="63"/>
+      <c r="M233" s="63"/>
       <c r="N233" s="24"/>
       <c r="O233" s="24"/>
       <c r="P233" s="24"/>
@@ -41452,8 +41512,8 @@
       <c r="Y233" s="24"/>
       <c r="Z233" s="24"/>
       <c r="AA233" s="24"/>
-      <c r="AB233" s="62"/>
-      <c r="AC233" s="62"/>
+      <c r="AB233" s="63"/>
+      <c r="AC233" s="63"/>
       <c r="AD233" s="24"/>
       <c r="AE233" s="24"/>
       <c r="AF233" s="24"/>
@@ -41519,10 +41579,10 @@
       <c r="G234" s="24" t="s">
         <v>1360</v>
       </c>
-      <c r="H234" s="62"/>
-      <c r="I234" s="62"/>
-      <c r="J234" s="62"/>
-      <c r="K234" s="62"/>
+      <c r="H234" s="63"/>
+      <c r="I234" s="63"/>
+      <c r="J234" s="63"/>
+      <c r="K234" s="63"/>
       <c r="L234" s="24"/>
       <c r="M234" s="24" t="s">
         <v>1361</v>
@@ -41545,8 +41605,8 @@
       <c r="Y234" s="24"/>
       <c r="Z234" s="24"/>
       <c r="AA234" s="24"/>
-      <c r="AB234" s="62"/>
-      <c r="AC234" s="62"/>
+      <c r="AB234" s="63"/>
+      <c r="AC234" s="63"/>
       <c r="AD234" s="24"/>
       <c r="AE234" s="24"/>
       <c r="AF234" s="24"/>
@@ -41612,10 +41672,10 @@
       <c r="G235" s="24" t="s">
         <v>1364</v>
       </c>
-      <c r="H235" s="62"/>
-      <c r="I235" s="62"/>
-      <c r="J235" s="62"/>
-      <c r="K235" s="62"/>
+      <c r="H235" s="63"/>
+      <c r="I235" s="63"/>
+      <c r="J235" s="63"/>
+      <c r="K235" s="63"/>
       <c r="L235" s="24"/>
       <c r="M235" s="24" t="s">
         <v>1352</v>
@@ -41640,8 +41700,8 @@
       <c r="Y235" s="24"/>
       <c r="Z235" s="24"/>
       <c r="AA235" s="24"/>
-      <c r="AB235" s="62"/>
-      <c r="AC235" s="62"/>
+      <c r="AB235" s="63"/>
+      <c r="AC235" s="63"/>
       <c r="AD235" s="24"/>
       <c r="AE235" s="24"/>
       <c r="AF235" s="24"/>
@@ -41707,10 +41767,10 @@
       <c r="G236" s="49" t="s">
         <v>1368</v>
       </c>
-      <c r="H236" s="62"/>
-      <c r="I236" s="62"/>
-      <c r="J236" s="62"/>
-      <c r="K236" s="62"/>
+      <c r="H236" s="63"/>
+      <c r="I236" s="63"/>
+      <c r="J236" s="63"/>
+      <c r="K236" s="63"/>
       <c r="L236" s="24"/>
       <c r="M236" s="24" t="s">
         <v>1352</v>
@@ -41735,8 +41795,8 @@
       <c r="Y236" s="24"/>
       <c r="Z236" s="24"/>
       <c r="AA236" s="24"/>
-      <c r="AB236" s="62"/>
-      <c r="AC236" s="62"/>
+      <c r="AB236" s="63"/>
+      <c r="AC236" s="63"/>
       <c r="AD236" s="24"/>
       <c r="AE236" s="24"/>
       <c r="AF236" s="24"/>
@@ -41802,12 +41862,12 @@
       <c r="G237" s="24" t="s">
         <v>1371</v>
       </c>
-      <c r="H237" s="62"/>
-      <c r="I237" s="62"/>
-      <c r="J237" s="62"/>
-      <c r="K237" s="62"/>
-      <c r="L237" s="62"/>
-      <c r="M237" s="62"/>
+      <c r="H237" s="63"/>
+      <c r="I237" s="63"/>
+      <c r="J237" s="63"/>
+      <c r="K237" s="63"/>
+      <c r="L237" s="63"/>
+      <c r="M237" s="63"/>
       <c r="N237" s="24"/>
       <c r="O237" s="24"/>
       <c r="P237" s="24"/>
@@ -41824,8 +41884,8 @@
       <c r="Y237" s="24"/>
       <c r="Z237" s="24"/>
       <c r="AA237" s="24"/>
-      <c r="AB237" s="62"/>
-      <c r="AC237" s="62"/>
+      <c r="AB237" s="63"/>
+      <c r="AC237" s="63"/>
       <c r="AD237" s="24"/>
       <c r="AE237" s="24"/>
       <c r="AF237" s="24"/>
@@ -41891,10 +41951,10 @@
       <c r="G238" s="24" t="s">
         <v>1374</v>
       </c>
-      <c r="H238" s="62"/>
-      <c r="I238" s="62"/>
-      <c r="J238" s="62"/>
-      <c r="K238" s="62"/>
+      <c r="H238" s="63"/>
+      <c r="I238" s="63"/>
+      <c r="J238" s="63"/>
+      <c r="K238" s="63"/>
       <c r="L238" s="24"/>
       <c r="M238" s="24" t="s">
         <v>1352</v>
@@ -41919,8 +41979,8 @@
       <c r="Y238" s="24"/>
       <c r="Z238" s="24"/>
       <c r="AA238" s="24"/>
-      <c r="AB238" s="62"/>
-      <c r="AC238" s="62"/>
+      <c r="AB238" s="63"/>
+      <c r="AC238" s="63"/>
       <c r="AD238" s="24"/>
       <c r="AE238" s="24"/>
       <c r="AF238" s="24"/>
@@ -41986,10 +42046,10 @@
       <c r="G239" s="24" t="s">
         <v>1378</v>
       </c>
-      <c r="H239" s="62"/>
-      <c r="I239" s="62"/>
-      <c r="J239" s="62"/>
-      <c r="K239" s="62"/>
+      <c r="H239" s="63"/>
+      <c r="I239" s="63"/>
+      <c r="J239" s="63"/>
+      <c r="K239" s="63"/>
       <c r="L239" s="24"/>
       <c r="M239" s="24" t="s">
         <v>1352</v>
@@ -42012,8 +42072,8 @@
       <c r="Y239" s="24"/>
       <c r="Z239" s="24"/>
       <c r="AA239" s="24"/>
-      <c r="AB239" s="62"/>
-      <c r="AC239" s="62"/>
+      <c r="AB239" s="63"/>
+      <c r="AC239" s="63"/>
       <c r="AD239" s="24"/>
       <c r="AE239" s="24"/>
       <c r="AF239" s="24"/>
@@ -42079,10 +42139,10 @@
       <c r="G240" s="24" t="s">
         <v>1381</v>
       </c>
-      <c r="H240" s="62"/>
-      <c r="I240" s="62"/>
-      <c r="J240" s="62"/>
-      <c r="K240" s="62"/>
+      <c r="H240" s="63"/>
+      <c r="I240" s="63"/>
+      <c r="J240" s="63"/>
+      <c r="K240" s="63"/>
       <c r="L240" s="24"/>
       <c r="M240" s="24" t="s">
         <v>1361</v>
@@ -42105,8 +42165,8 @@
       <c r="Y240" s="24"/>
       <c r="Z240" s="24"/>
       <c r="AA240" s="24"/>
-      <c r="AB240" s="62"/>
-      <c r="AC240" s="62"/>
+      <c r="AB240" s="63"/>
+      <c r="AC240" s="63"/>
       <c r="AD240" s="24"/>
       <c r="AE240" s="24"/>
       <c r="AF240" s="24"/>
@@ -42172,10 +42232,10 @@
       <c r="G241" s="24" t="s">
         <v>1384</v>
       </c>
-      <c r="H241" s="62"/>
-      <c r="I241" s="62"/>
-      <c r="J241" s="62"/>
-      <c r="K241" s="62"/>
+      <c r="H241" s="63"/>
+      <c r="I241" s="63"/>
+      <c r="J241" s="63"/>
+      <c r="K241" s="63"/>
       <c r="L241" s="24"/>
       <c r="M241" s="24" t="s">
         <v>1385</v>
@@ -42200,8 +42260,8 @@
       <c r="Y241" s="24"/>
       <c r="Z241" s="24"/>
       <c r="AA241" s="24"/>
-      <c r="AB241" s="62"/>
-      <c r="AC241" s="62"/>
+      <c r="AB241" s="63"/>
+      <c r="AC241" s="63"/>
       <c r="AD241" s="24"/>
       <c r="AE241" s="24"/>
       <c r="AF241" s="24"/>
@@ -42267,10 +42327,10 @@
       <c r="G242" s="24" t="s">
         <v>1389</v>
       </c>
-      <c r="H242" s="62"/>
-      <c r="I242" s="62"/>
-      <c r="J242" s="62"/>
-      <c r="K242" s="62"/>
+      <c r="H242" s="63"/>
+      <c r="I242" s="63"/>
+      <c r="J242" s="63"/>
+      <c r="K242" s="63"/>
       <c r="L242" s="24"/>
       <c r="M242" s="24" t="s">
         <v>1361</v>
@@ -42297,8 +42357,8 @@
       <c r="Y242" s="24"/>
       <c r="Z242" s="24"/>
       <c r="AA242" s="24"/>
-      <c r="AB242" s="62"/>
-      <c r="AC242" s="62"/>
+      <c r="AB242" s="63"/>
+      <c r="AC242" s="63"/>
       <c r="AD242" s="24"/>
       <c r="AE242" s="24"/>
       <c r="AF242" s="24"/>
@@ -42364,10 +42424,10 @@
       <c r="G243" s="24" t="s">
         <v>1394</v>
       </c>
-      <c r="H243" s="62"/>
-      <c r="I243" s="62"/>
-      <c r="J243" s="62"/>
-      <c r="K243" s="62"/>
+      <c r="H243" s="63"/>
+      <c r="I243" s="63"/>
+      <c r="J243" s="63"/>
+      <c r="K243" s="63"/>
       <c r="L243" s="24"/>
       <c r="M243" s="24" t="s">
         <v>1352</v>
@@ -42390,8 +42450,8 @@
       <c r="Y243" s="24"/>
       <c r="Z243" s="24"/>
       <c r="AA243" s="24"/>
-      <c r="AB243" s="62"/>
-      <c r="AC243" s="62"/>
+      <c r="AB243" s="63"/>
+      <c r="AC243" s="63"/>
       <c r="AD243" s="24"/>
       <c r="AE243" s="24"/>
       <c r="AF243" s="24"/>
@@ -42457,10 +42517,10 @@
       <c r="G244" s="24" t="s">
         <v>1397</v>
       </c>
-      <c r="H244" s="62"/>
-      <c r="I244" s="62"/>
-      <c r="J244" s="62"/>
-      <c r="K244" s="62"/>
+      <c r="H244" s="63"/>
+      <c r="I244" s="63"/>
+      <c r="J244" s="63"/>
+      <c r="K244" s="63"/>
       <c r="L244" s="24"/>
       <c r="M244" s="24" t="s">
         <v>1361</v>
@@ -42483,8 +42543,8 @@
       <c r="Y244" s="24"/>
       <c r="Z244" s="24"/>
       <c r="AA244" s="24"/>
-      <c r="AB244" s="62"/>
-      <c r="AC244" s="62"/>
+      <c r="AB244" s="63"/>
+      <c r="AC244" s="63"/>
       <c r="AD244" s="24"/>
       <c r="AE244" s="24"/>
       <c r="AF244" s="24"/>
@@ -42550,12 +42610,12 @@
       <c r="G245" s="24" t="s">
         <v>1400</v>
       </c>
-      <c r="H245" s="62"/>
-      <c r="I245" s="62"/>
-      <c r="J245" s="62"/>
-      <c r="K245" s="62"/>
-      <c r="L245" s="62"/>
-      <c r="M245" s="62"/>
+      <c r="H245" s="63"/>
+      <c r="I245" s="63"/>
+      <c r="J245" s="63"/>
+      <c r="K245" s="63"/>
+      <c r="L245" s="63"/>
+      <c r="M245" s="63"/>
       <c r="N245" s="24"/>
       <c r="O245" s="24"/>
       <c r="P245" s="24"/>
@@ -42570,8 +42630,8 @@
       <c r="Y245" s="24"/>
       <c r="Z245" s="24"/>
       <c r="AA245" s="24"/>
-      <c r="AB245" s="62"/>
-      <c r="AC245" s="62"/>
+      <c r="AB245" s="63"/>
+      <c r="AC245" s="63"/>
       <c r="AD245" s="24"/>
       <c r="AE245" s="24"/>
       <c r="AF245" s="24"/>
@@ -42637,10 +42697,10 @@
       <c r="G246" s="24" t="s">
         <v>1402</v>
       </c>
-      <c r="H246" s="62"/>
-      <c r="I246" s="62"/>
-      <c r="J246" s="62"/>
-      <c r="K246" s="62"/>
+      <c r="H246" s="63"/>
+      <c r="I246" s="63"/>
+      <c r="J246" s="63"/>
+      <c r="K246" s="63"/>
       <c r="L246" s="24"/>
       <c r="M246" s="24" t="s">
         <v>1352</v>
@@ -42663,8 +42723,8 @@
       <c r="Y246" s="24"/>
       <c r="Z246" s="24"/>
       <c r="AA246" s="24"/>
-      <c r="AB246" s="62"/>
-      <c r="AC246" s="62"/>
+      <c r="AB246" s="63"/>
+      <c r="AC246" s="63"/>
       <c r="AD246" s="24"/>
       <c r="AE246" s="24"/>
       <c r="AF246" s="24"/>
@@ -42730,10 +42790,10 @@
       <c r="G247" s="24" t="s">
         <v>1405</v>
       </c>
-      <c r="H247" s="62"/>
-      <c r="I247" s="62"/>
-      <c r="J247" s="62"/>
-      <c r="K247" s="62"/>
+      <c r="H247" s="63"/>
+      <c r="I247" s="63"/>
+      <c r="J247" s="63"/>
+      <c r="K247" s="63"/>
       <c r="L247" s="24"/>
       <c r="M247" s="24" t="s">
         <v>1361</v>
@@ -42758,8 +42818,8 @@
       <c r="Y247" s="24"/>
       <c r="Z247" s="24"/>
       <c r="AA247" s="24"/>
-      <c r="AB247" s="62"/>
-      <c r="AC247" s="62"/>
+      <c r="AB247" s="63"/>
+      <c r="AC247" s="63"/>
       <c r="AD247" s="24"/>
       <c r="AE247" s="24"/>
       <c r="AF247" s="24"/>
@@ -42825,12 +42885,12 @@
       <c r="G248" s="24" t="s">
         <v>1409</v>
       </c>
-      <c r="H248" s="62"/>
-      <c r="I248" s="62"/>
-      <c r="J248" s="62"/>
-      <c r="K248" s="62"/>
-      <c r="L248" s="62"/>
-      <c r="M248" s="62"/>
+      <c r="H248" s="63"/>
+      <c r="I248" s="63"/>
+      <c r="J248" s="63"/>
+      <c r="K248" s="63"/>
+      <c r="L248" s="63"/>
+      <c r="M248" s="63"/>
       <c r="N248" s="24"/>
       <c r="O248" s="24"/>
       <c r="P248" s="24"/>
@@ -42847,8 +42907,8 @@
       <c r="Y248" s="24"/>
       <c r="Z248" s="24"/>
       <c r="AA248" s="24"/>
-      <c r="AB248" s="62"/>
-      <c r="AC248" s="62"/>
+      <c r="AB248" s="63"/>
+      <c r="AC248" s="63"/>
       <c r="AD248" s="24"/>
       <c r="AE248" s="24"/>
       <c r="AF248" s="24"/>
@@ -42914,10 +42974,10 @@
       <c r="G249" s="24" t="s">
         <v>1412</v>
       </c>
-      <c r="H249" s="62"/>
-      <c r="I249" s="62"/>
-      <c r="J249" s="62"/>
-      <c r="K249" s="62"/>
+      <c r="H249" s="63"/>
+      <c r="I249" s="63"/>
+      <c r="J249" s="63"/>
+      <c r="K249" s="63"/>
       <c r="L249" s="24"/>
       <c r="M249" s="24" t="s">
         <v>1361</v>
@@ -42940,8 +43000,8 @@
       <c r="Y249" s="24"/>
       <c r="Z249" s="24"/>
       <c r="AA249" s="24"/>
-      <c r="AB249" s="62"/>
-      <c r="AC249" s="62"/>
+      <c r="AB249" s="63"/>
+      <c r="AC249" s="63"/>
       <c r="AD249" s="24"/>
       <c r="AE249" s="24"/>
       <c r="AF249" s="24"/>
@@ -43007,12 +43067,12 @@
       <c r="G250" s="24" t="s">
         <v>1415</v>
       </c>
-      <c r="H250" s="62"/>
-      <c r="I250" s="62"/>
-      <c r="J250" s="62"/>
-      <c r="K250" s="62"/>
-      <c r="L250" s="62"/>
-      <c r="M250" s="62"/>
+      <c r="H250" s="63"/>
+      <c r="I250" s="63"/>
+      <c r="J250" s="63"/>
+      <c r="K250" s="63"/>
+      <c r="L250" s="63"/>
+      <c r="M250" s="63"/>
       <c r="N250" s="24"/>
       <c r="O250" s="24"/>
       <c r="P250" s="24"/>
@@ -43027,8 +43087,8 @@
       <c r="Y250" s="24"/>
       <c r="Z250" s="24"/>
       <c r="AA250" s="24"/>
-      <c r="AB250" s="62"/>
-      <c r="AC250" s="62"/>
+      <c r="AB250" s="63"/>
+      <c r="AC250" s="63"/>
       <c r="AD250" s="24"/>
       <c r="AE250" s="24"/>
       <c r="AF250" s="24"/>
@@ -43094,10 +43154,10 @@
       <c r="G251" s="24" t="s">
         <v>1417</v>
       </c>
-      <c r="H251" s="62"/>
-      <c r="I251" s="62"/>
-      <c r="J251" s="62"/>
-      <c r="K251" s="62"/>
+      <c r="H251" s="63"/>
+      <c r="I251" s="63"/>
+      <c r="J251" s="63"/>
+      <c r="K251" s="63"/>
       <c r="L251" s="24"/>
       <c r="M251" s="24" t="s">
         <v>1352</v>
@@ -43120,8 +43180,8 @@
       <c r="Y251" s="24"/>
       <c r="Z251" s="24"/>
       <c r="AA251" s="24"/>
-      <c r="AB251" s="62"/>
-      <c r="AC251" s="62"/>
+      <c r="AB251" s="63"/>
+      <c r="AC251" s="63"/>
       <c r="AD251" s="24"/>
       <c r="AE251" s="24"/>
       <c r="AF251" s="24"/>
@@ -43187,12 +43247,12 @@
       <c r="G252" s="24" t="s">
         <v>1420</v>
       </c>
-      <c r="H252" s="62"/>
-      <c r="I252" s="62"/>
-      <c r="J252" s="62"/>
-      <c r="K252" s="62"/>
-      <c r="L252" s="62"/>
-      <c r="M252" s="62"/>
+      <c r="H252" s="63"/>
+      <c r="I252" s="63"/>
+      <c r="J252" s="63"/>
+      <c r="K252" s="63"/>
+      <c r="L252" s="63"/>
+      <c r="M252" s="63"/>
       <c r="N252" s="24"/>
       <c r="O252" s="24"/>
       <c r="P252" s="24"/>
@@ -43207,8 +43267,8 @@
       <c r="Y252" s="24"/>
       <c r="Z252" s="24"/>
       <c r="AA252" s="24"/>
-      <c r="AB252" s="62"/>
-      <c r="AC252" s="62"/>
+      <c r="AB252" s="63"/>
+      <c r="AC252" s="63"/>
       <c r="AD252" s="24"/>
       <c r="AE252" s="24"/>
       <c r="AF252" s="24"/>
@@ -43270,12 +43330,12 @@
       </c>
       <c r="F253" s="24"/>
       <c r="G253" s="24"/>
-      <c r="H253" s="62"/>
-      <c r="I253" s="62"/>
-      <c r="J253" s="62"/>
-      <c r="K253" s="62"/>
-      <c r="L253" s="62"/>
-      <c r="M253" s="62"/>
+      <c r="H253" s="63"/>
+      <c r="I253" s="63"/>
+      <c r="J253" s="63"/>
+      <c r="K253" s="63"/>
+      <c r="L253" s="63"/>
+      <c r="M253" s="63"/>
       <c r="N253" s="24"/>
       <c r="O253" s="24"/>
       <c r="P253" s="24"/>
@@ -43290,8 +43350,8 @@
       <c r="Y253" s="24"/>
       <c r="Z253" s="24"/>
       <c r="AA253" s="24"/>
-      <c r="AB253" s="62"/>
-      <c r="AC253" s="62"/>
+      <c r="AB253" s="63"/>
+      <c r="AC253" s="63"/>
       <c r="AD253" s="24"/>
       <c r="AE253" s="24"/>
       <c r="AF253" s="24"/>
@@ -43357,10 +43417,10 @@
       <c r="G254" s="24" t="s">
         <v>1423</v>
       </c>
-      <c r="H254" s="62"/>
-      <c r="I254" s="62"/>
-      <c r="J254" s="62"/>
-      <c r="K254" s="62"/>
+      <c r="H254" s="63"/>
+      <c r="I254" s="63"/>
+      <c r="J254" s="63"/>
+      <c r="K254" s="63"/>
       <c r="L254" s="24"/>
       <c r="M254" s="24" t="s">
         <v>1314</v>
@@ -43381,8 +43441,8 @@
       <c r="Y254" s="24"/>
       <c r="Z254" s="24"/>
       <c r="AA254" s="24"/>
-      <c r="AB254" s="62"/>
-      <c r="AC254" s="62"/>
+      <c r="AB254" s="63"/>
+      <c r="AC254" s="63"/>
       <c r="AD254" s="24"/>
       <c r="AE254" s="24"/>
       <c r="AF254" s="24"/>
@@ -43448,10 +43508,10 @@
       <c r="G255" s="24" t="s">
         <v>1426</v>
       </c>
-      <c r="H255" s="62"/>
-      <c r="I255" s="62"/>
-      <c r="J255" s="62"/>
-      <c r="K255" s="62"/>
+      <c r="H255" s="63"/>
+      <c r="I255" s="63"/>
+      <c r="J255" s="63"/>
+      <c r="K255" s="63"/>
       <c r="L255" s="24"/>
       <c r="M255" s="24" t="s">
         <v>1314</v>
@@ -43470,8 +43530,8 @@
       <c r="Y255" s="24"/>
       <c r="Z255" s="24"/>
       <c r="AA255" s="24"/>
-      <c r="AB255" s="62"/>
-      <c r="AC255" s="62"/>
+      <c r="AB255" s="63"/>
+      <c r="AC255" s="63"/>
       <c r="AD255" s="24"/>
       <c r="AE255" s="24"/>
       <c r="AF255" s="24"/>
@@ -43537,10 +43597,10 @@
       <c r="G256" s="24" t="s">
         <v>1428</v>
       </c>
-      <c r="H256" s="62"/>
-      <c r="I256" s="62"/>
-      <c r="J256" s="62"/>
-      <c r="K256" s="62"/>
+      <c r="H256" s="63"/>
+      <c r="I256" s="63"/>
+      <c r="J256" s="63"/>
+      <c r="K256" s="63"/>
       <c r="L256" s="24"/>
       <c r="M256" s="24" t="s">
         <v>1314</v>
@@ -43561,8 +43621,8 @@
       <c r="Y256" s="24"/>
       <c r="Z256" s="24"/>
       <c r="AA256" s="24"/>
-      <c r="AB256" s="62"/>
-      <c r="AC256" s="62"/>
+      <c r="AB256" s="63"/>
+      <c r="AC256" s="63"/>
       <c r="AD256" s="24"/>
       <c r="AE256" s="24"/>
       <c r="AF256" s="24"/>
@@ -43628,10 +43688,10 @@
       <c r="G257" s="24" t="s">
         <v>1431</v>
       </c>
-      <c r="H257" s="62"/>
-      <c r="I257" s="62"/>
-      <c r="J257" s="62"/>
-      <c r="K257" s="62"/>
+      <c r="H257" s="63"/>
+      <c r="I257" s="63"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="63"/>
       <c r="L257" s="24"/>
       <c r="M257" s="24" t="s">
         <v>1314</v>
@@ -43650,8 +43710,8 @@
       <c r="Y257" s="24"/>
       <c r="Z257" s="24"/>
       <c r="AA257" s="24"/>
-      <c r="AB257" s="62"/>
-      <c r="AC257" s="62"/>
+      <c r="AB257" s="63"/>
+      <c r="AC257" s="63"/>
       <c r="AD257" s="24"/>
       <c r="AE257" s="24"/>
       <c r="AF257" s="24"/>
@@ -43721,10 +43781,10 @@
       <c r="G258" s="24" t="s">
         <v>1435</v>
       </c>
-      <c r="H258" s="62"/>
-      <c r="I258" s="62"/>
-      <c r="J258" s="62"/>
-      <c r="K258" s="62"/>
+      <c r="H258" s="63"/>
+      <c r="I258" s="63"/>
+      <c r="J258" s="63"/>
+      <c r="K258" s="63"/>
       <c r="L258" s="24"/>
       <c r="M258" s="24" t="s">
         <v>1314</v>
@@ -43745,8 +43805,8 @@
       <c r="Y258" s="24"/>
       <c r="Z258" s="24"/>
       <c r="AA258" s="24"/>
-      <c r="AB258" s="62"/>
-      <c r="AC258" s="62"/>
+      <c r="AB258" s="63"/>
+      <c r="AC258" s="63"/>
       <c r="AD258" s="24"/>
       <c r="AE258" s="24"/>
       <c r="AF258" s="24"/>
@@ -43816,10 +43876,10 @@
       <c r="G259" s="24" t="s">
         <v>1440</v>
       </c>
-      <c r="H259" s="62"/>
-      <c r="I259" s="62"/>
-      <c r="J259" s="62"/>
-      <c r="K259" s="62"/>
+      <c r="H259" s="63"/>
+      <c r="I259" s="63"/>
+      <c r="J259" s="63"/>
+      <c r="K259" s="63"/>
       <c r="L259" s="24"/>
       <c r="M259" s="24" t="s">
         <v>1314</v>
@@ -43838,8 +43898,8 @@
       <c r="Y259" s="24"/>
       <c r="Z259" s="24"/>
       <c r="AA259" s="24"/>
-      <c r="AB259" s="62"/>
-      <c r="AC259" s="62"/>
+      <c r="AB259" s="63"/>
+      <c r="AC259" s="63"/>
       <c r="AD259" s="24"/>
       <c r="AE259" s="24"/>
       <c r="AF259" s="24"/>
@@ -43905,10 +43965,10 @@
       <c r="G260" s="24" t="s">
         <v>1442</v>
       </c>
-      <c r="H260" s="62"/>
-      <c r="I260" s="62"/>
-      <c r="J260" s="62"/>
-      <c r="K260" s="62"/>
+      <c r="H260" s="63"/>
+      <c r="I260" s="63"/>
+      <c r="J260" s="63"/>
+      <c r="K260" s="63"/>
       <c r="L260" s="24"/>
       <c r="M260" s="24" t="s">
         <v>1314</v>
@@ -43929,8 +43989,8 @@
       <c r="Y260" s="24"/>
       <c r="Z260" s="24"/>
       <c r="AA260" s="24"/>
-      <c r="AB260" s="62"/>
-      <c r="AC260" s="62"/>
+      <c r="AB260" s="63"/>
+      <c r="AC260" s="63"/>
       <c r="AD260" s="24"/>
       <c r="AE260" s="24"/>
       <c r="AF260" s="24"/>
@@ -43992,12 +44052,12 @@
       </c>
       <c r="F261" s="24"/>
       <c r="G261" s="24"/>
-      <c r="H261" s="62"/>
-      <c r="I261" s="62"/>
-      <c r="J261" s="62"/>
-      <c r="K261" s="62"/>
-      <c r="L261" s="62"/>
-      <c r="M261" s="62"/>
+      <c r="H261" s="63"/>
+      <c r="I261" s="63"/>
+      <c r="J261" s="63"/>
+      <c r="K261" s="63"/>
+      <c r="L261" s="63"/>
+      <c r="M261" s="63"/>
       <c r="N261" s="24"/>
       <c r="O261" s="24"/>
       <c r="P261" s="24"/>
@@ -44012,8 +44072,8 @@
       <c r="Y261" s="24"/>
       <c r="Z261" s="24"/>
       <c r="AA261" s="24"/>
-      <c r="AB261" s="62"/>
-      <c r="AC261" s="62"/>
+      <c r="AB261" s="63"/>
+      <c r="AC261" s="63"/>
       <c r="AD261" s="24"/>
       <c r="AE261" s="24"/>
       <c r="AF261" s="24"/>
@@ -44079,10 +44139,10 @@
       <c r="G262" s="24" t="s">
         <v>1446</v>
       </c>
-      <c r="H262" s="62"/>
-      <c r="I262" s="62"/>
-      <c r="J262" s="62"/>
-      <c r="K262" s="62"/>
+      <c r="H262" s="63"/>
+      <c r="I262" s="63"/>
+      <c r="J262" s="63"/>
+      <c r="K262" s="63"/>
       <c r="L262" s="24"/>
       <c r="M262" s="24" t="s">
         <v>1314</v>
@@ -44101,8 +44161,8 @@
       <c r="Y262" s="24"/>
       <c r="Z262" s="24"/>
       <c r="AA262" s="24"/>
-      <c r="AB262" s="62"/>
-      <c r="AC262" s="62"/>
+      <c r="AB262" s="63"/>
+      <c r="AC262" s="63"/>
       <c r="AD262" s="24"/>
       <c r="AE262" s="24"/>
       <c r="AF262" s="24"/>
@@ -44168,10 +44228,10 @@
       <c r="G263" s="24" t="s">
         <v>1448</v>
       </c>
-      <c r="H263" s="62"/>
-      <c r="I263" s="62"/>
-      <c r="J263" s="62"/>
-      <c r="K263" s="62"/>
+      <c r="H263" s="63"/>
+      <c r="I263" s="63"/>
+      <c r="J263" s="63"/>
+      <c r="K263" s="63"/>
       <c r="L263" s="24"/>
       <c r="M263" s="24" t="s">
         <v>1314</v>
@@ -44194,8 +44254,8 @@
       <c r="Y263" s="24"/>
       <c r="Z263" s="24"/>
       <c r="AA263" s="24"/>
-      <c r="AB263" s="62"/>
-      <c r="AC263" s="62"/>
+      <c r="AB263" s="63"/>
+      <c r="AC263" s="63"/>
       <c r="AD263" s="24"/>
       <c r="AE263" s="24"/>
       <c r="AF263" s="24"/>
@@ -44265,10 +44325,10 @@
       <c r="G264" s="24" t="s">
         <v>1454</v>
       </c>
-      <c r="H264" s="62"/>
-      <c r="I264" s="62"/>
-      <c r="J264" s="62"/>
-      <c r="K264" s="62"/>
+      <c r="H264" s="63"/>
+      <c r="I264" s="63"/>
+      <c r="J264" s="63"/>
+      <c r="K264" s="63"/>
       <c r="L264" s="24"/>
       <c r="M264" s="24" t="s">
         <v>1314</v>
@@ -44289,8 +44349,8 @@
       <c r="Y264" s="24"/>
       <c r="Z264" s="24"/>
       <c r="AA264" s="24"/>
-      <c r="AB264" s="62"/>
-      <c r="AC264" s="62"/>
+      <c r="AB264" s="63"/>
+      <c r="AC264" s="63"/>
       <c r="AD264" s="24"/>
       <c r="AE264" s="24"/>
       <c r="AF264" s="24"/>
@@ -44356,10 +44416,10 @@
       <c r="G265" s="24" t="s">
         <v>1457</v>
       </c>
-      <c r="H265" s="62"/>
-      <c r="I265" s="62"/>
-      <c r="J265" s="62"/>
-      <c r="K265" s="62"/>
+      <c r="H265" s="63"/>
+      <c r="I265" s="63"/>
+      <c r="J265" s="63"/>
+      <c r="K265" s="63"/>
       <c r="L265" s="24"/>
       <c r="M265" s="24" t="s">
         <v>1314</v>
@@ -44380,8 +44440,8 @@
       <c r="Y265" s="24"/>
       <c r="Z265" s="24"/>
       <c r="AA265" s="24"/>
-      <c r="AB265" s="62"/>
-      <c r="AC265" s="62"/>
+      <c r="AB265" s="63"/>
+      <c r="AC265" s="63"/>
       <c r="AD265" s="24"/>
       <c r="AE265" s="24"/>
       <c r="AF265" s="24"/>
@@ -44443,12 +44503,12 @@
       </c>
       <c r="F266" s="24"/>
       <c r="G266" s="24"/>
-      <c r="H266" s="62"/>
-      <c r="I266" s="62"/>
-      <c r="J266" s="62"/>
-      <c r="K266" s="62"/>
-      <c r="L266" s="62"/>
-      <c r="M266" s="62"/>
+      <c r="H266" s="63"/>
+      <c r="I266" s="63"/>
+      <c r="J266" s="63"/>
+      <c r="K266" s="63"/>
+      <c r="L266" s="63"/>
+      <c r="M266" s="63"/>
       <c r="N266" s="24"/>
       <c r="O266" s="24"/>
       <c r="P266" s="24"/>
@@ -44463,8 +44523,8 @@
       <c r="Y266" s="24"/>
       <c r="Z266" s="24"/>
       <c r="AA266" s="24"/>
-      <c r="AB266" s="62"/>
-      <c r="AC266" s="62"/>
+      <c r="AB266" s="63"/>
+      <c r="AC266" s="63"/>
       <c r="AD266" s="24"/>
       <c r="AE266" s="24"/>
       <c r="AF266" s="24"/>
@@ -44550,8 +44610,8 @@
       <c r="Y267" s="24"/>
       <c r="Z267" s="24"/>
       <c r="AA267" s="24"/>
-      <c r="AB267" s="62"/>
-      <c r="AC267" s="62"/>
+      <c r="AB267" s="63"/>
+      <c r="AC267" s="63"/>
       <c r="AD267" s="24"/>
       <c r="AE267" s="24"/>
       <c r="AF267" s="24"/>
@@ -44637,8 +44697,8 @@
       <c r="Y268" s="24"/>
       <c r="Z268" s="24"/>
       <c r="AA268" s="24"/>
-      <c r="AB268" s="62"/>
-      <c r="AC268" s="62"/>
+      <c r="AB268" s="63"/>
+      <c r="AC268" s="63"/>
       <c r="AD268" s="24"/>
       <c r="AE268" s="24"/>
       <c r="AF268" s="24"/>
@@ -44726,8 +44786,8 @@
       <c r="Y269" s="24"/>
       <c r="Z269" s="24"/>
       <c r="AA269" s="24"/>
-      <c r="AB269" s="62"/>
-      <c r="AC269" s="62"/>
+      <c r="AB269" s="63"/>
+      <c r="AC269" s="63"/>
       <c r="AD269" s="24"/>
       <c r="AE269" s="24"/>
       <c r="AF269" s="24"/>
@@ -44815,8 +44875,8 @@
       <c r="Y270" s="24"/>
       <c r="Z270" s="24"/>
       <c r="AA270" s="24"/>
-      <c r="AB270" s="62"/>
-      <c r="AC270" s="62"/>
+      <c r="AB270" s="63"/>
+      <c r="AC270" s="63"/>
       <c r="AD270" s="24"/>
       <c r="AE270" s="24"/>
       <c r="AF270" s="24"/>
@@ -44904,8 +44964,8 @@
       <c r="Y271" s="24"/>
       <c r="Z271" s="24"/>
       <c r="AA271" s="24"/>
-      <c r="AB271" s="62"/>
-      <c r="AC271" s="62"/>
+      <c r="AB271" s="63"/>
+      <c r="AC271" s="63"/>
       <c r="AD271" s="24"/>
       <c r="AE271" s="24"/>
       <c r="AF271" s="24"/>
@@ -44993,8 +45053,8 @@
       <c r="Y272" s="24"/>
       <c r="Z272" s="24"/>
       <c r="AA272" s="24"/>
-      <c r="AB272" s="62"/>
-      <c r="AC272" s="62"/>
+      <c r="AB272" s="63"/>
+      <c r="AC272" s="63"/>
       <c r="AD272" s="24"/>
       <c r="AE272" s="24"/>
       <c r="AF272" s="24"/>
@@ -45082,8 +45142,8 @@
       <c r="Y273" s="24"/>
       <c r="Z273" s="24"/>
       <c r="AA273" s="24"/>
-      <c r="AB273" s="62"/>
-      <c r="AC273" s="62"/>
+      <c r="AB273" s="63"/>
+      <c r="AC273" s="63"/>
       <c r="AD273" s="24"/>
       <c r="AE273" s="24"/>
       <c r="AF273" s="24"/>
@@ -45171,8 +45231,8 @@
       <c r="Y274" s="24"/>
       <c r="Z274" s="24"/>
       <c r="AA274" s="24"/>
-      <c r="AB274" s="62"/>
-      <c r="AC274" s="62"/>
+      <c r="AB274" s="63"/>
+      <c r="AC274" s="63"/>
       <c r="AD274" s="24"/>
       <c r="AE274" s="24"/>
       <c r="AF274" s="24"/>
@@ -45260,8 +45320,8 @@
       <c r="Y275" s="24"/>
       <c r="Z275" s="24"/>
       <c r="AA275" s="24"/>
-      <c r="AB275" s="62"/>
-      <c r="AC275" s="62"/>
+      <c r="AB275" s="63"/>
+      <c r="AC275" s="63"/>
       <c r="AD275" s="24"/>
       <c r="AE275" s="24"/>
       <c r="AF275" s="24"/>
@@ -45327,10 +45387,10 @@
       <c r="G276" s="24" t="s">
         <v>1466</v>
       </c>
-      <c r="H276" s="62"/>
-      <c r="I276" s="62"/>
-      <c r="J276" s="62"/>
-      <c r="K276" s="62"/>
+      <c r="H276" s="63"/>
+      <c r="I276" s="63"/>
+      <c r="J276" s="63"/>
+      <c r="K276" s="63"/>
       <c r="L276" s="24"/>
       <c r="M276" s="24" t="s">
         <v>241</v>
@@ -45353,8 +45413,8 @@
       <c r="Y276" s="24"/>
       <c r="Z276" s="24"/>
       <c r="AA276" s="24"/>
-      <c r="AB276" s="62"/>
-      <c r="AC276" s="62"/>
+      <c r="AB276" s="63"/>
+      <c r="AC276" s="63"/>
       <c r="AD276" s="24"/>
       <c r="AE276" s="24"/>
       <c r="AF276" s="24"/>
@@ -45420,10 +45480,10 @@
       <c r="G277" s="24" t="s">
         <v>1470</v>
       </c>
-      <c r="H277" s="62"/>
-      <c r="I277" s="62"/>
-      <c r="J277" s="62"/>
-      <c r="K277" s="62"/>
+      <c r="H277" s="63"/>
+      <c r="I277" s="63"/>
+      <c r="J277" s="63"/>
+      <c r="K277" s="63"/>
       <c r="L277" s="24"/>
       <c r="M277" s="24" t="s">
         <v>241</v>
@@ -45446,8 +45506,8 @@
       <c r="Y277" s="24"/>
       <c r="Z277" s="24"/>
       <c r="AA277" s="24"/>
-      <c r="AB277" s="62"/>
-      <c r="AC277" s="62"/>
+      <c r="AB277" s="63"/>
+      <c r="AC277" s="63"/>
       <c r="AD277" s="24"/>
       <c r="AE277" s="24"/>
       <c r="AF277" s="24"/>
@@ -45513,10 +45573,10 @@
       <c r="G278" s="24" t="s">
         <v>1473</v>
       </c>
-      <c r="H278" s="62"/>
-      <c r="I278" s="62"/>
-      <c r="J278" s="62"/>
-      <c r="K278" s="62"/>
+      <c r="H278" s="63"/>
+      <c r="I278" s="63"/>
+      <c r="J278" s="63"/>
+      <c r="K278" s="63"/>
       <c r="L278" s="24"/>
       <c r="M278" s="24" t="s">
         <v>241</v>
@@ -45537,8 +45597,8 @@
       <c r="Y278" s="24"/>
       <c r="Z278" s="33"/>
       <c r="AA278" s="33"/>
-      <c r="AB278" s="62"/>
-      <c r="AC278" s="62"/>
+      <c r="AB278" s="63"/>
+      <c r="AC278" s="63"/>
       <c r="AD278" s="24"/>
       <c r="AE278" s="24"/>
       <c r="AF278" s="24"/>
@@ -45601,10 +45661,10 @@
       <c r="H279" s="26">
         <v>1</v>
       </c>
-      <c r="I279" s="62"/>
-      <c r="J279" s="62"/>
-      <c r="K279" s="62"/>
-      <c r="L279" s="62"/>
+      <c r="I279" s="63"/>
+      <c r="J279" s="63"/>
+      <c r="K279" s="63"/>
+      <c r="L279" s="63"/>
       <c r="M279" s="24" t="s">
         <v>356</v>
       </c>
@@ -45622,8 +45682,8 @@
       <c r="Y279" s="24"/>
       <c r="Z279" s="24"/>
       <c r="AA279" s="24"/>
-      <c r="AB279" s="62"/>
-      <c r="AC279" s="62"/>
+      <c r="AB279" s="63"/>
+      <c r="AC279" s="63"/>
       <c r="AD279" s="24"/>
       <c r="AE279" s="24"/>
       <c r="AF279" s="24"/>
@@ -45703,12 +45763,12 @@
       <c r="G280" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="H280" s="62"/>
-      <c r="I280" s="62"/>
-      <c r="J280" s="62"/>
-      <c r="K280" s="62"/>
-      <c r="L280" s="62"/>
-      <c r="M280" s="62"/>
+      <c r="H280" s="63"/>
+      <c r="I280" s="63"/>
+      <c r="J280" s="63"/>
+      <c r="K280" s="63"/>
+      <c r="L280" s="63"/>
+      <c r="M280" s="63"/>
       <c r="N280" s="24"/>
       <c r="O280" s="24" t="s">
         <v>1479</v>
@@ -45725,8 +45785,8 @@
       <c r="Y280" s="24"/>
       <c r="Z280" s="24"/>
       <c r="AA280" s="24"/>
-      <c r="AB280" s="62"/>
-      <c r="AC280" s="62"/>
+      <c r="AB280" s="63"/>
+      <c r="AC280" s="63"/>
       <c r="AD280" s="24"/>
       <c r="AE280" s="24"/>
       <c r="AF280" s="24"/>
@@ -45792,10 +45852,10 @@
       <c r="G281" s="24" t="s">
         <v>1481</v>
       </c>
-      <c r="H281" s="62"/>
-      <c r="I281" s="62"/>
-      <c r="J281" s="62"/>
-      <c r="K281" s="62"/>
+      <c r="H281" s="63"/>
+      <c r="I281" s="63"/>
+      <c r="J281" s="63"/>
+      <c r="K281" s="63"/>
       <c r="L281" s="24"/>
       <c r="M281" s="24" t="s">
         <v>241</v>
@@ -45818,8 +45878,8 @@
       <c r="Y281" s="24"/>
       <c r="Z281" s="24"/>
       <c r="AA281" s="24"/>
-      <c r="AB281" s="62"/>
-      <c r="AC281" s="62"/>
+      <c r="AB281" s="63"/>
+      <c r="AC281" s="63"/>
       <c r="AD281" s="24"/>
       <c r="AE281" s="24"/>
       <c r="AF281" s="24"/>
@@ -45885,10 +45945,10 @@
       <c r="G282" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="H282" s="62"/>
-      <c r="I282" s="62"/>
-      <c r="J282" s="62"/>
-      <c r="K282" s="62"/>
+      <c r="H282" s="63"/>
+      <c r="I282" s="63"/>
+      <c r="J282" s="63"/>
+      <c r="K282" s="63"/>
       <c r="L282" s="24"/>
       <c r="M282" s="24" t="s">
         <v>1484</v>
@@ -45911,8 +45971,8 @@
       <c r="Y282" s="24"/>
       <c r="Z282" s="24"/>
       <c r="AA282" s="24"/>
-      <c r="AB282" s="62"/>
-      <c r="AC282" s="62"/>
+      <c r="AB282" s="63"/>
+      <c r="AC282" s="63"/>
       <c r="AD282" s="24"/>
       <c r="AE282" s="24"/>
       <c r="AF282" s="24"/>
@@ -45974,12 +46034,12 @@
       </c>
       <c r="F283" s="24"/>
       <c r="G283" s="24"/>
-      <c r="H283" s="62"/>
-      <c r="I283" s="62"/>
-      <c r="J283" s="62"/>
-      <c r="K283" s="62"/>
-      <c r="L283" s="62"/>
-      <c r="M283" s="62"/>
+      <c r="H283" s="63"/>
+      <c r="I283" s="63"/>
+      <c r="J283" s="63"/>
+      <c r="K283" s="63"/>
+      <c r="L283" s="63"/>
+      <c r="M283" s="63"/>
       <c r="N283" s="24"/>
       <c r="O283" s="24"/>
       <c r="P283" s="24"/>
@@ -45994,8 +46054,8 @@
       <c r="Y283" s="24"/>
       <c r="Z283" s="24"/>
       <c r="AA283" s="24"/>
-      <c r="AB283" s="62"/>
-      <c r="AC283" s="62"/>
+      <c r="AB283" s="63"/>
+      <c r="AC283" s="63"/>
       <c r="AD283" s="24"/>
       <c r="AE283" s="24"/>
       <c r="AF283" s="24"/>
@@ -46081,12 +46141,12 @@
       <c r="G284" s="24" t="s">
         <v>1489</v>
       </c>
-      <c r="H284" s="62"/>
-      <c r="I284" s="62"/>
-      <c r="J284" s="62"/>
-      <c r="K284" s="62"/>
-      <c r="L284" s="62"/>
-      <c r="M284" s="62"/>
+      <c r="H284" s="63"/>
+      <c r="I284" s="63"/>
+      <c r="J284" s="63"/>
+      <c r="K284" s="63"/>
+      <c r="L284" s="63"/>
+      <c r="M284" s="63"/>
       <c r="N284" s="24"/>
       <c r="O284" s="24"/>
       <c r="P284" s="24"/>
@@ -46106,10 +46166,10 @@
       </c>
       <c r="AA284" s="24"/>
       <c r="AB284" s="24"/>
-      <c r="AC284" s="62" t="s">
+      <c r="AC284" s="63" t="s">
         <v>338</v>
       </c>
-      <c r="AD284" s="62"/>
+      <c r="AD284" s="63"/>
       <c r="AE284" s="24"/>
       <c r="AF284" s="24"/>
       <c r="AG284" s="24"/>
@@ -46168,226 +46228,349 @@
     </row>
   </sheetData>
   <mergeCells count="579">
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="AC284:AD284"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="AB282:AC282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="AB283:AC283"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="AB280:AC280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="AB281:AC281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="AB278:AC278"/>
-    <mergeCell ref="I279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="AB279:AC279"/>
-    <mergeCell ref="AB275:AC275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="AB276:AC276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="AB277:AC277"/>
-    <mergeCell ref="AB269:AC269"/>
-    <mergeCell ref="AB270:AC270"/>
-    <mergeCell ref="AB271:AC271"/>
-    <mergeCell ref="AB272:AC272"/>
-    <mergeCell ref="AB273:AC273"/>
-    <mergeCell ref="AB274:AC274"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="L266:M266"/>
-    <mergeCell ref="AB266:AC266"/>
-    <mergeCell ref="AB267:AC267"/>
-    <mergeCell ref="AB268:AC268"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="AB264:AC264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="AB265:AC265"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="AB262:AC262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="AB263:AC263"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="AB260:AC260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="L261:M261"/>
-    <mergeCell ref="AB261:AC261"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="AB259:AC259"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="AB256:AC256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="AB257:AC257"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="AB254:AC254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="AB255:AC255"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="AB252:AC252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="AB253:AC253"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="AB250:AC250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="AB251:AC251"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="AB248:AC248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="AB249:AC249"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="AB246:AC246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="AB247:AC247"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="AB244:AC244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="AB245:AC245"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="AB242:AC242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="AB243:AC243"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="AB240:AC240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="AB241:AC241"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="AB238:AC238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="AB239:AC239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="AB236:AC236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="AB237:AC237"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="AB234:AC234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="AB235:AC235"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="AB232:AC232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="AB233:AC233"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="AB230:AC230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="AB231:AC231"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="AB228:AC228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="AB229:AC229"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="AB226:AC226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="AB227:AC227"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="AB224:AC224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="AB225:AC225"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="AB222:AC222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="AB223:AC223"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="AB220:AC220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="AB221:AC221"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="AB218:AC218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="AB219:AC219"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="AB216:AC216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="AB217:AC217"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="AB214:AC214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="AB215:AC215"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="AB212:AC212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AC64:AD64"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="AB97:AC97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="AB98:AC98"/>
+    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="AB108:AC108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="AB109:AC109"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="AC111:AD111"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="AB107:AC107"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="AB119:AC119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="AB124:AC124"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AC128:AD128"/>
+    <mergeCell ref="AB129:AC129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="AB130:AC130"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="AB125:AC125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="AB126:AC126"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="AB141:AC141"/>
+    <mergeCell ref="AB131:AC131"/>
+    <mergeCell ref="AB132:AC132"/>
+    <mergeCell ref="AB133:AC133"/>
+    <mergeCell ref="AB134:AC134"/>
+    <mergeCell ref="AB135:AC135"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AB142:AC142"/>
+    <mergeCell ref="AB143:AC143"/>
+    <mergeCell ref="AB144:AC144"/>
+    <mergeCell ref="AB145:AC145"/>
+    <mergeCell ref="AB146:AC146"/>
+    <mergeCell ref="AB147:AC147"/>
+    <mergeCell ref="AB137:AC137"/>
+    <mergeCell ref="AB138:AC138"/>
+    <mergeCell ref="AB139:AC139"/>
+    <mergeCell ref="AB140:AC140"/>
+    <mergeCell ref="AB154:AC154"/>
+    <mergeCell ref="AB155:AC155"/>
+    <mergeCell ref="AB156:AC156"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AB159:AC159"/>
+    <mergeCell ref="AB148:AC148"/>
+    <mergeCell ref="AB149:AC149"/>
+    <mergeCell ref="AB150:AC150"/>
+    <mergeCell ref="AB151:AC151"/>
+    <mergeCell ref="AB152:AC152"/>
+    <mergeCell ref="AB153:AC153"/>
+    <mergeCell ref="AB166:AC166"/>
+    <mergeCell ref="AB167:AC167"/>
+    <mergeCell ref="AB168:AC168"/>
+    <mergeCell ref="AB169:AC169"/>
+    <mergeCell ref="AB170:AC170"/>
+    <mergeCell ref="AB171:AC171"/>
+    <mergeCell ref="AB160:AC160"/>
+    <mergeCell ref="AB161:AC161"/>
+    <mergeCell ref="AB162:AC162"/>
+    <mergeCell ref="AB163:AC163"/>
+    <mergeCell ref="AB164:AC164"/>
+    <mergeCell ref="AB165:AC165"/>
+    <mergeCell ref="AB178:AC178"/>
+    <mergeCell ref="AB179:AC179"/>
+    <mergeCell ref="AB180:AC180"/>
+    <mergeCell ref="AB181:AC181"/>
+    <mergeCell ref="AB182:AC182"/>
+    <mergeCell ref="AB183:AC183"/>
+    <mergeCell ref="AB172:AC172"/>
+    <mergeCell ref="AB173:AC173"/>
+    <mergeCell ref="AB174:AC174"/>
+    <mergeCell ref="AB175:AC175"/>
+    <mergeCell ref="AB176:AC176"/>
+    <mergeCell ref="AB177:AC177"/>
+    <mergeCell ref="AB186:AC186"/>
+    <mergeCell ref="AB187:AC187"/>
+    <mergeCell ref="AB188:AC188"/>
+    <mergeCell ref="AB189:AC189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="AB190:AC190"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="AB184:AC184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="AB185:AC185"/>
+    <mergeCell ref="AB197:AC197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="AB198:AC198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="AB199:AC199"/>
+    <mergeCell ref="AB191:AC191"/>
+    <mergeCell ref="AB192:AC192"/>
+    <mergeCell ref="AB193:AC193"/>
+    <mergeCell ref="AB194:AC194"/>
+    <mergeCell ref="AB195:AC195"/>
+    <mergeCell ref="AB196:AC196"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="AB202:AC202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="AB203:AC203"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="AB200:AC200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="AB201:AC201"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="AB206:AC206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="AB207:AC207"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="AB204:AC204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="AB205:AC205"/>
     <mergeCell ref="H210:I210"/>
     <mergeCell ref="J210:K210"/>
     <mergeCell ref="L210:M210"/>
@@ -46404,349 +46587,226 @@
     <mergeCell ref="J209:K209"/>
     <mergeCell ref="L209:M209"/>
     <mergeCell ref="AB209:AC209"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="AB206:AC206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="AB207:AC207"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="AB204:AC204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="AB205:AC205"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="AB202:AC202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="AB203:AC203"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="AB200:AC200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="AB201:AC201"/>
-    <mergeCell ref="AB197:AC197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="AB198:AC198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="AB199:AC199"/>
-    <mergeCell ref="AB191:AC191"/>
-    <mergeCell ref="AB192:AC192"/>
-    <mergeCell ref="AB193:AC193"/>
-    <mergeCell ref="AB194:AC194"/>
-    <mergeCell ref="AB195:AC195"/>
-    <mergeCell ref="AB196:AC196"/>
-    <mergeCell ref="AB186:AC186"/>
-    <mergeCell ref="AB187:AC187"/>
-    <mergeCell ref="AB188:AC188"/>
-    <mergeCell ref="AB189:AC189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="AB190:AC190"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="AB184:AC184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="AB185:AC185"/>
-    <mergeCell ref="AB178:AC178"/>
-    <mergeCell ref="AB179:AC179"/>
-    <mergeCell ref="AB180:AC180"/>
-    <mergeCell ref="AB181:AC181"/>
-    <mergeCell ref="AB182:AC182"/>
-    <mergeCell ref="AB183:AC183"/>
-    <mergeCell ref="AB172:AC172"/>
-    <mergeCell ref="AB173:AC173"/>
-    <mergeCell ref="AB174:AC174"/>
-    <mergeCell ref="AB175:AC175"/>
-    <mergeCell ref="AB176:AC176"/>
-    <mergeCell ref="AB177:AC177"/>
-    <mergeCell ref="AB166:AC166"/>
-    <mergeCell ref="AB167:AC167"/>
-    <mergeCell ref="AB168:AC168"/>
-    <mergeCell ref="AB169:AC169"/>
-    <mergeCell ref="AB170:AC170"/>
-    <mergeCell ref="AB171:AC171"/>
-    <mergeCell ref="AB160:AC160"/>
-    <mergeCell ref="AB161:AC161"/>
-    <mergeCell ref="AB162:AC162"/>
-    <mergeCell ref="AB163:AC163"/>
-    <mergeCell ref="AB164:AC164"/>
-    <mergeCell ref="AB165:AC165"/>
-    <mergeCell ref="AB154:AC154"/>
-    <mergeCell ref="AB155:AC155"/>
-    <mergeCell ref="AB156:AC156"/>
-    <mergeCell ref="AB157:AC157"/>
-    <mergeCell ref="AB158:AC158"/>
-    <mergeCell ref="AB159:AC159"/>
-    <mergeCell ref="AB148:AC148"/>
-    <mergeCell ref="AB149:AC149"/>
-    <mergeCell ref="AB150:AC150"/>
-    <mergeCell ref="AB151:AC151"/>
-    <mergeCell ref="AB152:AC152"/>
-    <mergeCell ref="AB153:AC153"/>
-    <mergeCell ref="AB142:AC142"/>
-    <mergeCell ref="AB143:AC143"/>
-    <mergeCell ref="AB144:AC144"/>
-    <mergeCell ref="AB145:AC145"/>
-    <mergeCell ref="AB146:AC146"/>
-    <mergeCell ref="AB147:AC147"/>
-    <mergeCell ref="AB137:AC137"/>
-    <mergeCell ref="AB138:AC138"/>
-    <mergeCell ref="AB139:AC139"/>
-    <mergeCell ref="AB140:AC140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="AB141:AC141"/>
-    <mergeCell ref="AB131:AC131"/>
-    <mergeCell ref="AB132:AC132"/>
-    <mergeCell ref="AB133:AC133"/>
-    <mergeCell ref="AB134:AC134"/>
-    <mergeCell ref="AB135:AC135"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AC127:AD127"/>
-    <mergeCell ref="AC128:AD128"/>
-    <mergeCell ref="AB129:AC129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="AB130:AC130"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="AB125:AC125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="AB126:AC126"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="AB124:AC124"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="AB119:AC119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="AC120:AD120"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="AC114:AD114"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AB108:AC108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AB110:AC110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="AC111:AD111"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="AB107:AC107"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="AB97:AC97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="AB98:AC98"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AC64:AD64"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="AB214:AC214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="L215:M215"/>
+    <mergeCell ref="AB215:AC215"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="AB212:AC212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="AB218:AC218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="AB219:AC219"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="AB216:AC216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="AB217:AC217"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="AB222:AC222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="AB223:AC223"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="AB220:AC220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="AB221:AC221"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="AB226:AC226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="AB227:AC227"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="AB224:AC224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="AB225:AC225"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="AB230:AC230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="AB231:AC231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="AB228:AC228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="AB229:AC229"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="AB234:AC234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="AB235:AC235"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="AB232:AC232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="AB233:AC233"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="AB238:AC238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="AB239:AC239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="AB236:AC236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="AB237:AC237"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="AB242:AC242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="AB243:AC243"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="AB240:AC240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="AB241:AC241"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="AB246:AC246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="AB247:AC247"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="AB244:AC244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="AB245:AC245"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="AB250:AC250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="AB251:AC251"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="AB248:AC248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="AB249:AC249"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="AB254:AC254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="AB255:AC255"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="AB252:AC252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="AB253:AC253"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="AB259:AC259"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="AB256:AC256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="AB257:AC257"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="AB262:AC262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="AB263:AC263"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="AB260:AC260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="L261:M261"/>
+    <mergeCell ref="AB261:AC261"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="L266:M266"/>
+    <mergeCell ref="AB266:AC266"/>
+    <mergeCell ref="AB267:AC267"/>
+    <mergeCell ref="AB268:AC268"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="AB264:AC264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="AB265:AC265"/>
+    <mergeCell ref="AB275:AC275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="AB276:AC276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="AB277:AC277"/>
+    <mergeCell ref="AB269:AC269"/>
+    <mergeCell ref="AB270:AC270"/>
+    <mergeCell ref="AB271:AC271"/>
+    <mergeCell ref="AB272:AC272"/>
+    <mergeCell ref="AB273:AC273"/>
+    <mergeCell ref="AB274:AC274"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="AB280:AC280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="AB281:AC281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="AB278:AC278"/>
+    <mergeCell ref="I279:J279"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="AB279:AC279"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="AC284:AD284"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="AB282:AC282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="AB283:AC283"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF20" r:id="rId1" display="mailto:auxconta@rosarito.com" xr:uid="{C50E4940-3978-49B5-9079-4AEFDEC07E45}"/>
@@ -46769,6 +46829,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/ACTIVOS EROSA 29 Abr 25.xlsx
+++ b/ACTIVOS EROSA 29 Abr 25.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A9768-D1C0-4521-9ED9-FED14FE9D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD051455-F616-4DF9-8B74-9D1A38F7E004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="1659">
   <si>
     <t>Número</t>
   </si>
@@ -4987,6 +4987,30 @@
   </si>
   <si>
     <t xml:space="preserve">LO QUE NO ENCAJA </t>
+  </si>
+  <si>
+    <t>INCIDENTES / SEGURIDAD</t>
+  </si>
+  <si>
+    <t>CONECTIVIDAD</t>
+  </si>
+  <si>
+    <t>DIAGNÓSTICO</t>
+  </si>
+  <si>
+    <t>DESBLOQUEO / RECUPERACIÓN</t>
+  </si>
+  <si>
+    <t>CONFIGURACIÓN</t>
+  </si>
+  <si>
+    <t>SUSTITUCION</t>
+  </si>
+  <si>
+    <t>ACTUALIZACION</t>
+  </si>
+  <si>
+    <t>INSTALACION</t>
   </si>
 </sst>
 </file>
@@ -5393,10 +5417,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5709,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -16020,7 +16044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD89E0-7FE6-40A2-A0AA-824D24B7DECF}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -16742,7 +16766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1791FD3E-BDCD-4312-AD10-6747C413B8A6}">
   <dimension ref="A1:BS284"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
@@ -27702,10 +27726,10 @@
       <c r="G93" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32" t="s">
         <v>480</v>
@@ -30566,8 +30590,8 @@
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="64"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
@@ -31244,7 +31268,7 @@
       </c>
       <c r="BS122" s="24"/>
     </row>
-    <row r="123" spans="1:71" ht="30.05" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A123" s="24" t="s">
         <v>325</v>
       </c>
@@ -39164,8 +39188,8 @@
       <c r="G207" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="H207" s="64"/>
-      <c r="I207" s="64"/>
+      <c r="H207" s="65"/>
+      <c r="I207" s="65"/>
       <c r="J207" s="63"/>
       <c r="K207" s="63"/>
       <c r="L207" s="63"/>
@@ -39255,8 +39279,8 @@
       <c r="I208" s="63"/>
       <c r="J208" s="63"/>
       <c r="K208" s="63"/>
-      <c r="L208" s="64"/>
-      <c r="M208" s="64"/>
+      <c r="L208" s="65"/>
+      <c r="M208" s="65"/>
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
       <c r="P208" s="24"/>
@@ -46228,108 +46252,467 @@
     </row>
   </sheetData>
   <mergeCells count="579">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="AC284:AD284"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="AB282:AC282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="AB283:AC283"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="AB280:AC280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="AB281:AC281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="AB278:AC278"/>
+    <mergeCell ref="I279:J279"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="AB279:AC279"/>
+    <mergeCell ref="AB275:AC275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="AB276:AC276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="AB277:AC277"/>
+    <mergeCell ref="AB269:AC269"/>
+    <mergeCell ref="AB270:AC270"/>
+    <mergeCell ref="AB271:AC271"/>
+    <mergeCell ref="AB272:AC272"/>
+    <mergeCell ref="AB273:AC273"/>
+    <mergeCell ref="AB274:AC274"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="L266:M266"/>
+    <mergeCell ref="AB266:AC266"/>
+    <mergeCell ref="AB267:AC267"/>
+    <mergeCell ref="AB268:AC268"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="AB264:AC264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="AB265:AC265"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="AB262:AC262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="AB263:AC263"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="AB260:AC260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="L261:M261"/>
+    <mergeCell ref="AB261:AC261"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="AB259:AC259"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="AB256:AC256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="AB257:AC257"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="AB254:AC254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="AB255:AC255"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="AB252:AC252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="AB253:AC253"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="AB250:AC250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="AB251:AC251"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="AB248:AC248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="AB249:AC249"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="AB246:AC246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="AB247:AC247"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="AB244:AC244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="AB245:AC245"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="AB242:AC242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="AB243:AC243"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="AB240:AC240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="AB241:AC241"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="AB238:AC238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="AB239:AC239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="AB236:AC236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="AB237:AC237"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="AB234:AC234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="AB235:AC235"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="AB232:AC232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="AB233:AC233"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="AB230:AC230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="AB231:AC231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="AB228:AC228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="AB229:AC229"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="AB226:AC226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="AB227:AC227"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="AB224:AC224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="AB225:AC225"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="AB222:AC222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="AB223:AC223"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="AB220:AC220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="AB221:AC221"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="AB218:AC218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="AB219:AC219"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="AB216:AC216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="AB217:AC217"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="AB214:AC214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="L215:M215"/>
+    <mergeCell ref="AB215:AC215"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="AB212:AC212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="L210:M210"/>
+    <mergeCell ref="AB210:AC210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="L211:M211"/>
+    <mergeCell ref="AB211:AC211"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="AB208:AC208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="L209:M209"/>
+    <mergeCell ref="AB209:AC209"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="AB206:AC206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="AB207:AC207"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="AB204:AC204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="AB205:AC205"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="AB202:AC202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="AB203:AC203"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="AB200:AC200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="AB201:AC201"/>
+    <mergeCell ref="AB197:AC197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="AB198:AC198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="AB199:AC199"/>
+    <mergeCell ref="AB191:AC191"/>
+    <mergeCell ref="AB192:AC192"/>
+    <mergeCell ref="AB193:AC193"/>
+    <mergeCell ref="AB194:AC194"/>
+    <mergeCell ref="AB195:AC195"/>
+    <mergeCell ref="AB196:AC196"/>
+    <mergeCell ref="AB186:AC186"/>
+    <mergeCell ref="AB187:AC187"/>
+    <mergeCell ref="AB188:AC188"/>
+    <mergeCell ref="AB189:AC189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="AB190:AC190"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="AB184:AC184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="AB185:AC185"/>
+    <mergeCell ref="AB178:AC178"/>
+    <mergeCell ref="AB179:AC179"/>
+    <mergeCell ref="AB180:AC180"/>
+    <mergeCell ref="AB181:AC181"/>
+    <mergeCell ref="AB182:AC182"/>
+    <mergeCell ref="AB183:AC183"/>
+    <mergeCell ref="AB172:AC172"/>
+    <mergeCell ref="AB173:AC173"/>
+    <mergeCell ref="AB174:AC174"/>
+    <mergeCell ref="AB175:AC175"/>
+    <mergeCell ref="AB176:AC176"/>
+    <mergeCell ref="AB177:AC177"/>
+    <mergeCell ref="AB166:AC166"/>
+    <mergeCell ref="AB167:AC167"/>
+    <mergeCell ref="AB168:AC168"/>
+    <mergeCell ref="AB169:AC169"/>
+    <mergeCell ref="AB170:AC170"/>
+    <mergeCell ref="AB171:AC171"/>
+    <mergeCell ref="AB160:AC160"/>
+    <mergeCell ref="AB161:AC161"/>
+    <mergeCell ref="AB162:AC162"/>
+    <mergeCell ref="AB163:AC163"/>
+    <mergeCell ref="AB164:AC164"/>
+    <mergeCell ref="AB165:AC165"/>
+    <mergeCell ref="AB154:AC154"/>
+    <mergeCell ref="AB155:AC155"/>
+    <mergeCell ref="AB156:AC156"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AB159:AC159"/>
+    <mergeCell ref="AB148:AC148"/>
+    <mergeCell ref="AB149:AC149"/>
+    <mergeCell ref="AB150:AC150"/>
+    <mergeCell ref="AB151:AC151"/>
+    <mergeCell ref="AB152:AC152"/>
+    <mergeCell ref="AB153:AC153"/>
+    <mergeCell ref="AB142:AC142"/>
+    <mergeCell ref="AB143:AC143"/>
+    <mergeCell ref="AB144:AC144"/>
+    <mergeCell ref="AB145:AC145"/>
+    <mergeCell ref="AB146:AC146"/>
+    <mergeCell ref="AB147:AC147"/>
+    <mergeCell ref="AB137:AC137"/>
+    <mergeCell ref="AB138:AC138"/>
+    <mergeCell ref="AB139:AC139"/>
+    <mergeCell ref="AB140:AC140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="AB141:AC141"/>
+    <mergeCell ref="AB131:AC131"/>
+    <mergeCell ref="AB132:AC132"/>
+    <mergeCell ref="AB133:AC133"/>
+    <mergeCell ref="AB134:AC134"/>
+    <mergeCell ref="AB135:AC135"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AC128:AD128"/>
+    <mergeCell ref="AB129:AC129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="AB130:AC130"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="AB125:AC125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="AB126:AC126"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="AB124:AC124"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="AB119:AC119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AB108:AC108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="AB109:AC109"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="AC111:AD111"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="AB107:AC107"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="AB97:AC97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="AB98:AC98"/>
+    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AC64:AD64"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="AB66:AC66"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="AC56:AD56"/>
@@ -46346,467 +46729,108 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AC64:AD64"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="AB97:AC97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="AB98:AC98"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="AB108:AC108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AB110:AC110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="AC111:AD111"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="AB107:AC107"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="AB119:AC119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="AC120:AD120"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="AC114:AD114"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="AB124:AC124"/>
-    <mergeCell ref="AC127:AD127"/>
-    <mergeCell ref="AC128:AD128"/>
-    <mergeCell ref="AB129:AC129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="AB130:AC130"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="AB125:AC125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="AB126:AC126"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="AB141:AC141"/>
-    <mergeCell ref="AB131:AC131"/>
-    <mergeCell ref="AB132:AC132"/>
-    <mergeCell ref="AB133:AC133"/>
-    <mergeCell ref="AB134:AC134"/>
-    <mergeCell ref="AB135:AC135"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AB142:AC142"/>
-    <mergeCell ref="AB143:AC143"/>
-    <mergeCell ref="AB144:AC144"/>
-    <mergeCell ref="AB145:AC145"/>
-    <mergeCell ref="AB146:AC146"/>
-    <mergeCell ref="AB147:AC147"/>
-    <mergeCell ref="AB137:AC137"/>
-    <mergeCell ref="AB138:AC138"/>
-    <mergeCell ref="AB139:AC139"/>
-    <mergeCell ref="AB140:AC140"/>
-    <mergeCell ref="AB154:AC154"/>
-    <mergeCell ref="AB155:AC155"/>
-    <mergeCell ref="AB156:AC156"/>
-    <mergeCell ref="AB157:AC157"/>
-    <mergeCell ref="AB158:AC158"/>
-    <mergeCell ref="AB159:AC159"/>
-    <mergeCell ref="AB148:AC148"/>
-    <mergeCell ref="AB149:AC149"/>
-    <mergeCell ref="AB150:AC150"/>
-    <mergeCell ref="AB151:AC151"/>
-    <mergeCell ref="AB152:AC152"/>
-    <mergeCell ref="AB153:AC153"/>
-    <mergeCell ref="AB166:AC166"/>
-    <mergeCell ref="AB167:AC167"/>
-    <mergeCell ref="AB168:AC168"/>
-    <mergeCell ref="AB169:AC169"/>
-    <mergeCell ref="AB170:AC170"/>
-    <mergeCell ref="AB171:AC171"/>
-    <mergeCell ref="AB160:AC160"/>
-    <mergeCell ref="AB161:AC161"/>
-    <mergeCell ref="AB162:AC162"/>
-    <mergeCell ref="AB163:AC163"/>
-    <mergeCell ref="AB164:AC164"/>
-    <mergeCell ref="AB165:AC165"/>
-    <mergeCell ref="AB178:AC178"/>
-    <mergeCell ref="AB179:AC179"/>
-    <mergeCell ref="AB180:AC180"/>
-    <mergeCell ref="AB181:AC181"/>
-    <mergeCell ref="AB182:AC182"/>
-    <mergeCell ref="AB183:AC183"/>
-    <mergeCell ref="AB172:AC172"/>
-    <mergeCell ref="AB173:AC173"/>
-    <mergeCell ref="AB174:AC174"/>
-    <mergeCell ref="AB175:AC175"/>
-    <mergeCell ref="AB176:AC176"/>
-    <mergeCell ref="AB177:AC177"/>
-    <mergeCell ref="AB186:AC186"/>
-    <mergeCell ref="AB187:AC187"/>
-    <mergeCell ref="AB188:AC188"/>
-    <mergeCell ref="AB189:AC189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="AB190:AC190"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="AB184:AC184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="AB185:AC185"/>
-    <mergeCell ref="AB197:AC197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="AB198:AC198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="AB199:AC199"/>
-    <mergeCell ref="AB191:AC191"/>
-    <mergeCell ref="AB192:AC192"/>
-    <mergeCell ref="AB193:AC193"/>
-    <mergeCell ref="AB194:AC194"/>
-    <mergeCell ref="AB195:AC195"/>
-    <mergeCell ref="AB196:AC196"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="AB202:AC202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="AB203:AC203"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="AB200:AC200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="AB201:AC201"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="AB206:AC206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="AB207:AC207"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="AB204:AC204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="AB205:AC205"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="L210:M210"/>
-    <mergeCell ref="AB210:AC210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="L211:M211"/>
-    <mergeCell ref="AB211:AC211"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="AB208:AC208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="L209:M209"/>
-    <mergeCell ref="AB209:AC209"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="AB214:AC214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="AB215:AC215"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="AB212:AC212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="AB213:AC213"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="AB218:AC218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="AB219:AC219"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="AB216:AC216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="AB217:AC217"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="AB222:AC222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="AB223:AC223"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="AB220:AC220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="AB221:AC221"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="AB226:AC226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="AB227:AC227"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="AB224:AC224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="AB225:AC225"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="AB230:AC230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="AB231:AC231"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="AB228:AC228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="AB229:AC229"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="AB234:AC234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="AB235:AC235"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="AB232:AC232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="AB233:AC233"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="AB238:AC238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="AB239:AC239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="AB236:AC236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="AB237:AC237"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="AB242:AC242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="AB243:AC243"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="AB240:AC240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="AB241:AC241"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="AB246:AC246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="AB247:AC247"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="AB244:AC244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="AB245:AC245"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="AB250:AC250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="AB251:AC251"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="AB248:AC248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="AB249:AC249"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="AB254:AC254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="AB255:AC255"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="AB252:AC252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="AB253:AC253"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="AB259:AC259"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="AB256:AC256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="AB257:AC257"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="AB262:AC262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="AB263:AC263"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="AB260:AC260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="L261:M261"/>
-    <mergeCell ref="AB261:AC261"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="L266:M266"/>
-    <mergeCell ref="AB266:AC266"/>
-    <mergeCell ref="AB267:AC267"/>
-    <mergeCell ref="AB268:AC268"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="AB264:AC264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="AB265:AC265"/>
-    <mergeCell ref="AB275:AC275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="AB276:AC276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="AB277:AC277"/>
-    <mergeCell ref="AB269:AC269"/>
-    <mergeCell ref="AB270:AC270"/>
-    <mergeCell ref="AB271:AC271"/>
-    <mergeCell ref="AB272:AC272"/>
-    <mergeCell ref="AB273:AC273"/>
-    <mergeCell ref="AB274:AC274"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="AB280:AC280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="AB281:AC281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="AB278:AC278"/>
-    <mergeCell ref="I279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="AB279:AC279"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="AC284:AD284"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="AB282:AC282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="AB283:AC283"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AC8:AD8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF20" r:id="rId1" display="mailto:auxconta@rosarito.com" xr:uid="{C50E4940-3978-49B5-9079-4AEFDEC07E45}"/>
@@ -46820,19 +46844,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34537494-6FE0-4C72-AC4C-765F48A1BB3A}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -46841,7 +46867,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -46849,8 +46875,11 @@
         <f>_xlfn.XLOOKUP(A2,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>ADM</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -46858,8 +46887,15 @@
         <f>_xlfn.XLOOKUP(A3,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"('"&amp;H3&amp;"',1),"</f>
+        <v>('MANTENIMIENTO',1),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -46867,8 +46903,15 @@
         <f>_xlfn.XLOOKUP(A4,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I11" si="0">"('"&amp;H4&amp;"',1),"</f>
+        <v>('ACTUALIZACION',1),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -46876,8 +46919,15 @@
         <f>_xlfn.XLOOKUP(A5,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>('SUSTITUCION',1),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -46885,8 +46935,15 @@
         <f>_xlfn.XLOOKUP(A6,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>CD</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>('CONFIGURACIÓN',1),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -46894,8 +46951,15 @@
         <f>_xlfn.XLOOKUP(A7,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>ADM</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>('DESBLOQUEO / RECUPERACIÓN',1),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -46903,8 +46967,15 @@
         <f>_xlfn.XLOOKUP(A8,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>ADM</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIAGNÓSTICO',1),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -46912,8 +46983,15 @@
         <f>_xlfn.XLOOKUP(A9,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>ADM</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>('CONECTIVIDAD',1),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -46921,8 +46999,15 @@
         <f>_xlfn.XLOOKUP(A10,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>ADM</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>('INCIDENTES / SEGURIDAD',1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -46930,8 +47015,15 @@
         <f>_xlfn.XLOOKUP(A11,Sheet1!$J$2:$J$117,Sheet1!$F$2:$F$117)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>('OTROS',1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -46940,7 +47032,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -46949,7 +47041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>192</v>
       </c>
@@ -46958,7 +47050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -46967,7 +47059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>190</v>
       </c>

--- a/ACTIVOS EROSA 29 Abr 25.xlsx
+++ b/ACTIVOS EROSA 29 Abr 25.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD051455-F616-4DF9-8B74-9D1A38F7E004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E3421B-8AA2-4442-97DD-3D655815D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="1660">
   <si>
     <t>Número</t>
   </si>
@@ -5011,6 +5011,9 @@
   </si>
   <si>
     <t>INSTALACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -5417,10 +5420,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5733,9 +5736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK117"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5908,6 +5911,9 @@
         <f>"("&amp;A2&amp;","""&amp;D2&amp;""","""&amp;M2&amp;""","&amp;G2&amp;","&amp;I2&amp;","&amp;O2&amp;","&amp;K2&amp;"),"</f>
         <v>(5270,"ANGEL ADOLFO ACUÑA MARTINEZ","apt.mexicali@empacadorarosarito.com.mx",1,1,1,1),</v>
       </c>
+      <c r="Q2" s="53" t="s">
+        <v>1659</v>
+      </c>
       <c r="S2">
         <v>1</v>
       </c>
@@ -6030,6 +6036,10 @@
       <c r="P3" s="53" t="str">
         <f t="shared" ref="P3:P66" si="8">"("&amp;A3&amp;","""&amp;D3&amp;""","""&amp;M3&amp;""","&amp;G3&amp;","&amp;I3&amp;","&amp;O3&amp;","&amp;K3&amp;"),"</f>
         <v>(5119,"FRANCISCO RODRIGUEZ SALAZAR","almacenplantasecos@empacadorarosarito.com.mx",2,2,2,2),</v>
+      </c>
+      <c r="Q3" s="53" t="str">
+        <f>TRIM(RIGHT(B2, LEN(B2)-FIND(",",B2)))</f>
+        <v>ANGEL ADOLFO</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -27726,10 +27736,10 @@
       <c r="G93" s="24" t="s">
         <v>946</v>
       </c>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32" t="s">
         <v>480</v>
@@ -30590,8 +30600,8 @@
       <c r="I117" s="26"/>
       <c r="J117" s="26"/>
       <c r="K117" s="26"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="65"/>
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
@@ -39188,8 +39198,8 @@
       <c r="G207" s="24" t="s">
         <v>1288</v>
       </c>
-      <c r="H207" s="65"/>
-      <c r="I207" s="65"/>
+      <c r="H207" s="64"/>
+      <c r="I207" s="64"/>
       <c r="J207" s="63"/>
       <c r="K207" s="63"/>
       <c r="L207" s="63"/>
@@ -39279,8 +39289,8 @@
       <c r="I208" s="63"/>
       <c r="J208" s="63"/>
       <c r="K208" s="63"/>
-      <c r="L208" s="65"/>
-      <c r="M208" s="65"/>
+      <c r="L208" s="64"/>
+      <c r="M208" s="64"/>
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
       <c r="P208" s="24"/>
@@ -46252,226 +46262,349 @@
     </row>
   </sheetData>
   <mergeCells count="579">
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="L284:M284"/>
-    <mergeCell ref="AC284:AD284"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="AB282:AC282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="L283:M283"/>
-    <mergeCell ref="AB283:AC283"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="AB280:AC280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="AB281:AC281"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="AB278:AC278"/>
-    <mergeCell ref="I279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="AB279:AC279"/>
-    <mergeCell ref="AB275:AC275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="AB276:AC276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="AB277:AC277"/>
-    <mergeCell ref="AB269:AC269"/>
-    <mergeCell ref="AB270:AC270"/>
-    <mergeCell ref="AB271:AC271"/>
-    <mergeCell ref="AB272:AC272"/>
-    <mergeCell ref="AB273:AC273"/>
-    <mergeCell ref="AB274:AC274"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="L266:M266"/>
-    <mergeCell ref="AB266:AC266"/>
-    <mergeCell ref="AB267:AC267"/>
-    <mergeCell ref="AB268:AC268"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="AB264:AC264"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="AB265:AC265"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="AB262:AC262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="AB263:AC263"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="AB260:AC260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="L261:M261"/>
-    <mergeCell ref="AB261:AC261"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="AB259:AC259"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="AB256:AC256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="AB257:AC257"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="AB254:AC254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="AB255:AC255"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="AB252:AC252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="AB253:AC253"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="AB250:AC250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="AB251:AC251"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="AB248:AC248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="AB249:AC249"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="AB246:AC246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="AB247:AC247"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="AB244:AC244"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="AB245:AC245"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="AB242:AC242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="AB243:AC243"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="AB240:AC240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="AB241:AC241"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="AB238:AC238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="AB239:AC239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="AB236:AC236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="AB237:AC237"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="AB234:AC234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="AB235:AC235"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="AB232:AC232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="AB233:AC233"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="AB230:AC230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="AB231:AC231"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="AB228:AC228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="AB229:AC229"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="AB226:AC226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="AB227:AC227"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="AB224:AC224"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="AB225:AC225"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="AB222:AC222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="AB223:AC223"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="AB220:AC220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="AB221:AC221"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="AB218:AC218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="AB219:AC219"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="AB216:AC216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="AB217:AC217"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="AB214:AC214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="L215:M215"/>
-    <mergeCell ref="AB215:AC215"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="AB212:AC212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="L213:M213"/>
-    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="AC41:AD41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AC50:AD50"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="AC56:AD56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AC64:AD64"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AC82:AD82"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="AC90:AD90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="AC89:AD89"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="AB97:AC97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="AB98:AC98"/>
+    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="AC103:AD103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="AC100:AD100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="AB108:AC108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="AB109:AC109"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="AC111:AD111"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="AB107:AC107"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="AB119:AC119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="AB124:AC124"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AC128:AD128"/>
+    <mergeCell ref="AB129:AC129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="AB130:AC130"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="AB125:AC125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="AB126:AC126"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="AB141:AC141"/>
+    <mergeCell ref="AB131:AC131"/>
+    <mergeCell ref="AB132:AC132"/>
+    <mergeCell ref="AB133:AC133"/>
+    <mergeCell ref="AB134:AC134"/>
+    <mergeCell ref="AB135:AC135"/>
+    <mergeCell ref="AC136:AD136"/>
+    <mergeCell ref="AB142:AC142"/>
+    <mergeCell ref="AB143:AC143"/>
+    <mergeCell ref="AB144:AC144"/>
+    <mergeCell ref="AB145:AC145"/>
+    <mergeCell ref="AB146:AC146"/>
+    <mergeCell ref="AB147:AC147"/>
+    <mergeCell ref="AB137:AC137"/>
+    <mergeCell ref="AB138:AC138"/>
+    <mergeCell ref="AB139:AC139"/>
+    <mergeCell ref="AB140:AC140"/>
+    <mergeCell ref="AB154:AC154"/>
+    <mergeCell ref="AB155:AC155"/>
+    <mergeCell ref="AB156:AC156"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AB159:AC159"/>
+    <mergeCell ref="AB148:AC148"/>
+    <mergeCell ref="AB149:AC149"/>
+    <mergeCell ref="AB150:AC150"/>
+    <mergeCell ref="AB151:AC151"/>
+    <mergeCell ref="AB152:AC152"/>
+    <mergeCell ref="AB153:AC153"/>
+    <mergeCell ref="AB166:AC166"/>
+    <mergeCell ref="AB167:AC167"/>
+    <mergeCell ref="AB168:AC168"/>
+    <mergeCell ref="AB169:AC169"/>
+    <mergeCell ref="AB170:AC170"/>
+    <mergeCell ref="AB171:AC171"/>
+    <mergeCell ref="AB160:AC160"/>
+    <mergeCell ref="AB161:AC161"/>
+    <mergeCell ref="AB162:AC162"/>
+    <mergeCell ref="AB163:AC163"/>
+    <mergeCell ref="AB164:AC164"/>
+    <mergeCell ref="AB165:AC165"/>
+    <mergeCell ref="AB178:AC178"/>
+    <mergeCell ref="AB179:AC179"/>
+    <mergeCell ref="AB180:AC180"/>
+    <mergeCell ref="AB181:AC181"/>
+    <mergeCell ref="AB182:AC182"/>
+    <mergeCell ref="AB183:AC183"/>
+    <mergeCell ref="AB172:AC172"/>
+    <mergeCell ref="AB173:AC173"/>
+    <mergeCell ref="AB174:AC174"/>
+    <mergeCell ref="AB175:AC175"/>
+    <mergeCell ref="AB176:AC176"/>
+    <mergeCell ref="AB177:AC177"/>
+    <mergeCell ref="AB186:AC186"/>
+    <mergeCell ref="AB187:AC187"/>
+    <mergeCell ref="AB188:AC188"/>
+    <mergeCell ref="AB189:AC189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="AB190:AC190"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="AB184:AC184"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="AB185:AC185"/>
+    <mergeCell ref="AB197:AC197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="AB198:AC198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="AB199:AC199"/>
+    <mergeCell ref="AB191:AC191"/>
+    <mergeCell ref="AB192:AC192"/>
+    <mergeCell ref="AB193:AC193"/>
+    <mergeCell ref="AB194:AC194"/>
+    <mergeCell ref="AB195:AC195"/>
+    <mergeCell ref="AB196:AC196"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="AB202:AC202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="AB203:AC203"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="AB200:AC200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="AB201:AC201"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="AB206:AC206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="AB207:AC207"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="AB204:AC204"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="AB205:AC205"/>
     <mergeCell ref="H210:I210"/>
     <mergeCell ref="J210:K210"/>
     <mergeCell ref="L210:M210"/>
@@ -46488,349 +46621,226 @@
     <mergeCell ref="J209:K209"/>
     <mergeCell ref="L209:M209"/>
     <mergeCell ref="AB209:AC209"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="AB206:AC206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="AB207:AC207"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="AB204:AC204"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="AB205:AC205"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="AB202:AC202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="AB203:AC203"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="AB200:AC200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="AB201:AC201"/>
-    <mergeCell ref="AB197:AC197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="AB198:AC198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="AB199:AC199"/>
-    <mergeCell ref="AB191:AC191"/>
-    <mergeCell ref="AB192:AC192"/>
-    <mergeCell ref="AB193:AC193"/>
-    <mergeCell ref="AB194:AC194"/>
-    <mergeCell ref="AB195:AC195"/>
-    <mergeCell ref="AB196:AC196"/>
-    <mergeCell ref="AB186:AC186"/>
-    <mergeCell ref="AB187:AC187"/>
-    <mergeCell ref="AB188:AC188"/>
-    <mergeCell ref="AB189:AC189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="AB190:AC190"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="AB184:AC184"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="AB185:AC185"/>
-    <mergeCell ref="AB178:AC178"/>
-    <mergeCell ref="AB179:AC179"/>
-    <mergeCell ref="AB180:AC180"/>
-    <mergeCell ref="AB181:AC181"/>
-    <mergeCell ref="AB182:AC182"/>
-    <mergeCell ref="AB183:AC183"/>
-    <mergeCell ref="AB172:AC172"/>
-    <mergeCell ref="AB173:AC173"/>
-    <mergeCell ref="AB174:AC174"/>
-    <mergeCell ref="AB175:AC175"/>
-    <mergeCell ref="AB176:AC176"/>
-    <mergeCell ref="AB177:AC177"/>
-    <mergeCell ref="AB166:AC166"/>
-    <mergeCell ref="AB167:AC167"/>
-    <mergeCell ref="AB168:AC168"/>
-    <mergeCell ref="AB169:AC169"/>
-    <mergeCell ref="AB170:AC170"/>
-    <mergeCell ref="AB171:AC171"/>
-    <mergeCell ref="AB160:AC160"/>
-    <mergeCell ref="AB161:AC161"/>
-    <mergeCell ref="AB162:AC162"/>
-    <mergeCell ref="AB163:AC163"/>
-    <mergeCell ref="AB164:AC164"/>
-    <mergeCell ref="AB165:AC165"/>
-    <mergeCell ref="AB154:AC154"/>
-    <mergeCell ref="AB155:AC155"/>
-    <mergeCell ref="AB156:AC156"/>
-    <mergeCell ref="AB157:AC157"/>
-    <mergeCell ref="AB158:AC158"/>
-    <mergeCell ref="AB159:AC159"/>
-    <mergeCell ref="AB148:AC148"/>
-    <mergeCell ref="AB149:AC149"/>
-    <mergeCell ref="AB150:AC150"/>
-    <mergeCell ref="AB151:AC151"/>
-    <mergeCell ref="AB152:AC152"/>
-    <mergeCell ref="AB153:AC153"/>
-    <mergeCell ref="AB142:AC142"/>
-    <mergeCell ref="AB143:AC143"/>
-    <mergeCell ref="AB144:AC144"/>
-    <mergeCell ref="AB145:AC145"/>
-    <mergeCell ref="AB146:AC146"/>
-    <mergeCell ref="AB147:AC147"/>
-    <mergeCell ref="AB137:AC137"/>
-    <mergeCell ref="AB138:AC138"/>
-    <mergeCell ref="AB139:AC139"/>
-    <mergeCell ref="AB140:AC140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="AB141:AC141"/>
-    <mergeCell ref="AB131:AC131"/>
-    <mergeCell ref="AB132:AC132"/>
-    <mergeCell ref="AB133:AC133"/>
-    <mergeCell ref="AB134:AC134"/>
-    <mergeCell ref="AB135:AC135"/>
-    <mergeCell ref="AC136:AD136"/>
-    <mergeCell ref="AC127:AD127"/>
-    <mergeCell ref="AC128:AD128"/>
-    <mergeCell ref="AB129:AC129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="AB130:AC130"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="AB125:AC125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="AB126:AC126"/>
-    <mergeCell ref="AC121:AD121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="L124:M124"/>
-    <mergeCell ref="AB124:AC124"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="AB119:AC119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="AC120:AD120"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="AC114:AD114"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="AC116:AD116"/>
-    <mergeCell ref="AB108:AC108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AB110:AC110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="AC111:AD111"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="AB106:AC106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="AB107:AC107"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="AC103:AD103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="AB105:AC105"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="AC100:AD100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="AB97:AC97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="AB98:AC98"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="AC90:AD90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="AC89:AD89"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AC82:AD82"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AC64:AD64"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="AC56:AD56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AC53:AD53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AC50:AD50"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="AB214:AC214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="L215:M215"/>
+    <mergeCell ref="AB215:AC215"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="AB212:AC212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="L213:M213"/>
+    <mergeCell ref="AB213:AC213"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="AB218:AC218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="AB219:AC219"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="AB216:AC216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="AB217:AC217"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="AB222:AC222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="AB223:AC223"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="AB220:AC220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="AB221:AC221"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="AB226:AC226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="AB227:AC227"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="AB224:AC224"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="AB225:AC225"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="AB230:AC230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="AB231:AC231"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="AB228:AC228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="AB229:AC229"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="AB234:AC234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="AB235:AC235"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="AB232:AC232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="AB233:AC233"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="AB238:AC238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="AB239:AC239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="AB236:AC236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="AB237:AC237"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="AB242:AC242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="AB243:AC243"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="AB240:AC240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="AB241:AC241"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="AB246:AC246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="AB247:AC247"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="AB244:AC244"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="AB245:AC245"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="AB250:AC250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="AB251:AC251"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="AB248:AC248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="AB249:AC249"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="AB254:AC254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="AB255:AC255"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="AB252:AC252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="AB253:AC253"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="AB259:AC259"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="AB256:AC256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="AB257:AC257"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="AB262:AC262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="AB263:AC263"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="AB260:AC260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="L261:M261"/>
+    <mergeCell ref="AB261:AC261"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="L266:M266"/>
+    <mergeCell ref="AB266:AC266"/>
+    <mergeCell ref="AB267:AC267"/>
+    <mergeCell ref="AB268:AC268"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="AB264:AC264"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="AB265:AC265"/>
+    <mergeCell ref="AB275:AC275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="AB276:AC276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="AB277:AC277"/>
+    <mergeCell ref="AB269:AC269"/>
+    <mergeCell ref="AB270:AC270"/>
+    <mergeCell ref="AB271:AC271"/>
+    <mergeCell ref="AB272:AC272"/>
+    <mergeCell ref="AB273:AC273"/>
+    <mergeCell ref="AB274:AC274"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="AB280:AC280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="AB281:AC281"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="AB278:AC278"/>
+    <mergeCell ref="I279:J279"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="AB279:AC279"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="L284:M284"/>
+    <mergeCell ref="AC284:AD284"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="AB282:AC282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="L283:M283"/>
+    <mergeCell ref="AB283:AC283"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="BF20" r:id="rId1" display="mailto:auxconta@rosarito.com" xr:uid="{C50E4940-3978-49B5-9079-4AEFDEC07E45}"/>
@@ -46846,7 +46856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34537494-6FE0-4C72-AC4C-765F48A1BB3A}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I11"/>
     </sheetView>
   </sheetViews>
